--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,258 +1061,6 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>zonwm:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1021,7 +1021,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zonwm:Deprecated</t>
+          <t>zonmw:Deprecated</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,12 +829,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://orcid.org/0000-0002-7160-5942</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -864,12 +864,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-02-08T15:00:00+00:00</t>
+          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -899,12 +899,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-02-08T15:00:00+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -934,79 +934,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>skos:relatedMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>2021-02-08T15:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1021,27 +969,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zonmw:Deprecated</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deprecated</t>
+          <t>2021-02-08T15:00:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>This is a set of controlled terms which are deprecated.</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1061,6 +1001,136 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>skos:relatedMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>zonmw:Deprecated</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Deprecated</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>This is a set of controlled terms which are deprecated.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,8 +453,6 @@
       <c r="U1" t="inlineStr"/>
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
-      <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,8 +490,6 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,8 +527,6 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,8 +564,6 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -609,8 +601,6 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -648,8 +638,6 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -683,8 +671,6 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,8 +704,6 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -753,8 +737,6 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -788,8 +770,6 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -823,8 +803,6 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -858,8 +836,6 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -893,8 +869,6 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -928,8 +902,6 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -963,8 +935,6 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -998,8 +968,6 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1024,59 +992,55 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>skos:narrowMatch(separator=",")</t>
+          <t>skos:relatedMatch(separator=",")</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>skos:relatedMatch(separator=",")</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>owl:deprecated^^xsd:boolean</t>
+          <t>dct:isReplacedBy</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>dct:isReplacedBy</t>
+          <t>skos:editorialNote@en</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>dct:creator(separator=",")</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1085,8 +1049,6 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1107,12 +1069,12 @@
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1128,10 +1090,8 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,7 @@
       <c r="U1" t="inlineStr"/>
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zonmw</t>
+          <t>zonmwpc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,6 +491,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,6 +529,7 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -564,6 +567,7 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -601,6 +605,7 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -638,6 +643,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -671,6 +677,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -704,6 +711,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -737,6 +745,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -770,6 +779,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -803,6 +813,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -836,6 +847,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -869,6 +881,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -902,6 +915,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -935,6 +949,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -968,6 +983,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1049,16 +1065,17 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>zonmw:Deprecated</t>
+          <t>zonmwpc:10000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Deprecated</t>
+          <t>deprecated</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1090,6 +1107,9047 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>zonmwpc:10001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>spatial scope</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>zonmwpc:10002</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">area </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>zonmwpc:10001</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>zonmwpc:10003</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>zonmwpc:10002</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zonmwpc:10004</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rural</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>zonmwpc:10002</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>zonmwpc:10005</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>provincial</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>zonmwpc:10002</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>zonmwpc:10006</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>zonmwpc:10002</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>zonmwpc:10007</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>zonmwpc:10002</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>zonmwpc:10008</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>international</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>zonmwpc:10002</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>care setting</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>zonmwpc:10001</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>zonmwpc:10010</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>home care</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>zonmwpc:10011</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>transmural</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>zonmwpc:10012</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GP care</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zonmwpc:10013</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>nursing home care</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>zonmwpc:10014</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>hospital care</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>zonmwpc:10015</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>informal care</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>zonmwpc:10016</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>residential care</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>zonmwpc:10009</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>temporal scope</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>zonmwpc:10018</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>health care phase</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>zonmwpc:10019</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>acute care</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>zonmwpc:10018</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>zonmwpc:10020</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>post-covid care</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>zonmwpc:10018</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>zonmwpc:10021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>palliative care</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Palliative care is treatment of the discomfort, symptoms, and stress of serious illness. It provides relief from distressing symptoms including pain, shortness of breath, constipation, nausea, loss of appetite, problems with sleep. It can also help you deal with the side effects of the medical treatments you're receiving, care at the end of life, always includes palliative care. But you may receive palliative care at any stage of an illness. The goal is to make you comfortable and improve your quality of life.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>zonmwpc:10018</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231,http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C101516</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>zonmwpc:10022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rehabilitation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Restoration of the ability to function in a normal or near normal manner following disease, illness, or injury.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>zonmwpc:10018</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>zonmwpc:10023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>surveillance phase</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>zonmwpc:10024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>short-term impact on emotional wellbeing</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>zonmwpc:10023</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>zonmwpc:10025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>long-term impact on emotional wellbeing</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>zonmwpc:10023</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>zonmwpc:10026</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>long COVID</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A Coronavirus infectious disease that is characterized by long-term persistent and fluctuating symptoms, in individuals with COVID-19, persisting beyond three to four weeks, including the loss of the ability to smell and taste, breathlessness, fatigue, difficulty in breathing, difficulty concentrating, memory loss, confusion, headache, heart palpitations, chest pain, pain with deep breaths, dizziness, and tachycardia.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>zonmwpc:10023</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>zonmwpc:10027</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>regulation phase</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>zonmwpc:10028</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lockdown phase</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>zonmwpc:10027</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>zonmwpc:10029</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>prevention phase</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>zonmwpc:10027</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>zonmwpc:10030</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>social distancing phase</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>zonmwpc:10027</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>zonmwpc:10031</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>restricted shopping phase</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>zonmwpc:10027</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>zonmwpc:10032</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>curefew</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>zonmwpc:10027</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>zonmwpc:10033</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>COVID-19 phase</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>zonmwpc:10034</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>first wave</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>zonmwpc:10033</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>zonmwpc:10035</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>second wave</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>zonmwpc:10033</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>zonmwpc:10036</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>third wave</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>zonmwpc:10033</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>population group</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>people after age</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>zonmwpc:10039</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>prematures</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>less then 37 weeks gestational outcome</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>zonmwpc:10040</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>newborns</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>37 or more weeks gestational outcome</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>zonmwpc:10041</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>neonates</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0-3 months</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>zonmwpc:10042</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>babies</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3-12 months</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>zonmwpc:10043</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>small children</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1-4 years</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>zonmwpc:10044</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>primary school children</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4-12 years</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>zonmwpc:10045</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12-18 years</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>zonmwpc:10046</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>young people</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16-27 years</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>zonmwpc:10047</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>young adults</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>18-21 years</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>zonmwpc:10048</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>18-65 years</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>zonmwpc:10049</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>elderly</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>65-80 years</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C16268&amp;key=162882687&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>zonmwpc:10050</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>very elderly</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>more than 80 years</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>zonmwpc:10051</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>people after sex</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grouping specifying the determination of an infant's sex shortly after birth
+</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>zonmwpc:10052</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>zonmwpc:10051</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>zonmwpc:10053</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>zonmwpc:10052</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>zonmwpc:10054</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>intersex</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>zonmwpc:10053</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>zonmwpc:10055</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>people after gender</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grouping on basis of person's sense of self as a member of a particular gender
+</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>zonmwpc:10056</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>zonmwpc:10055</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>zonmwpc:10057</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>woman</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>zonmwpc:10055</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>zonmwpc:10058</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>non-binary</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>zonmwpc:10055</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>zonmwpc:10059</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>zonmwpc:10055</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>zonmwpc:10060</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>people after education</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>zonmwpc:10061</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>preschooler</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>zonmwpc:10060</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>zonmwpc:10062</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>daycare child</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>zonmwpc:10060</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>zonmwpc:10063</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>primary school student</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>zonmwpc:10060</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>zonmwpc:10064</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>secondary school student</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>zonmwpc:10060</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>zonmwpc:10065</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>vocational school student</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>zonmwpc:10060</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>zonmwpc:10066</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>university student</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>zonmwpc:10060</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>people after employment</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>zonmwpc:10068</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>individual with low socio-economic status</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>zonmwpc:10069</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>individual with high socio-economic status</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>zonmwpc:10070</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>employed person</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>zonmwpc:10071</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>self-employed individual</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>zonmwpc:10072</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>employee with a temporary contract</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>zonmwpc:10073</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>informal care provider</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>zonmwpc:10074</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>professional care provider</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>zonmwpc:10075</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>individual living in a care home</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>zonmwpc:10076</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>tourist</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>zonmwpc:10067</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>zonmwpc:10077</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>people with migration background</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>zonmwpc:10078</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>individual with a migration background</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>zonmwpc:10077</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>zonmwpc:10079</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>statushouder</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>zonmwpc:10077</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>zonmwpc:10080</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>asylum seeker</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>zonmwpc:10077</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>zonmwpc:10081</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>undocumented migrant</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>zonmwpc:10077</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>zonmwpc:10082</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>season labour migrant</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>zonmwpc:10077</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>people after COVID-19 risk factors</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>zonmwpc:10084</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>individual with a chronic illness</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>zonmwpc:10085</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>individual with underlying disease(s)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>zonmwpc:10086</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>patient with (covid-19 associated) thrombosis</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>zonmwpc:10087</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>individual with obesity</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>zonmwpc:10088</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>patient using anticoagulants</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>zonmwpc:10089</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>surgical patient</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>zonmwpc:10090</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>blood donor</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>zonmwpc:10083</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>zonmwpc:10091</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>COVID-19 related grouping</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>zonmwpc:10092</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>hospitalised covid-19 patient</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>zonmwpc:10091</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>zonmwpc:10093</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>non-hospitalised covid-19 patient</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>zonmwpc:10091</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>zonmwpc:10094</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>long-covid-19 patient</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>zonmwpc:10091</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>zonmwpc:10095</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Individual after first infection</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>zonmwpc:10091</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>zonmwpc:10096</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>individual  with sars-cov-2 vaccination</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>zonmwpc:10091</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>zonmwpc:10097</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>individual refusing sars-cov-2 vaccination</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>zonmwpc:10091</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>target group of policy interventions</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>zonmwpc:10099</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>homeless</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>zonmwpc:10100</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>victim of domestic violence</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>zonmwpc:10101</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>illiterate people</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>zonmwpc:10102</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>physical disabled</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>zonmwpc:10103</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>intellectual disabled</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>zonmwpc:10104</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>mental health patient</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>zonmwpc:10105</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>policy-maker</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>zonmwpc:10106</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>single household person</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>zonmwpc:10098</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>health data</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Grouping of terms that relate to the health and physical condition of an individual subject, as well as biological information about any relevant pathogens</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>zonmwpc:10109</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>health record data</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Data that contains patient health information generated by one or more encounters in any care delivery setting. Included in this information are patient demographics, progress notes, problems, medications, vital signs, past medical history, immunizations, laboratory data and radiology reports.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>zonmwpc:10110</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>medical history data</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>A collection of information about a person's health. It may include information about allergies, illnesses and surgeries, and dates and results of physical exams, tests, screenings, and immunizations. It may also include information about medicines taken and about diet and exercise</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/ONTOAD?p=classes&amp;conceptid=http%3A%2F%2Fdoe-generated-ontology.com%2FOntoAD%23C0262926</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/ONTOAD?p=classes&amp;conceptid=http%3A%2F%2Fdoe-generated-ontology.com%2FOntoAD%23C0262926</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>zonmwpc:10111</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">diagnostic data </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>The representation of a conclusion of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>zonmwpc:10112</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>physiological data</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Data related to physiological recording or monitoring.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
+</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>zonmwpc:10113</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>laboratory data</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>A representation of a quality of a specimen that is the output of a laboratory test and that can support an inference to an assertion about some quality of the patient.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>zonmwpc:10114</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>treatment data</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate a disorder, the signs and symptoms of a disorder, or a pathological process</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>zonmwpc:10115</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>medication data</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>pharmaceutical</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Any substance introduced into a living organism with therapeutic or diagnostic purpose.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>zonmwpc:10116</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>molecular data</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Data that is about molecules or phenomena occurring at a molecular level (e.g. processes such as molecular interactions, chemical reactions, gene expression etc).</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>zonmwpc:10117</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>genetic data</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Data is data pertaining to genetics.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+http://semanticscience.org/resource/SIO_010028</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>zonmwpc:10108</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ERO_0100359,
+http://semanticscience.org/resource/SIO_010028</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>diagnostic imaging</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Group of subclasses of various types of diagnostic imaging technologies</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/HL7/C001192</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>zonmwpc:10119</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>magnetic resonance imaging</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Imaging that uses radiofrequency waves and a strong magnetic field rather than x-rays to provide detailed pictures of internal organs and tissues. The technique is valuable for the diagnosis of many pathologic conditions, including cancer, heart and vascular disease, stroke, and joint and musculoskeletal disorders.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C16809</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>zonmwpc:10120</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>X-ray imaging</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>X-ray</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>An image of the structure penetrated by the radiation using the emission of x-rays</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C17262&amp;jump_to_nav=true</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>zonmwpc:10121</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ultrasound</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>High frequency sound, generally with a frequency greater than 20,000 Hz.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C64384&amp;jump_to_nav=true</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>zonmwpc:10122</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">computed tomography </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>A method of examining structures within the body by scanning them with X rays and using a computer to construct a series of cross-sectional scans along a single axis.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C17204&amp;jump_to_nav=true</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>zonmwpc:10123</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>infrared thermography</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>In medicine, a procedure in which an infrared camera (one that senses heat) is used to measure temperature differences on the surface of the body. The camera makes pictures that show areas of possible abnormal cell growth because abnormal tissue gives off more heat than normal tissue does.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C62663&amp;jump_to_nav=true</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>zonmwpc:10124</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>societal data</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>zonmwpc:10125</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>survey data</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>A data set that contains the outcome of a survey.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMIABIS_0000060</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>zonmwpc:10126</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>COVID policy and prevention measures</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C15843</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>zonmwpc:10127</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>environmental data</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>zonmwpc:10128</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>geographical data</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>zonmwpc:10129</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>aerial photography</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/4/id/200906051703202632</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>zonmwpc:10130</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>A usually 2-dimensional diagrammatic representation of an object or area.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C43433</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>zonmwpc:10131</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>GIS data</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Data produced by a system designed to capture, store, update, manipulate, analyze and display data that are linked to location.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>zonmwpc:10118</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C15754&amp;key=n1963476518&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>zonmwpc:10132</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>audiovisual data</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Group of subclasses of audiovisual media that are not imaging technology</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>zonmwpc:10133</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>A visual representation of an object, scene, person or abstraction.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>zonmwpc:10132</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C54273&amp;jump_to_nav=true</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>zonmwpc:10134</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>video recording</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>The storing or preserving of video images to be displayed later.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>:https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>zonmwpc:10132</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C96985&amp;jump_to_nav=true</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>zonmwpc:10135</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>contextual data</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>zonmwpc:10136</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>field note</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>The text of notes taken in the field about an event.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>zonmwpc:10135</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>http://rs.tdwg.org/dwc/terms/fieldNotes</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>zonmwpc:10137</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>focus group discussion</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>zonmwpc:10135</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+http://ontologies.dbmi.pitt.edu/edda/StudyDesigns.owl#focus_group</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>zonmwpc:10138</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>social media data</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>zonmwpc:10135</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D061108</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>zonmwpc:10139</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>diaries</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Work consisting of records, usually private, of writers' experiences, observations, feelings, attitudes, etc. They may also be works marked in calendar order in which to note appointments and the like.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>zonmwpc:10138</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D019497</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>zonmwpc:10140</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>interview data</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>zonmwpc:10138</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/FBcv_0000205</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>zonmwpc:10141</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>other type of data</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>zonmwpc:10142</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>study design</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>A plan detailing how a study will be performed in order to represent the phenomenon under examination, to answer the research questions that have been asked, and defining the methods of data analysis. Study design is driven by research hypothesis being posed, study subject/population/sample available, logistics/resources: technology, support, networking, collaborative support, etc.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>zonmwpc:10141</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>zonmwpc:10143</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>prototype description</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>zonmwpc:10141</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>zonmwpc:10144</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>biomaterial</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>organism</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs.</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>zonmwpc:10144</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>zonmwpc:10146</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>The bipedal primate mammal, Homo sapiens; belonging to man or mankind; pertaining to man or to the race of man; use of man as experimental subject or unit of analysis in research.</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>zonmwpc:10147</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>mink</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Carnivores of genus Mustela of the family MUSTELIDAE. The European mink, which has white upper and lower lips, was widely trapped for commercial purposes and is classified as endangered. The American mink, lacking a white upper lip, is farmed commercially.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MeSH</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>zonmwpc:10148</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>mouse</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Any of numerous species of small rodents belonging to the genus Mus and various related genera of the family Muridae.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C14238</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>zonmwpc:10149</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>rat</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Any of numerous species of rodents belonging to the genus Rattus and/or various related genera of the family Muridae.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C160998</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>zonmwpc:10150</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>virus</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C14283</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>zonmwpc:10151</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>bacteria</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C14187</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>zonmwpc:10152</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>parasite</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>substance</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>zonmwpc:10144</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>zonmwpc:10154</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>A liquid tissue; its major function is to transport oxygen throughout the body. It also supplies the tissues with nutrients, removes waste products, and contains various components of the immune system defending the body against infection. Several hormones also travel in the blood.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C12434</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>zonmwpc:10155</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>breath</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>The air that is inhaled and exhaled during respiration.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C94552</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>zonmwpc:10156</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">feces
+</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>The material discharged from the bowel during defecation. It consists of undigested food, intestinal mucus, epithelial cells, and bacteria.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13234
+http://purl.bioontology.org/ontology/SNOMEDCT/39477002</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>zonmwpc:10157</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>plasma</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Plasma is the fluid (noncellular) portion of the circulating blood, as distinguished from the serum that is the fluid portion of the blood obtained by removal of the fibrin clot and blood cells after coagulation.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13356
+http://purl.bioontology.org/ontology/SNOMEDCT/50863008</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>zonmwpc:10158</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>saliva</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>The watery fluid in the mouth made by the salivary glands. Saliva moistens food to help digestion and it helps protect the mouth against infections.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13275
+http://purl.bioontology.org/ontology/SNOMEDCT/256897009 </t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>zonmwpc:10159</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>semen</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>The thick, whitish secretion of the male reproductive organs. It is composed of spermatozoa in their nutrient plasma, secretions from the prostate, seminal vesicles, and various other glands, epithelial cells, and minor constituents.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13277</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>zonmwpc:10160</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>The clear portion of the blood that remains after the removal of the blood cells and the clotting proteins.</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CTT</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13325,
+http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>zonmwpc:10161</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>sewage</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Wastewater that is contaminated with feces or urine</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Ontobee</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ENVO_00002018; https://en.wikipedia.org/wiki/Sewage</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>zonmwpc:10162</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>sputum</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Material containing mucus, cellular debris, microorganisms and sometimes blood or pus. It is ejected through the mouth from the lungs, bronchi, and trachea.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13278</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>zonmwpc:10163</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>tear</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>A fluid containing oils, mucin, and proteins, which is secreted by the lacrimal gland and cleans and lubricates the eye.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C33739</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>zonmwpc:10164</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>tissue</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>An anatomical structure consisting of similarly specialized cells and intercellular matrix, aggregated according to genetically determined spatial relationships, performing a specific function.</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C12801</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>zonmwpc:10165</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>urine</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>The fluid that is excreted by the kidneys. It is stored in the bladder and discharged through the urethra.</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13283</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>zonmwpc:10166</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>peripheral blood mononuclear cell</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>A peripheral blood cell with a single nucleus. This category includes lymphocytes and monocytes.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C12954</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>zonmwpc:10167</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>nutrition</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>A group of materials of either plant, animal or artificial origin containing essential body nutrients that can be ingested by an organism to produce energy, stimulate growth, and maintain life.</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C28294</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>zonmwpc:10168</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>cervicovaginal secretion</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>The watery fluid, consisting of vulvar gland, endometrium, and oviduct secretions, cervical mucus, vaginal wall plasma transudate, exfoliated cells, and bacterial and immune cell products, that hydrates and forms an antimicrobial barrier for the mucosa of the lower female genital tract.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>zonmwpc:10153</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C150892
+</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>A part of a thing, or of several things, taken to demonstrate or to determine the character of the whole, e.g. a substance, or portion of material obtained for use in testing, examination, or study; particularly, a preparation of tissue or bodily fluid taken for examination or diagnosis.</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>zonmwpc:10144</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C19157,
+http://purl.bioontology.org/ontology/SNOMEDCT/123038009</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>zonmwpc:10170</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>cell lines</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>A permanently established cell culture that will proliferate indefinitely given appropriate fresh medium and space.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16403</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>zonmwpc:10171</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>fresh specimen</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>a specimen that is output of a specimen creation process used for an investigation without storage.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>OBI</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>zonmwpc:10172</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>frozen specimen</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>A specimen that has been frozen in order to store it.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>OBI</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>zonmwpc:10173</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nasal swab </t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>A biospecimen collected from the nasal passages by swabbing.</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C155833</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>zonmwpc:10174</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>nasopharyngeal swab specimen</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>A specimen that is collected with a swab from the surface of a nasopharynx.</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Ontology for Biomedical Investigations</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>zonmwpc:10175</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>oropharyngeal swab specimen</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>A biospecimen collected from the oropharynx by swabbing.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C155835,
+http://purl.bioontology.org/ontology/SNOMEDCT/461911000124106,
+http://purl.bioontology.org/ontology/SNOMEDCT/258529004</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>zonmwpc:10176</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>tissue specimen</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>zonmwpc:10177</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Vaginal swab specimen</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>A specimen that is collected with a swab from the surface of a vagina.</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>OBI</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>zonmwpc:10178</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FFPE tissue specimen</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>A specimen that has been fixed in formalin and embedded in paraffin.</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>zonmwpc:10179</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>glutaraldehyde fixed tissue specimen</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>glutaraldehyde fixed tissue</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>FBbi</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>zonmwpc:10180</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>macromolecule</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>zonmwpc:10144</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/FBbi_00000011</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>zonmwpc:10181</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>cDNA</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Single-stranded DNA that is complementary to messenger RNA or DNA that has been synthesized from messenger RNA by reverse transcriptase.</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://ncithesaurus.nci.nih.gov
+</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>zonmwpc:10180</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C324</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>zonmwpc:10182</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>DNA</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>A long linear double-stranded polymer formed from nucleotides attached to a deoxyribose backbone and found in the nucleus of a cell; associated with the transmission of genetic information.</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>zonmwpc:10180</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449
+http://purl.bioontology.org/ontology/SNOMEDCT/24851008</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>zonmwpc:10183</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Single-stranded long chain of nucleotides containing ribose. It is the end product of DNA transcription by the enzyme RNA polymerase. It is essential in protein synthesis.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>zonmwpc:10180</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812,
+http://purl.bioontology.org/ontology/SNOMEDCT/27888000</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>zonmwpc:10184</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>A group of complex organic macromolecules composed of one or more chains (linear polymers) of alpha-L-amino acids linked by peptide bonds and ranging in size from a few thousand to over 1 million Daltons. Proteins are fundamental genetically encoded components of living cells with specific structures and functions dictated by amino acid sequence.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>zonmwpc:10180</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021
+http://purl.bioontology.org/ontology/SNOMEDCT/88878007</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>zonmwpc:10185</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>antibody</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>A type of protein made by B lymphocytes in response to a foreign substance (antigen). Each antibody only binds to a specific antigen, helping to destroy the antigen directly or by assisting white blood cells to destroy the antigen.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov
+SNOMED-CT</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>zonmwpc:10180</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16295
+http://purl.bioontology.org/ontology/SNOMEDCT/68498002</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>zonmwpc:10186</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>services</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>laboratory services</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>zonmwpc:10186</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>zonmwpc:10188</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ML-1 laboratory</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>zonmwpc:10189</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ML-2 laboratory</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>zonmwpc:10190</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ML-3 laboratory</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409600007</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>zonmwpc:10191</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>BSL-1 laboratory</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Biosafety level one, the lowest level, applies to work with agents that usually pose a minimal potential threat to laboratory workers and the environment and do not consistently cause disease in healthy adults.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409603009</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>zonmwpc:10192</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>BSL-2 laboratory</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Biosafety level two would cover work with agents associated with human 
+disease, in other words, pathogenic or infectious organisms posing a 
+moderate hazard.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409604003</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>zonmwpc:10193</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>BSL-3 laboratory</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Yellow fever, St. Louis encephalitis and West Nile virus are examples of agents requiring biosafety level 3 practices and containment. Work with these agents is strictly controlled and must be registered with all appropriate government agencies.</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409605002</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>zonmwpc:10194</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BSL-4 laboratory</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agents requiring BSL 4 facilities and practices are extremely dangerous pand pose a high risk of life-threatening disease. Examples are the Ebola  virus, the Lassa virus, and any agent with unknown risks of pathogenicity and transmission. </t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>zonmwpc:10195</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>antibody facility</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>helps researchers produce custom antibodies</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>zonmwpc:10196</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>proteomics facility</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>zonmwpc:10197</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Metabolomics facility</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>complete analytical platform, coupled to advanced extraction techniques, sample prep methods and vast experience, allows to offer non-targetted or targetted metabolomic studies, metabolomic fingerprinting or footprinting studies</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>zonmwpc:10198</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>animal facility (breeding/transgenesis)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Keeping and breeding of test animals for the purpose of scientific research and education</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>zonmwpc:10199</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>flow cytometry facility</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>accommodates all research and diagnostic flow cytometry equipment</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>zonmwpc:10200</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>microscopy facility</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>connect clinical and biological research with microscopy and image analysis developments, offer support and provide training and education to make use of the facility</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>zonmwpc:10201</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>sequencing facility</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>provides support for Next Generation Sequencing (NGS) based research</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>zonmwpc:10202</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>hiPSC facility</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>human induced Pluripotent Stem Cell (hiPSC) facility: generation of research grade hiPSCs from different tissue sources</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>zonmwpc:10203</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>GMP facility</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>zonmwpc:10204</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>data analytics facility</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>offers advice on advanced quantitative, statistical and computational methods for biomedical and clinical researchers</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>zonmwpc:10205</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>biobank facility</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>A facility or core that provides storage for any type of biospecimen.</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>zonmwpc:10206</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>viral vector facility</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>zonmwpc:10207</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>pharmacy</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>zonmwpc:10208</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>metabolomics facility</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>zonmwpc:10187</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>zonmwpc:10209</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>repository</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>zonmwpc:10186</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>zonmwpc:10210</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>biobank</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>zonmwpc:10186</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>zonmwpc:10211</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>data catalogue</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>zonmwpc:10186</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>zonmwpc:10212</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ELSI service</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>zonmwpc:10186</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>other online service</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>zonmwpc:10186</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-02-08T15:00:00+00:00</t>
+          <t>2021-04-06T22:00:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -6280,7 +6280,7 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>zonmwpc:10128</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>zonmwpc:10128</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -6376,7 +6376,7 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>zonmwpc:10128</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X231"/>
+  <dimension ref="A1:X230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>0.3.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-04-06T22:00:00+00:00</t>
+          <t>2021-04-07T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGMS_0000090
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
 </t>
         </is>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGMS_0000090
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
 </t>
         </is>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C16809</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -5888,7 +5888,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C17262&amp;jump_to_nav=true</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -5938,7 +5938,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C64384&amp;jump_to_nav=true</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -5992,7 +5992,7 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C17204&amp;jump_to_nav=true</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -6042,7 +6042,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C62663&amp;jump_to_nav=true</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -6336,7 +6336,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C43433</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -6474,7 +6474,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C54273&amp;jump_to_nav=true</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>:https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6524,7 +6524,7 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT/?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C96985&amp;jump_to_nav=true</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MeSH</t>
+          <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7141,7 +7141,7 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C14238</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -7191,7 +7191,7 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C160998</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7241,7 +7241,7 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C14283</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7291,7 +7291,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7441,7 +7441,7 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C12434</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7491,7 +7491,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C94552</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
@@ -7531,8 +7531,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7583,8 +7582,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7595,7 +7593,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13356
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356,
 http://purl.bioontology.org/ontology/SNOMEDCT/50863008</t>
         </is>
       </c>
@@ -7635,8 +7633,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7647,7 +7644,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13275
+          <t xml:space="preserve">https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275,
 http://purl.bioontology.org/ontology/SNOMEDCT/256897009 </t>
         </is>
       </c>
@@ -7687,7 +7684,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7698,7 +7695,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13277</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -7737,8 +7734,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CTT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7749,7 +7745,7 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13325,
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325,
 http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
         </is>
       </c>
@@ -7789,7 +7785,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ontobee</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_00002018</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7800,7 +7796,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_00002018; https://en.wikipedia.org/wiki/Sewage</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_00002018,https://en.wikipedia.org/wiki/Sewage</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
@@ -7839,7 +7835,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7850,7 +7846,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13278</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
@@ -7889,7 +7885,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7900,7 +7896,7 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C33739</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
@@ -7939,7 +7935,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7950,7 +7946,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C12801</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
@@ -7989,7 +7985,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -8000,7 +7996,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13283</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -8039,7 +8035,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -8050,7 +8046,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C12954</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
@@ -8089,7 +8085,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -8100,7 +8096,7 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C28294</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
@@ -8139,7 +8135,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -8150,8 +8146,7 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C150892
-</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
@@ -8190,8 +8185,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -8202,7 +8196,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C19157,
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157,
 http://purl.bioontology.org/ontology/SNOMEDCT/123038009</t>
         </is>
       </c>
@@ -8231,7 +8225,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>cell lines</t>
+          <t>cell line</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -8242,7 +8236,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8253,7 +8247,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16403</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -8292,7 +8286,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -8342,7 +8336,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -8387,12 +8381,12 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>A biospecimen collected from the nasal passages by swabbing.</t>
+          <t>A method used to collect biological material from within the nasal passages. A cotton swab is inserted into the nasal opening and rotated against the anterior nasal mucosa and them withdrawn.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -8403,7 +8397,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/NCIT_C155833</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
@@ -8442,7 +8436,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Ontology for Biomedical Investigations</t>
+          <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -8492,8 +8486,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -8504,7 +8497,7 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C155835,
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835,
 http://purl.bioontology.org/ontology/SNOMEDCT/461911000124106,
 http://purl.bioontology.org/ontology/SNOMEDCT/258529004</t>
         </is>
@@ -8541,7 +8534,7 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SNOMED-CT</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8591,7 +8584,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>OBI</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8641,7 +8634,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SNOMED-CT</t>
+          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8650,7 +8643,11 @@
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
+        </is>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -8680,16 +8677,8 @@
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>glutaraldehyde fixed tissue</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>FBbi</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
@@ -8698,7 +8687,7 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
+          <t>http://purl.obolibrary.org/obo/FBbi_00000011</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -8738,11 +8727,7 @@
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/FBbi_00000011</t>
-        </is>
-      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -8779,8 +8764,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://ncithesaurus.nci.nih.gov
-</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8791,7 +8775,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C324</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -8830,8 +8814,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8842,7 +8825,7 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449,
 http://purl.bioontology.org/ontology/SNOMEDCT/24851008</t>
         </is>
       </c>
@@ -8882,8 +8865,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8894,7 +8876,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812,
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812,
 http://purl.bioontology.org/ontology/SNOMEDCT/27888000</t>
         </is>
       </c>
@@ -8934,8 +8916,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8946,7 +8927,7 @@
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021,
 http://purl.bioontology.org/ontology/SNOMEDCT/88878007</t>
         </is>
       </c>
@@ -8986,8 +8967,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov
-SNOMED-CT</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8998,7 +8978,7 @@
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16295
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295,
 http://purl.bioontology.org/ontology/SNOMEDCT/68498002</t>
         </is>
       </c>
@@ -9104,7 +9084,11 @@
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
+        </is>
+      </c>
       <c r="F206" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
@@ -9142,7 +9126,11 @@
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
@@ -9180,7 +9168,11 @@
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
+        </is>
+      </c>
       <c r="F208" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
@@ -9226,7 +9218,11 @@
           <t>Biosafety level one, the lowest level, applies to work with agents that usually pose a minimal potential threat to laboratory workers and the environment and do not consistently cause disease in healthy adults.</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
+        </is>
+      </c>
       <c r="F209" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
@@ -9274,7 +9270,11 @@
 moderate hazard.</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
+        </is>
+      </c>
       <c r="F210" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
@@ -9320,7 +9320,11 @@
           <t>Yellow fever, St. Louis encephalitis and West Nile virus are examples of agents requiring biosafety level 3 practices and containment. Work with these agents is strictly controlled and must be registered with all appropriate government agencies.</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
+        </is>
+      </c>
       <c r="F211" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
@@ -9366,7 +9370,11 @@
           <t xml:space="preserve">Agents requiring BSL 4 facilities and practices are extremely dangerous pand pose a high risk of life-threatening disease. Examples are the Ebola  virus, the Lassa virus, and any agent with unknown risks of pathogenicity and transmission. </t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
@@ -9479,7 +9487,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Metabolomics facility</t>
+          <t>metabolomics facility</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -9929,7 +9937,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>metabolomics facility</t>
+          <t>repository</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9937,7 +9945,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>zonmwpc:10186</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -9967,7 +9975,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>repository</t>
+          <t>biobank</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -10005,7 +10013,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>biobank</t>
+          <t>data catalogue</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -10043,7 +10051,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>data catalogue</t>
+          <t>ELSI service</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -10081,7 +10089,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ELSI service</t>
+          <t>other online service</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -10111,44 +10119,6 @@
       <c r="W230" t="inlineStr"/>
       <c r="X230" t="inlineStr"/>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>zonmwpc:10213</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>other online service</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>zonmwpc:10186</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="inlineStr"/>
-      <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -7542,7 +7542,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13234
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234,
 http://purl.bioontology.org/ontology/SNOMEDCT/39477002</t>
         </is>
       </c>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.3.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-04-07T00:00:00+00:00</t>
+          <t>2021-04-07T10:00:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X230"/>
+  <dimension ref="A1:X237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-04-07T10:00:00+00:00</t>
+          <t>2021-04-07T21:00:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -10119,6 +10119,268 @@
       <c r="W230" t="inlineStr"/>
       <c r="X230" t="inlineStr"/>
     </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">standard </t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>zonmwpc:10214</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>metadata standard</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>zonmwpc:10215</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>semantic artefact</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>zonmwpc:10216</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>technical standard</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>zonmwpc:10217</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>conceptual model</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>zonmwpc:10218</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>guideline</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr"/>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>zonmwpc:10219</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>zonmwpc:10213</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr"/>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X237"/>
+  <dimension ref="A1:X238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>1.0.2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-04-07T21:00:00+00:00</t>
+          <t>2021-04-27T22:00:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1534,7 +1534,11 @@
           <t>GP care</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>general practitioner care</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
@@ -2547,7 +2551,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>people after age</t>
+          <t>people by age</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -3093,7 +3097,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>people after sex</t>
+          <t>people by sex</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3182,7 +3186,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>zonmwpc:10052</t>
+          <t>zonmwpc:10051</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3220,7 +3224,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>zonmwpc:10053</t>
+          <t>zonmwpc:10051</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3250,7 +3254,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>people after gender</t>
+          <t>people by gender</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3445,7 +3449,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>people after education</t>
+          <t>people by education</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3711,7 +3715,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>people after employment</t>
+          <t>people by employment</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4319,7 +4323,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>people after COVID-19 risk factors</t>
+          <t>people by COVID-19 risk factors</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4623,7 +4627,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>COVID-19 related grouping</t>
+          <t>COVID-19 patient grouping</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4821,7 +4825,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>zonmwpc:10091</t>
+          <t>zonmwpc:10220</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -4859,7 +4863,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>zonmwpc:10091</t>
+          <t>zonmwpc:10220</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -8573,7 +8577,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Vaginal swab specimen</t>
+          <t>vaginal swab specimen</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -8806,7 +8810,11 @@
           <t>DNA</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>deoxyribonucleic acid</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>A long linear double-stranded polymer formed from nucleotides attached to a deoxyribose backbone and found in the nucleus of a cell; associated with the transmission of genetic information.</t>
@@ -8857,7 +8865,11 @@
           <t>RNA</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ribonucleic acid</t>
+        </is>
+      </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>Single-stranded long chain of nucleotides containing ribose. It is the end product of DNA transcription by the enzyme RNA polymerase. It is essential in protein synthesis.</t>
@@ -10381,6 +10393,44 @@
       <c r="W237" t="inlineStr"/>
       <c r="X237" t="inlineStr"/>
     </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>zonmwpc:10220</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>COVID-19 vaccination grouping</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>zonmwpc:10037</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr"/>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X238"/>
+  <dimension ref="A1:X239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0.2</t>
+          <t>1.0.3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-04-27T22:00:00+00:00</t>
+          <t>2021-05-07T20:40:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>societal data</t>
+          <t>social data</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -6124,7 +6124,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>zonmwpc:10107</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -6166,7 +6166,7 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>zonmwpc:10221</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>contextual data</t>
+          <t>qualitative data</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6691,7 +6691,7 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>zonmwpc:10135</t>
+          <t>zonmwpc:10124</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -10431,6 +10431,44 @@
       <c r="W238" t="inlineStr"/>
       <c r="X238" t="inlineStr"/>
     </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>zonmwpc:10221</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>political data</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr"/>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="inlineStr"/>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0.3</t>
+          <t>1.0.4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-02-08T15:00:00+00:00</t>
+          <t>2021-02-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/ONTOAD?p=classes&amp;conceptid=http%3A%2F%2Fdoe-generated-ontology.com%2FOntoAD%23C0262926</t>
+          <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5383,7 +5383,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://bioportal.bioontology.org/ontologies/ONTOAD?p=classes&amp;conceptid=http%3A%2F%2Fdoe-generated-ontology.com%2FOntoAD%23C0262926</t>
+          <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -5470,7 +5470,12 @@
           <t>Data related to physiological recording or monitoring.</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
+</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
@@ -8382,7 +8387,11 @@
           <t xml:space="preserve">nasal swab </t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>nose specimen, nose swab</t>
+        </is>
+      </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>A method used to collect biological material from within the nasal passages. A cotton swab is inserted into the nasal opening and rotated against the anterior nasal mucosa and them withdrawn.</t>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X239"/>
+  <dimension ref="A1:X242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,12 +784,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://orcid.org/0000-0002-9381-9693 </t>
+          <t>https://orcid.org/0000-0002-7160-5942</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-7160-5942</t>
+          <t xml:space="preserve">https://orcid.org/0000-0002-9381-9693 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0.4</t>
+          <t>1.1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-05-07T20:40:00+00:00</t>
+          <t>2021-05-26T22:40:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1155,7 +1155,11 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>type of geographical area (rural, urban,..)</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
@@ -1421,7 +1425,11 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>type of environment where the care of patients is conducted</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
@@ -5275,7 +5283,7 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Grouping of terms that relate to the health and physical condition of an individual subject, as well as biological information about any relevant pathogens</t>
+          <t>Data that refer to a person's state of physical, mental and social well-being</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -5777,7 +5785,7 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Group of subclasses of various types of diagnostic imaging technologies</t>
+          <t>Information obtained via any method that uses a visual display of structural or functional patterns of organs or tissues for diagnostic evaluation.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
@@ -6083,7 +6091,11 @@
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Data that refer to human society and its members</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
@@ -6209,7 +6221,11 @@
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Data that refer to the external elements and conditions which surround, influence, and affect the life and development of an organism or population.</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
@@ -6247,7 +6263,11 @@
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Data which refer to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
@@ -6425,7 +6445,7 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Group of subclasses of audiovisual media that are not imaging technology</t>
+          <t>Information that is communicated through recordings of sight and/or sound</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -6565,7 +6585,11 @@
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Information that cannot be represented through numbers and is instead expressed through descriptive means</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
@@ -6742,7 +6766,7 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>zonmwpc:10138</t>
+          <t>zonmwpc:10135</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -6784,7 +6808,7 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>zonmwpc:10138</t>
+          <t>zonmwpc:10135</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -6822,7 +6846,11 @@
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Other forms of data that are not easily categorized or defined</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
@@ -9962,7 +9990,11 @@
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>an online service that enables you to upload and query, view and download data</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
@@ -10000,7 +10032,11 @@
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>A physical store of biological samples, and an online service that enables you to request the samples and data about them</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
@@ -10038,7 +10074,11 @@
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">an online service that enables you to query and/or download datasets </t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
@@ -10076,7 +10116,11 @@
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>service facilitating compliance with regulatory requirements and best practice standards relating to ethical, legal and societal issues (ELSI)</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
@@ -10224,7 +10268,11 @@
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>is the overarching name for any set of fixed denotations that are used to describe something with the goal to reduce ambiguity and facilitate machine interoperability. It can range from a simple controlled vocabulary (a simple list of terms) to a complex ontology (formal definitions of terms and their relations semantically expressed in a machine-readable way). This term may also include taxonomies, thesauri, conceptual models or any other kinds of knowledge organization sources.</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
@@ -10452,7 +10500,11 @@
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Data about activities concerned with governmental policies, functions, etc.</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
@@ -10478,6 +10530,120 @@
       <c r="W239" t="inlineStr"/>
       <c r="X239" t="inlineStr"/>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>zonmwpc:10222</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>economic data</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr"/>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>zonmwpc:10223</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>socio-economic data</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr"/>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>zonmwpc:10224</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>other type of biomaterial</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>zonmwpc:10144</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="inlineStr"/>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X242"/>
+  <dimension ref="A1:X247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10644,6 +10644,196 @@
       <c r="W242" t="inlineStr"/>
       <c r="X242" t="inlineStr"/>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>zonmwpc:10225</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>focus area</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>ZonMw specific focus areas</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr"/>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>zonmwpc:10226</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>predictive diagnostics and treatment</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>zonmwpc:10225</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>zonmwpc:10227</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>virus, immunity, immune response and pathogenesis</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>zonmwpc:10225</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>zonmwpc:10228</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>care and prevention</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>zonmwpc:10225</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="inlineStr"/>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>zonmwpc:10229</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>effects on society</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>zonmwpc:10225</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="inlineStr"/>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X247"/>
+  <dimension ref="A1:Z281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,8 @@
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,6 +494,8 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,6 +534,8 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -568,6 +574,8 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -606,6 +614,8 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +654,8 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -678,6 +690,8 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -712,6 +726,8 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -746,6 +762,8 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -780,6 +798,8 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -814,6 +834,8 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -848,6 +870,8 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -882,6 +906,8 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -891,7 +917,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.1.0</t>
+          <t>1.2.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -916,6 +942,8 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -950,6 +978,8 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -959,7 +989,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-05-26T22:40:00+00:00</t>
+          <t>2021-06-23T08:26:00+00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -984,6 +1014,8 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -998,66 +1030,74 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>skos:prefLabel@nl</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>skos:definition@en</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:definition@nl</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>dct:source(separator=",")</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>skos:relatedMatch(separator=",")</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>dct:isReplacedBy</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1066,6 +1106,8 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1079,21 +1121,21 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>This is a set of controlled terms which are deprecated.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1108,6 +1150,8 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,6 +1186,8 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1155,19 +1201,19 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>type of geographical area (rural, urban,..)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>zonmwpc:10001</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1184,6 +1230,8 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1199,13 +1247,13 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>zonmwpc:10002</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1222,6 +1270,8 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1237,13 +1287,13 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>zonmwpc:10002</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1260,6 +1310,8 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1275,13 +1327,13 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>zonmwpc:10002</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1298,6 +1350,8 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1313,13 +1367,13 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>zonmwpc:10002</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1336,6 +1390,8 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1351,13 +1407,13 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>zonmwpc:10002</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1374,6 +1430,8 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1389,13 +1447,13 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>zonmwpc:10002</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1412,6 +1470,8 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1425,19 +1485,19 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>type of environment where the care of patients is conducted</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>zonmwpc:10001</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1454,6 +1514,8 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1469,13 +1531,13 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>zonmwpc:10009</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1492,6 +1554,8 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1507,13 +1571,13 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>zonmwpc:10009</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1530,6 +1594,8 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1542,20 +1608,20 @@
           <t>GP care</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>general practitioner care</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>zonmwpc:10009</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1572,6 +1638,8 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1587,13 +1655,13 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>zonmwpc:10009</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1610,6 +1678,8 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1625,13 +1695,13 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>zonmwpc:10009</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1648,6 +1718,8 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1663,13 +1735,13 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>zonmwpc:10009</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1686,6 +1758,8 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1701,13 +1775,13 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>zonmwpc:10009</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1724,6 +1798,8 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1758,6 +1834,8 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1773,13 +1851,13 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>zonmwpc:10017</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1796,6 +1874,8 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1811,13 +1891,13 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>zonmwpc:10018</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>zonmwpc:10018,10230</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1834,6 +1914,8 @@
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1849,13 +1931,13 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>zonmwpc:10018</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>zonmwpc:10018,10230</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1872,6 +1954,8 @@
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1885,29 +1969,29 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Palliative care is treatment of the discomfort, symptoms, and stress of serious illness. It provides relief from distressing symptoms including pain, shortness of breath, constipation, nausea, loss of appetite, problems with sleep. It can also help you deal with the side effects of the medical treatments you're receiving, care at the end of life, always includes palliative care. But you may receive palliative care at any stage of an illness. The goal is to make you comfortable and improve your quality of life.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>zonmwpc:10018</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
+          <t>zonmwpc:10018,10230</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231,http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C101516</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -1922,6 +2006,8 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1935,29 +2021,29 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Restoration of the ability to function in a normal or near normal manner following disease, illness, or injury.</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>zonmwpc:10018</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
+          <t>zonmwpc:10018,10230</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -1972,6 +2058,8 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1987,13 +2075,13 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>zonmwpc:10017</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2010,6 +2098,8 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2025,13 +2115,13 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>zonmwpc:10023</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2048,6 +2138,8 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2063,13 +2155,13 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>zonmwpc:10023</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2086,6 +2178,8 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2099,29 +2193,29 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>A Coronavirus infectious disease that is characterized by long-term persistent and fluctuating symptoms, in individuals with COVID-19, persisting beyond three to four weeks, including the loss of the ability to smell and taste, breathlessness, fatigue, difficulty in breathing, difficulty concentrating, memory loss, confusion, headache, heart palpitations, chest pain, pain with deep breaths, dizziness, and tachycardia.</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>zonmwpc:10023</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2136,6 +2230,8 @@
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2151,13 +2247,13 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>zonmwpc:10017</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2174,6 +2270,8 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2189,13 +2287,13 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>zonmwpc:10027</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2212,6 +2310,8 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2227,13 +2327,13 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>zonmwpc:10027</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2250,6 +2350,8 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2265,13 +2367,13 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>zonmwpc:10027</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2288,6 +2390,8 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2303,13 +2407,13 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>zonmwpc:10027</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2326,6 +2430,8 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2341,13 +2447,13 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t>zonmwpc:10027</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2364,6 +2470,8 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2379,13 +2487,13 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t>zonmwpc:10017</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2402,6 +2510,8 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2417,13 +2527,13 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>zonmwpc:10033</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2440,6 +2550,8 @@
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2455,13 +2567,13 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>zonmwpc:10033</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2478,6 +2590,8 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2493,13 +2607,13 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>zonmwpc:10033</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2516,6 +2630,8 @@
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2550,6 +2666,8 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2565,13 +2683,13 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2588,6 +2706,8 @@
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2601,19 +2721,19 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>less then 37 weeks gestational outcome</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2630,6 +2750,8 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2643,19 +2765,19 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>37 or more weeks gestational outcome</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2672,6 +2794,8 @@
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2685,19 +2809,19 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>0-3 months</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2714,6 +2838,8 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2727,19 +2853,19 @@
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>3-12 months</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2756,6 +2882,8 @@
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2769,19 +2897,19 @@
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>1-4 years</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2798,6 +2926,8 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2811,19 +2941,19 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>4-12 years</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2840,6 +2970,8 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2853,19 +2985,19 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>12-18 years</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2882,6 +3014,8 @@
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2895,19 +3029,19 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>16-27 years</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2924,6 +3058,8 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2937,19 +3073,19 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>18-21 years</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2966,6 +3102,8 @@
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2979,19 +3117,19 @@
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>18-65 years</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3008,6 +3146,8 @@
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3021,25 +3161,25 @@
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>65-80 years</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>zonmwpc:10038</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
+          <t>zonmwpc:10038</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C16268&amp;key=162882687&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3054,6 +3194,8 @@
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3067,19 +3209,19 @@
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>more than 80 years</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>zonmwpc:10038</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3096,6 +3238,8 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3109,20 +3253,20 @@
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">grouping specifying the determination of an infant's sex shortly after birth
 </t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3139,6 +3283,8 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3154,13 +3300,13 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>zonmwpc:10051</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3177,6 +3323,8 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3192,13 +3340,13 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
         <is>
           <t>zonmwpc:10051</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3215,6 +3363,8 @@
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3230,13 +3380,13 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
         <is>
           <t>zonmwpc:10051</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3253,6 +3403,8 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3266,20 +3418,20 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t xml:space="preserve">grouping on basis of person's sense of self as a member of a particular gender
 </t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3296,6 +3448,8 @@
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3311,13 +3465,13 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
         <is>
           <t>zonmwpc:10055</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3334,6 +3488,8 @@
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3349,13 +3505,13 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>zonmwpc:10055</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3372,6 +3528,8 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3387,13 +3545,13 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t>zonmwpc:10055</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3410,6 +3568,8 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3425,13 +3585,13 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
         <is>
           <t>zonmwpc:10055</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3448,6 +3608,8 @@
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3463,13 +3625,13 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3486,6 +3648,8 @@
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3501,13 +3665,13 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
         <is>
           <t>zonmwpc:10060</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3524,6 +3688,8 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3539,13 +3705,13 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
         <is>
           <t>zonmwpc:10060</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3562,6 +3728,8 @@
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3577,13 +3745,13 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
         <is>
           <t>zonmwpc:10060</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3600,6 +3768,8 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3615,13 +3785,13 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
         <is>
           <t>zonmwpc:10060</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3638,6 +3808,8 @@
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3653,13 +3825,13 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
         <is>
           <t>zonmwpc:10060</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3676,6 +3848,8 @@
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3691,13 +3865,13 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
         <is>
           <t>zonmwpc:10060</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3714,6 +3888,8 @@
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3729,13 +3905,13 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3752,6 +3928,8 @@
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3767,13 +3945,13 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3790,6 +3968,8 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3805,13 +3985,13 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3828,6 +4008,8 @@
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3843,13 +4025,13 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3866,6 +4048,8 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3881,13 +4065,13 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3904,6 +4088,8 @@
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3919,13 +4105,13 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3942,6 +4128,8 @@
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3957,13 +4145,13 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3980,6 +4168,8 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3995,13 +4185,13 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4018,6 +4208,8 @@
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4033,13 +4225,13 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4056,6 +4248,8 @@
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4071,13 +4265,13 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
         <is>
           <t>zonmwpc:10067</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4094,6 +4288,8 @@
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4109,13 +4305,13 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4132,6 +4328,8 @@
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4147,13 +4345,13 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
         <is>
           <t>zonmwpc:10077</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4170,6 +4368,8 @@
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4185,13 +4385,13 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
         <is>
           <t>zonmwpc:10077</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4208,6 +4408,8 @@
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4223,13 +4425,13 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
         <is>
           <t>zonmwpc:10077</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4246,6 +4448,8 @@
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4261,13 +4465,13 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
         <is>
           <t>zonmwpc:10077</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4284,6 +4488,8 @@
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4299,13 +4505,13 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
         <is>
           <t>zonmwpc:10077</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4322,6 +4528,8 @@
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4337,13 +4545,13 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4360,6 +4568,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4375,13 +4585,13 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t>zonmwpc:10083</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4398,6 +4608,8 @@
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4413,13 +4625,13 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>zonmwpc:10083</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4436,6 +4648,8 @@
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4451,13 +4665,13 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
         <is>
           <t>zonmwpc:10083</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4474,6 +4688,8 @@
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4489,13 +4705,13 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
         <is>
           <t>zonmwpc:10083</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4512,6 +4728,8 @@
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4527,13 +4745,13 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
         <is>
           <t>zonmwpc:10083</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4550,6 +4768,8 @@
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4565,13 +4785,13 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
         <is>
           <t>zonmwpc:10083</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4588,6 +4808,8 @@
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4603,13 +4825,13 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
         <is>
           <t>zonmwpc:10083</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4626,6 +4848,8 @@
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4641,13 +4865,13 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4664,6 +4888,8 @@
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4679,13 +4905,13 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
         <is>
           <t>zonmwpc:10091</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4702,6 +4928,8 @@
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4717,13 +4945,13 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
         <is>
           <t>zonmwpc:10091</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4740,6 +4968,8 @@
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4755,13 +4985,13 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
         <is>
           <t>zonmwpc:10091</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4778,6 +5008,8 @@
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4793,13 +5025,13 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
         <is>
           <t>zonmwpc:10091</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4816,6 +5048,8 @@
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4831,13 +5065,13 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
         <is>
           <t>zonmwpc:10220</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4854,6 +5088,8 @@
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4869,13 +5105,13 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
         <is>
           <t>zonmwpc:10220</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4892,6 +5128,8 @@
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4907,13 +5145,13 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4930,6 +5168,8 @@
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4945,13 +5185,13 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4968,6 +5208,8 @@
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4983,13 +5225,13 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5006,6 +5248,8 @@
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5021,13 +5265,13 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5044,6 +5288,8 @@
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5059,13 +5305,13 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5082,6 +5328,8 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5097,13 +5345,13 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5120,6 +5368,8 @@
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5135,13 +5385,13 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5158,6 +5408,8 @@
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5173,13 +5425,13 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5196,6 +5448,8 @@
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5211,13 +5465,13 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
         <is>
           <t>zonmwpc:10098</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5234,6 +5488,8 @@
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5268,6 +5524,8 @@
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5281,19 +5539,19 @@
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
         <is>
           <t>Data that refer to a person's state of physical, mental and social well-being</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5310,6 +5568,8 @@
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5323,29 +5583,29 @@
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
         <is>
           <t>Data that contains patient health information generated by one or more encounters in any care delivery setting. Included in this information are patient demographics, progress notes, problems, medications, vital signs, past medical history, immunizations, laboratory data and radiology reports.</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
@@ -5360,6 +5620,8 @@
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5373,29 +5635,29 @@
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
         <is>
           <t>A collection of information about a person's health. It may include information about allergies, illnesses and surgeries, and dates and results of physical exams, tests, screenings, and immunizations. It may also include information about medicines taken and about diet and exercise</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
         <is>
           <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
         <is>
           <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -5410,6 +5672,8 @@
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5423,29 +5687,29 @@
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
         <is>
           <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
@@ -5460,6 +5724,8 @@
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5473,31 +5739,31 @@
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>Data related to physiological recording or monitoring.</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
 </t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
 </t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -5512,6 +5778,8 @@
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5525,29 +5793,29 @@
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>A representation of a quality of a specimen that is the output of a laboratory test and that can support an inference to an assertion about some quality of the patient.</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
@@ -5562,6 +5830,8 @@
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5575,31 +5845,31 @@
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate a disorder, the signs and symptoms of a disorder, or a pathological process</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
 </t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
 </t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
@@ -5614,6 +5884,8 @@
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5626,34 +5898,34 @@
           <t>medication data</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
         <is>
           <t>pharmaceutical</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>Any substance introduced into a living organism with therapeutic or diagnostic purpose.</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -5668,6 +5940,8 @@
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5681,29 +5955,29 @@
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>Data that is about molecules or phenomena occurring at a molecular level (e.g. processes such as molecular interactions, chemical reactions, gene expression etc).</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -5718,6 +5992,8 @@
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5731,31 +6007,31 @@
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>Data is data pertaining to genetics.</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
         <is>
           <t xml:space="preserve">
 http://semanticscience.org/resource/SIO_010028</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>zonmwpc:10108</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ERO_0100359,
 http://semanticscience.org/resource/SIO_010028</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -5770,6 +6046,8 @@
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5783,25 +6061,25 @@
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
         <is>
           <t>Information obtained via any method that uses a visual display of structural or functional patterns of organs or tissues for diagnostic evaluation.</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>zonmwpc:10107</t>
-        </is>
-      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
           <t>http://purl.bioontology.org/ontology/HL7/C001192</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -5816,6 +6094,8 @@
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5828,34 +6108,34 @@
           <t>magnetic resonance imaging</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
         <is>
           <t>MRI</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>Imaging that uses radiofrequency waves and a strong magnetic field rather than x-rays to provide detailed pictures of internal organs and tissues. The technique is valuable for the diagnosis of many pathologic conditions, including cancer, heart and vascular disease, stroke, and joint and musculoskeletal disorders.</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>zonmwpc:10118</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
@@ -5870,6 +6150,8 @@
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5882,34 +6164,34 @@
           <t>X-ray imaging</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
         <is>
           <t>X-ray</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>An image of the structure penetrated by the radiation using the emission of x-rays</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>zonmwpc:10118</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
@@ -5924,6 +6206,8 @@
       <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5937,29 +6221,29 @@
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t>High frequency sound, generally with a frequency greater than 20,000 Hz.</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>zonmwpc:10118</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -5974,6 +6258,8 @@
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5986,34 +6272,34 @@
           <t xml:space="preserve">computed tomography </t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>A method of examining structures within the body by scanning them with X rays and using a computer to construct a series of cross-sectional scans along a single axis.</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>zonmwpc:10118</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
@@ -6028,6 +6314,8 @@
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6041,29 +6329,29 @@
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
         <is>
           <t>In medicine, a procedure in which an infrared camera (one that senses heat) is used to measure temperature differences on the surface of the body. The camera makes pictures that show areas of possible abnormal cell growth because abnormal tissue gives off more heat than normal tissue does.</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>zonmwpc:10118</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -6078,6 +6366,8 @@
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6091,19 +6381,19 @@
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
         <is>
           <t>Data that refer to human society and its members</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -6120,6 +6410,8 @@
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6133,25 +6425,25 @@
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
         <is>
           <t>A data set that contains the outcome of a survey.</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>zonmwpc:10107</t>
-        </is>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
+          <t>zonmwpc:10107</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
           <t>http://purl.obolibrary.org/obo/OMIABIS_0000060</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -6166,6 +6458,8 @@
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6181,18 +6475,18 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr">
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
         <is>
           <t>zonmwpc:10221</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C15843</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
@@ -6208,6 +6502,8 @@
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6221,19 +6517,19 @@
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
         <is>
           <t>Data that refer to the external elements and conditions which surround, influence, and affect the life and development of an organism or population.</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6250,6 +6546,8 @@
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6263,19 +6561,19 @@
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
         <is>
           <t>Data which refer to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6292,6 +6590,8 @@
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6307,19 +6607,19 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>zonmwpc:10128</t>
-        </is>
-      </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
+          <t>zonmwpc:10128</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
           <t>http://purl.jp/bio/4/id/200906051703202632</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
@@ -6334,6 +6634,8 @@
       <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6347,29 +6649,29 @@
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
         <is>
           <t>A usually 2-dimensional diagrammatic representation of an object or area.</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>zonmwpc:10128</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -6384,6 +6686,8 @@
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6397,26 +6701,26 @@
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
         <is>
           <t>Data produced by a system designed to capture, store, update, manipulate, analyze and display data that are linked to location.</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr">
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
         <is>
           <t>zonmwpc:10128</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C15754&amp;key=n1963476518&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
@@ -6430,6 +6734,8 @@
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6443,19 +6749,19 @@
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
         <is>
           <t>Information that is communicated through recordings of sight and/or sound</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6472,6 +6778,8 @@
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6485,29 +6793,29 @@
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
         <is>
           <t>A visual representation of an object, scene, person or abstraction.</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>zonmwpc:10132</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
@@ -6522,6 +6830,8 @@
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6535,29 +6845,29 @@
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
         <is>
           <t>The storing or preserving of video images to be displayed later.</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>zonmwpc:10132</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
@@ -6572,6 +6882,8 @@
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6585,19 +6897,19 @@
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
         <is>
           <t>Information that cannot be represented through numbers and is instead expressed through descriptive means</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6614,6 +6926,8 @@
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6627,25 +6941,25 @@
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
         <is>
           <t>The text of notes taken in the field about an event.</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>zonmwpc:10135</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
+          <t>zonmwpc:10135</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
           <t>http://rs.tdwg.org/dwc/terms/fieldNotes</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -6660,6 +6974,8 @@
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6675,21 +6991,21 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
         <is>
           <t>zonmwpc:10135</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
           <t xml:space="preserve">
 http://ontologies.dbmi.pitt.edu/edda/StudyDesigns.owl#focus_group</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
@@ -6703,6 +7019,8 @@
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6718,20 +7036,20 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
         <is>
           <t>zonmwpc:10124</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/MESH/D061108</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
@@ -6745,6 +7063,8 @@
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6758,25 +7078,25 @@
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
         <is>
           <t>Work consisting of records, usually private, of writers' experiences, observations, feelings, attitudes, etc. They may also be works marked in calendar order in which to note appointments and the like.</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>zonmwpc:10135</t>
-        </is>
-      </c>
+      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
+          <t>zonmwpc:10135</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
           <t>http://purl.bioontology.org/ontology/MESH/D019497</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -6791,6 +7111,8 @@
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6806,20 +7128,20 @@
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
         <is>
           <t>zonmwpc:10135</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/FBcv_0000205</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
@@ -6833,6 +7155,8 @@
       <c r="V158" t="inlineStr"/>
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6846,19 +7170,19 @@
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
         <is>
           <t>Other forms of data that are not easily categorized or defined</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6875,6 +7199,8 @@
       <c r="V159" t="inlineStr"/>
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6888,29 +7214,29 @@
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
         <is>
           <t>A plan detailing how a study will be performed in order to represent the phenomenon under examination, to answer the research questions that have been asked, and defining the methods of data analysis. Study design is driven by research hypothesis being posed, study subject/population/sample available, logistics/resources: technology, support, networking, collaborative support, etc.</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
         <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>zonmwpc:10141</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
         <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
@@ -6925,6 +7251,8 @@
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6940,13 +7268,13 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
         <is>
           <t>zonmwpc:10141</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6963,6 +7291,8 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6997,6 +7327,8 @@
       <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7010,29 +7342,29 @@
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
         <is>
           <t>A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs.</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>zonmwpc:10144</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
@@ -7047,6 +7379,8 @@
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7060,29 +7394,29 @@
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
         <is>
           <t>The bipedal primate mammal, Homo sapiens; belonging to man or mankind; pertaining to man or to the race of man; use of man as experimental subject or unit of analysis in research.</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
         <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>zonmwpc:10145</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
         <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
@@ -7097,6 +7431,8 @@
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7110,29 +7446,29 @@
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
         <is>
           <t>Carnivores of genus Mustela of the family MUSTELIDAE. The European mink, which has white upper and lower lips, was widely trapped for commercial purposes and is classified as endangered. The American mink, lacking a white upper lip, is farmed commercially.</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>zonmwpc:10145</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
@@ -7147,6 +7483,8 @@
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7160,29 +7498,29 @@
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
         <is>
           <t>Any of numerous species of small rodents belonging to the genus Mus and various related genera of the family Muridae.</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>zonmwpc:10145</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
@@ -7197,6 +7535,8 @@
       <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7210,29 +7550,29 @@
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
         <is>
           <t>Any of numerous species of rodents belonging to the genus Rattus and/or various related genera of the family Muridae.</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>zonmwpc:10145</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
@@ -7247,6 +7587,8 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7260,29 +7602,29 @@
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
         <is>
           <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>zonmwpc:10145</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -7297,6 +7639,8 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7310,29 +7654,29 @@
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
         <is>
           <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>zonmwpc:10145</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
@@ -7347,6 +7691,8 @@
       <c r="V169" t="inlineStr"/>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7360,29 +7706,29 @@
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
         <is>
           <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>zonmwpc:10145</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
@@ -7397,6 +7743,8 @@
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7410,29 +7758,29 @@
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
         <is>
           <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
         <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>zonmwpc:10144</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
         <is>
           <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
@@ -7447,6 +7795,8 @@
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7460,29 +7810,29 @@
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
         <is>
           <t>A liquid tissue; its major function is to transport oxygen throughout the body. It also supplies the tissues with nutrients, removes waste products, and contains various components of the immune system defending the body against infection. Several hormones also travel in the blood.</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -7497,6 +7847,8 @@
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7510,29 +7862,29 @@
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr">
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
         <is>
           <t>The air that is inhaled and exhaled during respiration.</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
@@ -7547,6 +7899,8 @@
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7561,30 +7915,30 @@
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr">
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
         <is>
           <t>The material discharged from the bowel during defecation. It consists of undigested food, intestinal mucus, epithelial cells, and bacteria.</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234,
 http://purl.bioontology.org/ontology/SNOMEDCT/39477002</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
@@ -7599,6 +7953,8 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7612,30 +7968,30 @@
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
         <is>
           <t>Plasma is the fluid (noncellular) portion of the circulating blood, as distinguished from the serum that is the fluid portion of the blood obtained by removal of the fibrin clot and blood cells after coagulation.</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356,
 http://purl.bioontology.org/ontology/SNOMEDCT/50863008</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
@@ -7650,6 +8006,8 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7663,30 +8021,30 @@
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
         <is>
           <t>The watery fluid in the mouth made by the salivary glands. Saliva moistens food to help digestion and it helps protect the mouth against infections.</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
         <is>
           <t xml:space="preserve">https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275,
 http://purl.bioontology.org/ontology/SNOMEDCT/256897009 </t>
         </is>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -7701,6 +8059,8 @@
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7714,29 +8074,29 @@
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
         <is>
           <t>The thick, whitish secretion of the male reproductive organs. It is composed of spermatozoa in their nutrient plasma, secretions from the prostate, seminal vesicles, and various other glands, epithelial cells, and minor constituents.</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
@@ -7751,6 +8111,8 @@
       <c r="V177" t="inlineStr"/>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7764,30 +8126,30 @@
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
         <is>
           <t>The clear portion of the blood that remains after the removal of the blood cells and the clotting proteins.</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325,
 http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
@@ -7802,6 +8164,8 @@
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr"/>
       <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7815,29 +8179,29 @@
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
         <is>
           <t>Wastewater that is contaminated with feces or urine</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_00002018</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ENVO_00002018,https://en.wikipedia.org/wiki/Sewage</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
@@ -7852,6 +8216,8 @@
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7865,29 +8231,29 @@
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
         <is>
           <t>Material containing mucus, cellular debris, microorganisms and sometimes blood or pus. It is ejected through the mouth from the lungs, bronchi, and trachea.</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
@@ -7902,6 +8268,8 @@
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7915,29 +8283,29 @@
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
         <is>
           <t>A fluid containing oils, mucin, and proteins, which is secreted by the lacrimal gland and cleans and lubricates the eye.</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
@@ -7952,6 +8320,8 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7965,29 +8335,29 @@
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
         <is>
           <t>An anatomical structure consisting of similarly specialized cells and intercellular matrix, aggregated according to genetically determined spatial relationships, performing a specific function.</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
@@ -8002,6 +8372,8 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8015,29 +8387,29 @@
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
         <is>
           <t>The fluid that is excreted by the kidneys. It is stored in the bladder and discharged through the urethra.</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -8052,6 +8424,8 @@
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8065,29 +8439,29 @@
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
         <is>
           <t>A peripheral blood cell with a single nucleus. This category includes lymphocytes and monocytes.</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
@@ -8102,6 +8476,8 @@
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8115,29 +8491,29 @@
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
         <is>
           <t>A group of materials of either plant, animal or artificial origin containing essential body nutrients that can be ingested by an organism to produce energy, stimulate growth, and maintain life.</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
@@ -8152,6 +8528,8 @@
       <c r="V185" t="inlineStr"/>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8165,29 +8543,29 @@
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr">
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
         <is>
           <t>The watery fluid, consisting of vulvar gland, endometrium, and oviduct secretions, cervical mucus, vaginal wall plasma transudate, exfoliated cells, and bacterial and immune cell products, that hydrates and forms an antimicrobial barrier for the mucosa of the lower female genital tract.</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>zonmwpc:10153</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
@@ -8202,6 +8580,8 @@
       <c r="V186" t="inlineStr"/>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8215,30 +8595,30 @@
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
         <is>
           <t>A part of a thing, or of several things, taken to demonstrate or to determine the character of the whole, e.g. a substance, or portion of material obtained for use in testing, examination, or study; particularly, a preparation of tissue or bodily fluid taken for examination or diagnosis.</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>zonmwpc:10144</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157,
 http://purl.bioontology.org/ontology/SNOMEDCT/123038009</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
@@ -8253,6 +8633,8 @@
       <c r="V187" t="inlineStr"/>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8266,29 +8648,29 @@
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
         <is>
           <t>A permanently established cell culture that will proliferate indefinitely given appropriate fresh medium and space.</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
@@ -8303,6 +8685,8 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8316,29 +8700,29 @@
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
         <is>
           <t>a specimen that is output of a specimen creation process used for an investigation without storage.</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
@@ -8353,6 +8737,8 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8366,29 +8752,29 @@
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
         <is>
           <t>A specimen that has been frozen in order to store it.</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
@@ -8403,6 +8789,8 @@
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8415,34 +8803,34 @@
           <t xml:space="preserve">nasal swab </t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
         <is>
           <t>nose specimen, nose swab</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>A method used to collect biological material from within the nasal passages. A cotton swab is inserted into the nasal opening and rotated against the anterior nasal mucosa and them withdrawn.</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -8457,6 +8845,8 @@
       <c r="V191" t="inlineStr"/>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8470,29 +8860,29 @@
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
         <is>
           <t>A specimen that is collected with a swab from the surface of a nasopharynx.</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
@@ -8507,6 +8897,8 @@
       <c r="V192" t="inlineStr"/>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8520,31 +8912,31 @@
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
         <is>
           <t>A biospecimen collected from the oropharynx by swabbing.</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835,
 http://purl.bioontology.org/ontology/SNOMEDCT/461911000124106,
 http://purl.bioontology.org/ontology/SNOMEDCT/258529004</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
@@ -8559,6 +8951,8 @@
       <c r="V193" t="inlineStr"/>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8573,24 +8967,24 @@
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
@@ -8605,6 +8999,8 @@
       <c r="V194" t="inlineStr"/>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8618,29 +9014,29 @@
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
         <is>
           <t>A specimen that is collected with a swab from the surface of a vagina.</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
@@ -8655,6 +9051,8 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8668,29 +9066,29 @@
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr">
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
         <is>
           <t>A specimen that has been fixed in formalin and embedded in paraffin.</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>zonmwpc:10169</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
@@ -8705,6 +9103,8 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8720,19 +9120,19 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>zonmwpc:10169</t>
-        </is>
-      </c>
+      <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
           <t>http://purl.obolibrary.org/obo/FBbi_00000011</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
@@ -8747,6 +9147,8 @@
       <c r="V197" t="inlineStr"/>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr"/>
+      <c r="Z197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8762,13 +9164,13 @@
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
         <is>
           <t>zonmwpc:10144</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -8785,6 +9187,8 @@
       <c r="V198" t="inlineStr"/>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8798,29 +9202,29 @@
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
         <is>
           <t>Single-stranded DNA that is complementary to messenger RNA or DNA that has been synthesized from messenger RNA by reverse transcriptase.</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>zonmwpc:10180</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
@@ -8835,6 +9239,8 @@
       <c r="V199" t="inlineStr"/>
       <c r="W199" t="inlineStr"/>
       <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr"/>
+      <c r="Z199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8847,35 +9253,35 @@
           <t>DNA</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
         <is>
           <t>deoxyribonucleic acid</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>A long linear double-stranded polymer formed from nucleotides attached to a deoxyribose backbone and found in the nucleus of a cell; associated with the transmission of genetic information.</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>zonmwpc:10180</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449,
 http://purl.bioontology.org/ontology/SNOMEDCT/24851008</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
@@ -8890,6 +9296,8 @@
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr"/>
       <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr"/>
+      <c r="Z200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8902,35 +9310,35 @@
           <t>RNA</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
         <is>
           <t>ribonucleic acid</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>Single-stranded long chain of nucleotides containing ribose. It is the end product of DNA transcription by the enzyme RNA polymerase. It is essential in protein synthesis.</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>zonmwpc:10180</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812,
 http://purl.bioontology.org/ontology/SNOMEDCT/27888000</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
@@ -8945,6 +9353,8 @@
       <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr"/>
+      <c r="Z201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8958,30 +9368,30 @@
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr">
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
         <is>
           <t>A group of complex organic macromolecules composed of one or more chains (linear polymers) of alpha-L-amino acids linked by peptide bonds and ranging in size from a few thousand to over 1 million Daltons. Proteins are fundamental genetically encoded components of living cells with specific structures and functions dictated by amino acid sequence.</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>zonmwpc:10180</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021,
 http://purl.bioontology.org/ontology/SNOMEDCT/88878007</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
@@ -8996,6 +9406,8 @@
       <c r="V202" t="inlineStr"/>
       <c r="W202" t="inlineStr"/>
       <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr"/>
+      <c r="Z202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9009,30 +9421,30 @@
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
         <is>
           <t>A type of protein made by B lymphocytes in response to a foreign substance (antigen). Each antibody only binds to a specific antigen, helping to destroy the antigen directly or by assisting white blood cells to destroy the antigen.</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>zonmwpc:10180</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
         <is>
           <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295,
 http://purl.bioontology.org/ontology/SNOMEDCT/68498002</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
@@ -9047,6 +9459,8 @@
       <c r="V203" t="inlineStr"/>
       <c r="W203" t="inlineStr"/>
       <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr"/>
+      <c r="Z203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9081,6 +9495,8 @@
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
       <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr"/>
+      <c r="Z204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9096,13 +9512,13 @@
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr">
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
         <is>
           <t>zonmwpc:10186</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -9119,6 +9535,8 @@
       <c r="V205" t="inlineStr"/>
       <c r="W205" t="inlineStr"/>
       <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr"/>
+      <c r="Z205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9133,18 +9551,18 @@
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
         <is>
           <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -9161,6 +9579,8 @@
       <c r="V206" t="inlineStr"/>
       <c r="W206" t="inlineStr"/>
       <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr"/>
+      <c r="Z206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9175,18 +9595,18 @@
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
         <is>
           <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -9203,6 +9623,8 @@
       <c r="V207" t="inlineStr"/>
       <c r="W207" t="inlineStr"/>
       <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr"/>
+      <c r="Z207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9217,24 +9639,24 @@
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
         <is>
           <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/SNOMEDCT/409600007</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
@@ -9249,6 +9671,8 @@
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="inlineStr"/>
       <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr"/>
+      <c r="Z208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9262,29 +9686,29 @@
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
         <is>
           <t>Biosafety level one, the lowest level, applies to work with agents that usually pose a minimal potential threat to laboratory workers and the environment and do not consistently cause disease in healthy adults.</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
         <is>
           <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/SNOMEDCT/409603009</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
@@ -9299,6 +9723,8 @@
       <c r="V209" t="inlineStr"/>
       <c r="W209" t="inlineStr"/>
       <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr"/>
+      <c r="Z209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9312,31 +9738,31 @@
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
         <is>
           <t>Biosafety level two would cover work with agents associated with human 
 disease, in other words, pathogenic or infectious organisms posing a 
 moderate hazard.</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr">
         <is>
           <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/SNOMEDCT/409604003</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
@@ -9351,6 +9777,8 @@
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
       <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr"/>
+      <c r="Z210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9364,29 +9792,29 @@
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
         <is>
           <t>Yellow fever, St. Louis encephalitis and West Nile virus are examples of agents requiring biosafety level 3 practices and containment. Work with these agents is strictly controlled and must be registered with all appropriate government agencies.</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
         <is>
           <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
         <is>
           <t>http://purl.bioontology.org/ontology/SNOMEDCT/409605002</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
       <c r="M211" t="inlineStr"/>
@@ -9401,6 +9829,8 @@
       <c r="V211" t="inlineStr"/>
       <c r="W211" t="inlineStr"/>
       <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr"/>
+      <c r="Z211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9414,23 +9844,23 @@
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
         <is>
           <t xml:space="preserve">Agents requiring BSL 4 facilities and practices are extremely dangerous pand pose a high risk of life-threatening disease. Examples are the Ebola  virus, the Lassa virus, and any agent with unknown risks of pathogenicity and transmission. </t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
         <is>
           <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -9447,6 +9877,8 @@
       <c r="V212" t="inlineStr"/>
       <c r="W212" t="inlineStr"/>
       <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr"/>
+      <c r="Z212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9460,19 +9892,19 @@
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
         <is>
           <t>helps researchers produce custom antibodies</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr">
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
@@ -9489,6 +9921,8 @@
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="inlineStr"/>
       <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr"/>
+      <c r="Z213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9504,13 +9938,13 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr">
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
@@ -9527,6 +9961,8 @@
       <c r="V214" t="inlineStr"/>
       <c r="W214" t="inlineStr"/>
       <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr"/>
+      <c r="Z214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9540,19 +9976,19 @@
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
         <is>
           <t>complete analytical platform, coupled to advanced extraction techniques, sample prep methods and vast experience, allows to offer non-targetted or targetted metabolomic studies, metabolomic fingerprinting or footprinting studies</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr">
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -9569,6 +10005,8 @@
       <c r="V215" t="inlineStr"/>
       <c r="W215" t="inlineStr"/>
       <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr"/>
+      <c r="Z215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9582,19 +10020,19 @@
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr">
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
         <is>
           <t>Keeping and breeding of test animals for the purpose of scientific research and education</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr">
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -9611,6 +10049,8 @@
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="inlineStr"/>
       <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr"/>
+      <c r="Z216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9624,19 +10064,19 @@
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
         <is>
           <t>accommodates all research and diagnostic flow cytometry equipment</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -9653,6 +10093,8 @@
       <c r="V217" t="inlineStr"/>
       <c r="W217" t="inlineStr"/>
       <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr"/>
+      <c r="Z217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9666,19 +10108,19 @@
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr">
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
         <is>
           <t>connect clinical and biological research with microscopy and image analysis developments, offer support and provide training and education to make use of the facility</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr">
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -9695,6 +10137,8 @@
       <c r="V218" t="inlineStr"/>
       <c r="W218" t="inlineStr"/>
       <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9708,19 +10152,19 @@
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr">
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
         <is>
           <t>provides support for Next Generation Sequencing (NGS) based research</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr">
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -9737,6 +10181,8 @@
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="inlineStr"/>
       <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr"/>
+      <c r="Z219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9750,19 +10196,19 @@
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr">
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
         <is>
           <t>human induced Pluripotent Stem Cell (hiPSC) facility: generation of research grade hiPSCs from different tissue sources</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr">
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -9779,6 +10225,8 @@
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="inlineStr"/>
       <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr"/>
+      <c r="Z220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9794,13 +10242,13 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr">
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
@@ -9817,6 +10265,8 @@
       <c r="V221" t="inlineStr"/>
       <c r="W221" t="inlineStr"/>
       <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr"/>
+      <c r="Z221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9830,19 +10280,19 @@
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr">
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
         <is>
           <t>offers advice on advanced quantitative, statistical and computational methods for biomedical and clinical researchers</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr">
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -9859,6 +10309,8 @@
       <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
       <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr"/>
+      <c r="Z222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9872,19 +10324,19 @@
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
         <is>
           <t>A facility or core that provides storage for any type of biospecimen.</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr">
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -9901,6 +10353,8 @@
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr"/>
       <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9916,13 +10370,13 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr">
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -9939,6 +10393,8 @@
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
       <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9954,13 +10410,13 @@
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr">
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
         <is>
           <t>zonmwpc:10187</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -9977,6 +10433,8 @@
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
       <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr"/>
+      <c r="Z225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9990,19 +10448,19 @@
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr">
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
         <is>
           <t>an online service that enables you to upload and query, view and download data</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr">
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
         <is>
           <t>zonmwpc:10186</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -10019,6 +10477,8 @@
       <c r="V226" t="inlineStr"/>
       <c r="W226" t="inlineStr"/>
       <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr"/>
+      <c r="Z226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -10032,19 +10492,19 @@
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
         <is>
           <t>A physical store of biological samples, and an online service that enables you to request the samples and data about them</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr">
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
         <is>
           <t>zonmwpc:10186</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -10061,6 +10521,8 @@
       <c r="V227" t="inlineStr"/>
       <c r="W227" t="inlineStr"/>
       <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr"/>
+      <c r="Z227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10074,19 +10536,19 @@
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr">
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
         <is>
           <t xml:space="preserve">an online service that enables you to query and/or download datasets </t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr">
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
         <is>
           <t>zonmwpc:10186</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -10103,6 +10565,8 @@
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr"/>
       <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10116,19 +10580,19 @@
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
         <is>
           <t>service facilitating compliance with regulatory requirements and best practice standards relating to ethical, legal and societal issues (ELSI)</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr">
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
         <is>
           <t>zonmwpc:10186</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -10145,6 +10609,8 @@
       <c r="V229" t="inlineStr"/>
       <c r="W229" t="inlineStr"/>
       <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr"/>
+      <c r="Z229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10160,13 +10626,13 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr">
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
         <is>
           <t>zonmwpc:10186</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
@@ -10183,6 +10649,8 @@
       <c r="V230" t="inlineStr"/>
       <c r="W230" t="inlineStr"/>
       <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr"/>
+      <c r="Z230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10217,6 +10685,8 @@
       <c r="V231" t="inlineStr"/>
       <c r="W231" t="inlineStr"/>
       <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr"/>
+      <c r="Z231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10232,13 +10702,13 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr">
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
         <is>
           <t>zonmwpc:10213</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
@@ -10255,6 +10725,8 @@
       <c r="V232" t="inlineStr"/>
       <c r="W232" t="inlineStr"/>
       <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr"/>
+      <c r="Z232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10268,19 +10740,19 @@
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr">
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
         <is>
           <t>is the overarching name for any set of fixed denotations that are used to describe something with the goal to reduce ambiguity and facilitate machine interoperability. It can range from a simple controlled vocabulary (a simple list of terms) to a complex ontology (formal definitions of terms and their relations semantically expressed in a machine-readable way). This term may also include taxonomies, thesauri, conceptual models or any other kinds of knowledge organization sources.</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr">
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
         <is>
           <t>zonmwpc:10213</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
@@ -10297,6 +10769,8 @@
       <c r="V233" t="inlineStr"/>
       <c r="W233" t="inlineStr"/>
       <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr"/>
+      <c r="Z233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10312,13 +10786,13 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr">
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
         <is>
           <t>zonmwpc:10213</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
@@ -10335,6 +10809,8 @@
       <c r="V234" t="inlineStr"/>
       <c r="W234" t="inlineStr"/>
       <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10350,13 +10826,13 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr">
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
         <is>
           <t>zonmwpc:10213</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
@@ -10373,6 +10849,8 @@
       <c r="V235" t="inlineStr"/>
       <c r="W235" t="inlineStr"/>
       <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr"/>
+      <c r="Z235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10388,13 +10866,13 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr">
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
         <is>
           <t>zonmwpc:10213</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
@@ -10411,6 +10889,8 @@
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="inlineStr"/>
       <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr"/>
+      <c r="Z236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10426,13 +10906,13 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr">
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
         <is>
           <t>zonmwpc:10213</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
@@ -10449,6 +10929,8 @@
       <c r="V237" t="inlineStr"/>
       <c r="W237" t="inlineStr"/>
       <c r="X237" t="inlineStr"/>
+      <c r="Y237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10464,13 +10946,13 @@
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr">
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
         <is>
           <t>zonmwpc:10037</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
@@ -10487,6 +10969,8 @@
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="inlineStr"/>
       <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr"/>
+      <c r="Z238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10500,19 +10984,19 @@
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr">
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
         <is>
           <t>Data about activities concerned with governmental policies, functions, etc.</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr">
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
@@ -10529,6 +11013,8 @@
       <c r="V239" t="inlineStr"/>
       <c r="W239" t="inlineStr"/>
       <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr"/>
+      <c r="Z239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10544,13 +11030,13 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr">
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
@@ -10567,6 +11053,8 @@
       <c r="V240" t="inlineStr"/>
       <c r="W240" t="inlineStr"/>
       <c r="X240" t="inlineStr"/>
+      <c r="Y240" t="inlineStr"/>
+      <c r="Z240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10582,13 +11070,13 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr">
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
         <is>
           <t>zonmwpc:10107</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
@@ -10605,6 +11093,8 @@
       <c r="V241" t="inlineStr"/>
       <c r="W241" t="inlineStr"/>
       <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr"/>
+      <c r="Z241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10620,13 +11110,13 @@
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr">
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
         <is>
           <t>zonmwpc:10144</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
@@ -10643,6 +11133,8 @@
       <c r="V242" t="inlineStr"/>
       <c r="W242" t="inlineStr"/>
       <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr"/>
+      <c r="Z242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10656,12 +11148,12 @@
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
         <is>
           <t>ZonMw specific focus areas</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
@@ -10681,6 +11173,8 @@
       <c r="V243" t="inlineStr"/>
       <c r="W243" t="inlineStr"/>
       <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr"/>
+      <c r="Z243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10696,13 +11190,13 @@
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr">
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
         <is>
           <t>zonmwpc:10225</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -10719,6 +11213,8 @@
       <c r="V244" t="inlineStr"/>
       <c r="W244" t="inlineStr"/>
       <c r="X244" t="inlineStr"/>
+      <c r="Y244" t="inlineStr"/>
+      <c r="Z244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10734,13 +11230,13 @@
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr">
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
         <is>
           <t>zonmwpc:10225</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -10757,6 +11253,8 @@
       <c r="V245" t="inlineStr"/>
       <c r="W245" t="inlineStr"/>
       <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr"/>
+      <c r="Z245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10772,13 +11270,13 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr">
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
         <is>
           <t>zonmwpc:10225</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -10795,6 +11293,8 @@
       <c r="V246" t="inlineStr"/>
       <c r="W246" t="inlineStr"/>
       <c r="X246" t="inlineStr"/>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10810,13 +11310,13 @@
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr">
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
         <is>
           <t>zonmwpc:10225</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
@@ -10833,6 +11333,1462 @@
       <c r="V247" t="inlineStr"/>
       <c r="W247" t="inlineStr"/>
       <c r="X247" t="inlineStr"/>
+      <c r="Y247" t="inlineStr"/>
+      <c r="Z247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr"/>
+      <c r="Z248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>zonmwpc:10231</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>organisation of care and prevention</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
+      <c r="Y249" t="inlineStr"/>
+      <c r="Z249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>zonmwpc:10232</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>diagnostics</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Diagnostiek</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>The representation of a conclusion of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Het diagnostisch proces</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr"/>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
+      <c r="Y250" t="inlineStr"/>
+      <c r="Z250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>zonmwpc:10233</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>impact of measures and strategies</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>De Impact Van Maatregels En Strategieen</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>The impact of the social distancing measures</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>De impact van de 1,5m maatregel</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr"/>
+      <c r="V251" t="inlineStr"/>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
+      <c r="Y251" t="inlineStr"/>
+      <c r="Z251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>zonmwpc:10234</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>healthcare</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Gezondheidszorg</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>The use of healthcare, 1st line and 2nd line.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
+      <c r="Y252" t="inlineStr"/>
+      <c r="Z252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>zonmwpc:10235</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Onderwijs</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>The activities of educating or instructing or teaching; activities that impart knowledge or skill.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C16529&amp;key=2040663473&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr"/>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr"/>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr"/>
+      <c r="Y253" t="inlineStr"/>
+      <c r="Z253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>zonmwpc:10236</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>therapy</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Behandeling</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate a disorder, the signs and symptoms of a disorder, or a pathological process</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="inlineStr"/>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr"/>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr"/>
+      <c r="Y254" t="inlineStr"/>
+      <c r="Z254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>zonmwpc:10237</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>risk analysis</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Risico Analyse</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>The process of assessing the likelihood of the risk of admission to the Emergency Department of a COVID patient</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr"/>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr"/>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
+      <c r="Y255" t="inlineStr"/>
+      <c r="Z255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>zonmwpc:10238</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>prognosis</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Prognose</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Prognosis is the prediction of the probable outcome of an individual's current medical condition. A prognosis is made on the basis of the normal course of a disease, the individual's physical and psychological condition, and additional factors such as therapeutic approach.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>https://scigraph.springernature.com/ontologies/subjects/prognosis</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>https://scigraph.springernature.com/ontologies/subjects/prognosis</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="inlineStr"/>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr"/>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
+      <c r="Y256" t="inlineStr"/>
+      <c r="Z256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>zonmwpc:10239</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>immunology</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Immunologie</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="inlineStr"/>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr"/>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
+      <c r="Y257" t="inlineStr"/>
+      <c r="Z257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>zonmwpc:10240</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Gedrag</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>zonmwpc:10230</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
+      <c r="Y258" t="inlineStr"/>
+      <c r="Z258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>zonmwpc:10241</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>prevention phase</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
+      <c r="Y259" t="inlineStr"/>
+      <c r="Z259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>zonmwpc:10242</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>aftercare phase</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
+      <c r="Y260" t="inlineStr"/>
+      <c r="Z260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>zonmwpc:10243</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>free-from-disease phase</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>zonmwpc:10017</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="inlineStr"/>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
+      <c r="R261" t="inlineStr"/>
+      <c r="S261" t="inlineStr"/>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr"/>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
+      <c r="Y261" t="inlineStr"/>
+      <c r="Z261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>zonmwpc:10244</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>fungus</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr"/>
+      <c r="Z262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>zonmwpc:10245</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>diary cattle</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
+      <c r="Y263" t="inlineStr"/>
+      <c r="Z263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>zonmwpc:10246</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>veal calve</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
+      <c r="Y264" t="inlineStr"/>
+      <c r="Z264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>zonmwpc:10247</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>beef cattle</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
+      <c r="S265" t="inlineStr"/>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr"/>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr"/>
+      <c r="Y265" t="inlineStr"/>
+      <c r="Z265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>zonmwpc:10248</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>buffalo</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr"/>
+      <c r="S266" t="inlineStr"/>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr"/>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="inlineStr"/>
+      <c r="Z266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>zonmwpc:10249</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>sheep (wool)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr"/>
+      <c r="Z267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>zonmwpc:10250</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>sheep (milk)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>zonmwpc:10251</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>goat (meat)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
+      <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>zonmwpc:10252</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>goat (milk)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr"/>
+      <c r="S270" t="inlineStr"/>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
+      <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
+      <c r="Y270" t="inlineStr"/>
+      <c r="Z270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>zonmwpc:10253</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr"/>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
+      <c r="Y271" t="inlineStr"/>
+      <c r="Z271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>zonmwpc:10254</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>pig</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr"/>
+      <c r="S272" t="inlineStr"/>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
+      <c r="Y272" t="inlineStr"/>
+      <c r="Z272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>zonmwpc:10255</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>broiler</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>zonmwpc:10145</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
+      <c r="S273" t="inlineStr"/>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
+      <c r="Y273" t="inlineStr"/>
+      <c r="Z273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>zonmwpc:10256</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>animal group</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr"/>
+      <c r="V274" t="inlineStr"/>
+      <c r="W274" t="inlineStr"/>
+      <c r="X274" t="inlineStr"/>
+      <c r="Y274" t="inlineStr"/>
+      <c r="Z274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>zonmwpc:10257</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>insect</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>zonmwpc:10256</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
+      <c r="R275" t="inlineStr"/>
+      <c r="S275" t="inlineStr"/>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
+      <c r="V275" t="inlineStr"/>
+      <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr"/>
+      <c r="Y275" t="inlineStr"/>
+      <c r="Z275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>zonmwpc:10258</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>livestock</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>zonmwpc:10256</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
+      <c r="S276" t="inlineStr"/>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr"/>
+      <c r="V276" t="inlineStr"/>
+      <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr"/>
+      <c r="Y276" t="inlineStr"/>
+      <c r="Z276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>zonmwpc:10259</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>poultry</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>zonmwpc:10256</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr"/>
+      <c r="Y277" t="inlineStr"/>
+      <c r="Z277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>zonmwpc:10260</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>wildlife</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>zonmwpc:10256</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr"/>
+      <c r="Y278" t="inlineStr"/>
+      <c r="Z278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>zonmwpc:10261</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>companion animal</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>zonmwpc:10256</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr"/>
+      <c r="Y279" t="inlineStr"/>
+      <c r="Z279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>zonmwpc:10262</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>perineal swab</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
+      <c r="S280" t="inlineStr"/>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" t="inlineStr"/>
+      <c r="V280" t="inlineStr"/>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr"/>
+      <c r="Y280" t="inlineStr"/>
+      <c r="Z280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>zonmwpc:10263</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>cloacal swab</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>zonmwpc:10169</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
+      <c r="S281" t="inlineStr"/>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr"/>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr"/>
+      <c r="Y281" t="inlineStr"/>
+      <c r="Z281" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -2177,7 +2177,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>zonmwpc:10018,10230</t>
+          <t>zonmwpc:10018, zonmwpc:10230</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2223,7 +2223,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>zonmwpc:10018,10230</t>
+          <t>zonmwpc:10018, zonmwpc:10230</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>zonmwpc:10018,10230</t>
+          <t>zonmwpc:10018, zonmwpc:10230</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>zonmwpc:10018,10230</t>
+          <t>zonmwpc:10018, zonmwpc:10230</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF268"/>
+  <dimension ref="A1:AF265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://vocab.fairdatacollective.org/zonmw/project-content/</t>
+          <t>http://purl.org/zonmw/covid19/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zonmwpc</t>
+          <t>covid19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://vocab.fairdatacollective.org/zonmw/project-content/</t>
+          <t>http://purl.org/zonmw/covid19/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zonmwpc:10000</t>
+          <t>covid19:10000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1330,7 +1330,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zonmwpc:10001</t>
+          <t>covid19:10001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>zonmwpc:10002</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>zonmwpc:10001</t>
+          <t>covid19:10001</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1422,7 +1422,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zonmwpc:10003</t>
+          <t>covid19:10003</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1437,7 +1437,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>zonmwpc:10002</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1468,7 +1468,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>zonmwpc:10004</t>
+          <t>covid19:10004</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1483,7 +1483,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>zonmwpc:10002</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>zonmwpc:10005</t>
+          <t>covid19:10005</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1529,7 +1529,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>zonmwpc:10002</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1560,7 +1560,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>zonmwpc:10006</t>
+          <t>covid19:10006</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1575,7 +1575,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>zonmwpc:10002</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>zonmwpc:10007</t>
+          <t>covid19:10007</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1621,7 +1621,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>zonmwpc:10002</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1652,7 +1652,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>zonmwpc:10008</t>
+          <t>covid19:10008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1667,7 +1667,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>zonmwpc:10002</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1698,7 +1698,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1717,7 +1717,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>zonmwpc:10001</t>
+          <t>covid19:10001</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>zonmwpc:10010</t>
+          <t>covid19:10010</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1763,7 +1763,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1794,7 +1794,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>zonmwpc:10011</t>
+          <t>covid19:10011</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1809,7 +1809,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1840,7 +1840,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>zonmwpc:10012</t>
+          <t>covid19:10012</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1859,7 +1859,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1890,7 +1890,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zonmwpc:10013</t>
+          <t>covid19:10013</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1905,7 +1905,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>zonmwpc:10014</t>
+          <t>covid19:10014</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1951,7 +1951,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>zonmwpc:10015</t>
+          <t>covid19:10015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1997,7 +1997,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2028,7 +2028,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>zonmwpc:10016</t>
+          <t>covid19:10016</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2043,7 +2043,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>zonmwpc:10009</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2074,7 +2074,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>zonmwpc:10017</t>
+          <t>covid19:10017</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>zonmwpc:10018</t>
+          <t>covid19:10018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2131,7 +2131,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>zonmwpc:10017</t>
+          <t>covid19:10017</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2162,7 +2162,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>zonmwpc:10019</t>
+          <t>covid19:10019</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2177,7 +2177,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>zonmwpc:10018, zonmwpc:10230</t>
+          <t>covid19:10018, covid19:10230</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>zonmwpc:10020</t>
+          <t>covid19:10020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>zonmwpc:10018, zonmwpc:10230</t>
+          <t>covid19:10018, covid19:10230</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2254,7 +2254,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zonmwpc:10021</t>
+          <t>covid19:10021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>zonmwpc:10018, zonmwpc:10230</t>
+          <t>covid19:10018, covid19:10230</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>zonmwpc:10022</t>
+          <t>covid19:10022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>zonmwpc:10018, zonmwpc:10230</t>
+          <t>covid19:10018, covid19:10230</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -2370,7 +2370,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>zonmwpc:10023</t>
+          <t>covid19:10023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2385,7 +2385,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>zonmwpc:10017</t>
+          <t>covid19:10017</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>zonmwpc:10024</t>
+          <t>covid19:10024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2431,7 +2431,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>zonmwpc:10023</t>
+          <t>covid19:10023</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>zonmwpc:10025</t>
+          <t>covid19:10025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2477,7 +2477,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>zonmwpc:10023</t>
+          <t>covid19:10023</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>zonmwpc:10026</t>
+          <t>covid19:10026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>zonmwpc:10023</t>
+          <t>covid19:10023</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2566,7 +2566,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>zonmwpc:10027</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2581,7 +2581,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>zonmwpc:10017</t>
+          <t>covid19:10017</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2612,7 +2612,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>zonmwpc:10028</t>
+          <t>covid19:10028</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2627,7 +2627,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>zonmwpc:10027</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2658,7 +2658,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>zonmwpc:10029</t>
+          <t>covid19:10029</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2673,7 +2673,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>zonmwpc:10027</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2704,7 +2704,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>zonmwpc:10030</t>
+          <t>covid19:10030</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2719,7 +2719,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>zonmwpc:10027</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -2750,7 +2750,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zonmwpc:10031</t>
+          <t>covid19:10031</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2765,7 +2765,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>zonmwpc:10027</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>zonmwpc:10032</t>
+          <t>covid19:10032</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2811,7 +2811,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>zonmwpc:10027</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2842,7 +2842,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>zonmwpc:10033</t>
+          <t>covid19:10033</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>zonmwpc:10017</t>
+          <t>covid19:10017</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>zonmwpc:10034</t>
+          <t>covid19:10034</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2903,7 +2903,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>zonmwpc:10033</t>
+          <t>covid19:10033</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -2934,7 +2934,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>zonmwpc:10035</t>
+          <t>covid19:10035</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2949,7 +2949,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>zonmwpc:10033</t>
+          <t>covid19:10033</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -2980,7 +2980,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>zonmwpc:10036</t>
+          <t>covid19:10036</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2995,7 +2995,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>zonmwpc:10033</t>
+          <t>covid19:10033</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3026,7 +3026,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3068,7 +3068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3083,7 +3083,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -3114,7 +3114,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>zonmwpc:10039</t>
+          <t>covid19:10039</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3164,7 +3164,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>zonmwpc:10040</t>
+          <t>covid19:10040</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3183,7 +3183,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3214,7 +3214,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>zonmwpc:10041</t>
+          <t>covid19:10041</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3233,7 +3233,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3264,7 +3264,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>zonmwpc:10042</t>
+          <t>covid19:10042</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3283,7 +3283,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -3314,7 +3314,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>zonmwpc:10043</t>
+          <t>covid19:10043</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3333,7 +3333,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3364,7 +3364,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>zonmwpc:10044</t>
+          <t>covid19:10044</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3383,7 +3383,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3414,7 +3414,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>zonmwpc:10045</t>
+          <t>covid19:10045</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>zonmwpc:10046</t>
+          <t>covid19:10046</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3483,7 +3483,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -3514,7 +3514,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>zonmwpc:10047</t>
+          <t>covid19:10047</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3533,7 +3533,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -3564,7 +3564,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>zonmwpc:10048</t>
+          <t>covid19:10048</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3583,7 +3583,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -3614,7 +3614,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>zonmwpc:10049</t>
+          <t>covid19:10049</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3633,7 +3633,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>zonmwpc:10050</t>
+          <t>covid19:10050</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3687,7 +3687,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>zonmwpc:10038</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>zonmwpc:10051</t>
+          <t>covid19:10051</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3769,7 +3769,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>zonmwpc:10052</t>
+          <t>covid19:10052</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>zonmwpc:10051</t>
+          <t>covid19:10051</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3815,7 +3815,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>zonmwpc:10053</t>
+          <t>covid19:10053</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3830,7 +3830,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>zonmwpc:10051</t>
+          <t>covid19:10051</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -3861,7 +3861,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>zonmwpc:10054</t>
+          <t>covid19:10054</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>zonmwpc:10051</t>
+          <t>covid19:10051</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3907,7 +3907,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>zonmwpc:10055</t>
+          <t>covid19:10055</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3927,7 +3927,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3958,7 +3958,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>zonmwpc:10056</t>
+          <t>covid19:10056</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3973,7 +3973,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>zonmwpc:10055</t>
+          <t>covid19:10055</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>zonmwpc:10057</t>
+          <t>covid19:10057</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4019,7 +4019,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>zonmwpc:10055</t>
+          <t>covid19:10055</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -4050,7 +4050,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>zonmwpc:10058</t>
+          <t>covid19:10058</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4065,7 +4065,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>zonmwpc:10055</t>
+          <t>covid19:10055</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -4096,7 +4096,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>zonmwpc:10059</t>
+          <t>covid19:10059</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4111,7 +4111,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>zonmwpc:10055</t>
+          <t>covid19:10055</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -4142,7 +4142,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>zonmwpc:10060</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4157,7 +4157,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -4188,7 +4188,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>zonmwpc:10061</t>
+          <t>covid19:10061</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4203,7 +4203,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>zonmwpc:10060</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -4234,7 +4234,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>zonmwpc:10062</t>
+          <t>covid19:10062</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>zonmwpc:10060</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -4280,7 +4280,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>zonmwpc:10063</t>
+          <t>covid19:10063</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4295,7 +4295,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>zonmwpc:10060</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>zonmwpc:10064</t>
+          <t>covid19:10064</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4341,7 +4341,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>zonmwpc:10060</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -4372,7 +4372,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>zonmwpc:10065</t>
+          <t>covid19:10065</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4387,7 +4387,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>zonmwpc:10060</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -4418,7 +4418,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>zonmwpc:10066</t>
+          <t>covid19:10066</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4433,7 +4433,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>zonmwpc:10060</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -4464,7 +4464,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4479,7 +4479,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>zonmwpc:10068</t>
+          <t>covid19:10068</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4525,7 +4525,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -4556,7 +4556,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>zonmwpc:10069</t>
+          <t>covid19:10069</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4571,7 +4571,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -4602,7 +4602,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>zonmwpc:10070</t>
+          <t>covid19:10070</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4617,7 +4617,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -4648,7 +4648,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>zonmwpc:10071</t>
+          <t>covid19:10071</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>zonmwpc:10072</t>
+          <t>covid19:10072</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4709,7 +4709,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -4740,7 +4740,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>zonmwpc:10073</t>
+          <t>covid19:10073</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4755,7 +4755,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -4786,7 +4786,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>zonmwpc:10074</t>
+          <t>covid19:10074</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4801,7 +4801,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -4832,7 +4832,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zonmwpc:10075</t>
+          <t>covid19:10075</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4847,7 +4847,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -4878,7 +4878,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>zonmwpc:10076</t>
+          <t>covid19:10076</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4893,7 +4893,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>zonmwpc:10067</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -4924,7 +4924,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>zonmwpc:10077</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4939,7 +4939,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -4970,7 +4970,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>zonmwpc:10078</t>
+          <t>covid19:10078</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4985,7 +4985,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>zonmwpc:10077</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -5016,7 +5016,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>zonmwpc:10079</t>
+          <t>covid19:10079</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5031,7 +5031,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>zonmwpc:10077</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -5062,7 +5062,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zonmwpc:10080</t>
+          <t>covid19:10080</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5077,7 +5077,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>zonmwpc:10077</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -5108,7 +5108,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zonmwpc:10081</t>
+          <t>covid19:10081</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5123,7 +5123,7 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>zonmwpc:10077</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>zonmwpc:10082</t>
+          <t>covid19:10082</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5169,7 +5169,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>zonmwpc:10077</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -5200,7 +5200,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5215,7 +5215,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>zonmwpc:10084</t>
+          <t>covid19:10084</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5261,7 +5261,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -5292,7 +5292,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>zonmwpc:10085</t>
+          <t>covid19:10085</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5307,7 +5307,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -5338,7 +5338,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>zonmwpc:10086</t>
+          <t>covid19:10086</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5353,7 +5353,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -5384,7 +5384,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>zonmwpc:10087</t>
+          <t>covid19:10087</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5399,7 +5399,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -5430,7 +5430,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>zonmwpc:10088</t>
+          <t>covid19:10088</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5445,7 +5445,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -5476,7 +5476,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>zonmwpc:10089</t>
+          <t>covid19:10089</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5491,7 +5491,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -5522,7 +5522,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>zonmwpc:10090</t>
+          <t>covid19:10090</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5537,7 +5537,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>zonmwpc:10083</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>zonmwpc:10091</t>
+          <t>covid19:10091</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5583,7 +5583,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -5614,7 +5614,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>zonmwpc:10092</t>
+          <t>covid19:10092</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5629,7 +5629,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>zonmwpc:10091</t>
+          <t>covid19:10091</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -5660,7 +5660,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>zonmwpc:10093</t>
+          <t>covid19:10093</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5675,7 +5675,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>zonmwpc:10091</t>
+          <t>covid19:10091</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -5706,7 +5706,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>zonmwpc:10094</t>
+          <t>covid19:10094</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5721,7 +5721,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>zonmwpc:10091</t>
+          <t>covid19:10091</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -5752,7 +5752,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>zonmwpc:10095</t>
+          <t>covid19:10095</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5767,7 +5767,7 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>zonmwpc:10091</t>
+          <t>covid19:10091</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -5798,7 +5798,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>zonmwpc:10096</t>
+          <t>covid19:10096</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5813,7 +5813,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>zonmwpc:10220</t>
+          <t>covid19:10220</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -5844,7 +5844,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>zonmwpc:10097</t>
+          <t>covid19:10097</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5859,7 +5859,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>zonmwpc:10220</t>
+          <t>covid19:10220</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -5890,7 +5890,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5905,7 +5905,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>zonmwpc:10099</t>
+          <t>covid19:10099</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5951,7 +5951,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -5982,7 +5982,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>zonmwpc:10100</t>
+          <t>covid19:10100</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5997,7 +5997,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>zonmwpc:10101</t>
+          <t>covid19:10101</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6043,7 +6043,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>zonmwpc:10102</t>
+          <t>covid19:10102</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6089,7 +6089,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -6120,7 +6120,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>zonmwpc:10103</t>
+          <t>covid19:10103</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6135,7 +6135,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -6166,7 +6166,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>zonmwpc:10104</t>
+          <t>covid19:10104</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6181,7 +6181,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -6212,7 +6212,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>zonmwpc:10105</t>
+          <t>covid19:10105</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6227,7 +6227,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -6258,7 +6258,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>zonmwpc:10106</t>
+          <t>covid19:10106</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6273,7 +6273,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>zonmwpc:10098</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -6304,7 +6304,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6346,7 +6346,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6365,7 +6365,7 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>zonmwpc:10109</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -6454,7 +6454,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>zonmwpc:10110</t>
+          <t>covid19:10110</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -6512,7 +6512,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>zonmwpc:10111</t>
+          <t>covid19:10111</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -6570,7 +6570,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>zonmwpc:10112</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -6630,7 +6630,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>zonmwpc:10113</t>
+          <t>covid19:10113</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>zonmwpc:10114</t>
+          <t>covid19:10114</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
@@ -6748,7 +6748,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>zonmwpc:10115</t>
+          <t>covid19:10115</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -6810,7 +6810,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>zonmwpc:10116</t>
+          <t>covid19:10116</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -6868,7 +6868,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>zonmwpc:10117</t>
+          <t>covid19:10117</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>zonmwpc:10108</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -6928,7 +6928,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6947,7 +6947,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -6982,7 +6982,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>zonmwpc:10119</t>
+          <t>covid19:10119</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -7044,7 +7044,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>zonmwpc:10120</t>
+          <t>covid19:10120</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -7106,7 +7106,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>zonmwpc:10121</t>
+          <t>covid19:10121</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -7164,7 +7164,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>zonmwpc:10122</t>
+          <t>covid19:10122</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -7226,7 +7226,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>zonmwpc:10123</t>
+          <t>covid19:10123</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7249,7 +7249,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>zonmwpc:10118</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -7284,7 +7284,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>zonmwpc:10124</t>
+          <t>covid19:10124</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7303,7 +7303,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -7334,7 +7334,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>zonmwpc:10125</t>
+          <t>covid19:10125</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7353,7 +7353,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -7388,7 +7388,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>zonmwpc:10126</t>
+          <t>covid19:10126</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7403,7 +7403,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>zonmwpc:10221</t>
+          <t>covid19:10221</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7438,7 +7438,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>zonmwpc:10127</t>
+          <t>covid19:10127</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7457,7 +7457,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
@@ -7488,7 +7488,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>zonmwpc:10128</t>
+          <t>covid19:10128</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7507,7 +7507,7 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -7538,7 +7538,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>zonmwpc:10129</t>
+          <t>covid19:10129</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7553,7 +7553,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>zonmwpc:10128</t>
+          <t>covid19:10128</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>zonmwpc:10130</t>
+          <t>covid19:10130</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>zonmwpc:10128</t>
+          <t>covid19:10128</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
@@ -7646,7 +7646,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>zonmwpc:10131</t>
+          <t>covid19:10131</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7665,7 +7665,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>zonmwpc:10128</t>
+          <t>covid19:10128</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
@@ -7700,7 +7700,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>zonmwpc:10132</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7719,7 +7719,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -7750,7 +7750,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>zonmwpc:10133</t>
+          <t>covid19:10133</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>zonmwpc:10132</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -7808,7 +7808,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>zonmwpc:10134</t>
+          <t>covid19:10134</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>zonmwpc:10132</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -7866,7 +7866,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>zonmwpc:10135</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7885,7 +7885,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -7916,7 +7916,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>zonmwpc:10136</t>
+          <t>covid19:10136</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7935,7 +7935,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>zonmwpc:10135</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -7970,7 +7970,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>zonmwpc:10137</t>
+          <t>covid19:10137</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7985,7 +7985,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>zonmwpc:10135</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -8021,7 +8021,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>zonmwpc:10138</t>
+          <t>covid19:10138</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8036,7 +8036,7 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>zonmwpc:10124</t>
+          <t>covid19:10124</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -8071,7 +8071,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>zonmwpc:10139</t>
+          <t>covid19:10139</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8090,7 +8090,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>zonmwpc:10135</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -8125,7 +8125,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>zonmwpc:10140</t>
+          <t>covid19:10140</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8140,7 +8140,7 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>zonmwpc:10135</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -8175,7 +8175,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>zonmwpc:10141</t>
+          <t>covid19:10141</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8194,7 +8194,7 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -8225,7 +8225,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>zonmwpc:10142</t>
+          <t>covid19:10142</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>zonmwpc:10141</t>
+          <t>covid19:10141</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -8283,7 +8283,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>zonmwpc:10143</t>
+          <t>covid19:10143</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8298,7 +8298,7 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>zonmwpc:10141</t>
+          <t>covid19:10141</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -8329,7 +8329,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>zonmwpc:10144</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8371,7 +8371,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>zonmwpc:10144</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -8429,7 +8429,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>zonmwpc:10146</t>
+          <t>covid19:10146</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -8487,7 +8487,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>zonmwpc:10147</t>
+          <t>covid19:10147</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -8545,7 +8545,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>zonmwpc:10148</t>
+          <t>covid19:10148</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -8603,7 +8603,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>zonmwpc:10149</t>
+          <t>covid19:10149</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>zonmwpc:10150</t>
+          <t>covid19:10150</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -8719,7 +8719,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>zonmwpc:10151</t>
+          <t>covid19:10151</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -8777,7 +8777,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>zonmwpc:10152</t>
+          <t>covid19:10152</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8800,7 +8800,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10145</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -8835,7 +8835,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>zonmwpc:10144</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
@@ -8893,7 +8893,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>zonmwpc:10154</t>
+          <t>covid19:10154</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
@@ -8951,7 +8951,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>zonmwpc:10155</t>
+          <t>covid19:10155</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
@@ -9009,7 +9009,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>zonmwpc:10156</t>
+          <t>covid19:10156</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
@@ -9069,7 +9069,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>zonmwpc:10157</t>
+          <t>covid19:10157</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
@@ -9128,7 +9128,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>zonmwpc:10158</t>
+          <t>covid19:10158</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -9187,7 +9187,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>zonmwpc:10159</t>
+          <t>covid19:10159</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>zonmwpc:10160</t>
+          <t>covid19:10160</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
@@ -9304,7 +9304,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>zonmwpc:10161</t>
+          <t>covid19:10161</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
@@ -9362,7 +9362,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>zonmwpc:10162</t>
+          <t>covid19:10162</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
@@ -9420,7 +9420,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>zonmwpc:10163</t>
+          <t>covid19:10163</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
@@ -9478,7 +9478,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>zonmwpc:10164</t>
+          <t>covid19:10164</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
@@ -9536,7 +9536,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>zonmwpc:10165</t>
+          <t>covid19:10165</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
@@ -9594,7 +9594,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>zonmwpc:10166</t>
+          <t>covid19:10166</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
@@ -9652,7 +9652,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>zonmwpc:10167</t>
+          <t>covid19:10167</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
@@ -9710,7 +9710,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>zonmwpc:10168</t>
+          <t>covid19:10168</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>zonmwpc:10153</t>
+          <t>covid19:10153</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
@@ -9768,7 +9768,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>zonmwpc:10144</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
@@ -9827,7 +9827,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>zonmwpc:10170</t>
+          <t>covid19:10170</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
@@ -9885,7 +9885,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>zonmwpc:10171</t>
+          <t>covid19:10171</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
@@ -9943,7 +9943,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>zonmwpc:10172</t>
+          <t>covid19:10172</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
@@ -10001,7 +10001,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>zonmwpc:10173</t>
+          <t>covid19:10173</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
@@ -10063,7 +10063,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>zonmwpc:10174</t>
+          <t>covid19:10174</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
@@ -10121,7 +10121,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>zonmwpc:10175</t>
+          <t>covid19:10175</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
@@ -10181,7 +10181,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>zonmwpc:10176</t>
+          <t>covid19:10176</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
@@ -10235,7 +10235,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>zonmwpc:10177</t>
+          <t>covid19:10177</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -10293,7 +10293,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>zonmwpc:10178</t>
+          <t>covid19:10178</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>zonmwpc:10179</t>
+          <t>covid19:10179</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10366,7 +10366,7 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10169</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>zonmwpc:10180</t>
+          <t>covid19:10180</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10416,7 +10416,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>zonmwpc:10144</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
@@ -10447,7 +10447,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>zonmwpc:10181</t>
+          <t>covid19:10181</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>zonmwpc:10180</t>
+          <t>covid19:10180</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
@@ -10505,7 +10505,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>zonmwpc:10182</t>
+          <t>covid19:10182</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>zonmwpc:10180</t>
+          <t>covid19:10180</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
@@ -10568,7 +10568,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>zonmwpc:10183</t>
+          <t>covid19:10183</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>zonmwpc:10180</t>
+          <t>covid19:10180</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
@@ -10631,7 +10631,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>zonmwpc:10184</t>
+          <t>covid19:10184</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>zonmwpc:10180</t>
+          <t>covid19:10180</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
@@ -10690,7 +10690,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>zonmwpc:10185</t>
+          <t>covid19:10185</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>zonmwpc:10180</t>
+          <t>covid19:10180</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
@@ -10749,7 +10749,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>zonmwpc:10186</t>
+          <t>covid19:10186</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -10791,7 +10791,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10806,7 +10806,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>zonmwpc:10186</t>
+          <t>covid19:10186</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>zonmwpc:10188</t>
+          <t>covid19:10188</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
@@ -10887,7 +10887,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>zonmwpc:10189</t>
+          <t>covid19:10189</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
@@ -10937,7 +10937,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>zonmwpc:10190</t>
+          <t>covid19:10190</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
@@ -10991,7 +10991,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>zonmwpc:10191</t>
+          <t>covid19:10191</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I210" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>zonmwpc:10192</t>
+          <t>covid19:10192</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
@@ -11109,7 +11109,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>zonmwpc:10193</t>
+          <t>covid19:10193</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -11132,7 +11132,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I212" t="inlineStr"/>
@@ -11167,7 +11167,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>zonmwpc:10194</t>
+          <t>covid19:10194</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I213" t="inlineStr"/>
@@ -11221,7 +11221,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>zonmwpc:10195</t>
+          <t>covid19:10195</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -11240,7 +11240,7 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I214" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>zonmwpc:10196</t>
+          <t>covid19:10196</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11286,7 +11286,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I215" t="inlineStr"/>
@@ -11317,7 +11317,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>zonmwpc:10197</t>
+          <t>covid19:10197</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -11336,7 +11336,7 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I216" t="inlineStr"/>
@@ -11367,7 +11367,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>zonmwpc:10198</t>
+          <t>covid19:10198</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11386,7 +11386,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I217" t="inlineStr"/>
@@ -11417,7 +11417,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>zonmwpc:10199</t>
+          <t>covid19:10199</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11436,7 +11436,7 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I218" t="inlineStr"/>
@@ -11467,7 +11467,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>zonmwpc:10200</t>
+          <t>covid19:10200</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11486,7 +11486,7 @@
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I219" t="inlineStr"/>
@@ -11517,7 +11517,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>zonmwpc:10201</t>
+          <t>covid19:10201</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11536,7 +11536,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I220" t="inlineStr"/>
@@ -11567,7 +11567,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>zonmwpc:10202</t>
+          <t>covid19:10202</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11586,7 +11586,7 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I221" t="inlineStr"/>
@@ -11617,7 +11617,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>zonmwpc:10203</t>
+          <t>covid19:10203</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11632,7 +11632,7 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I222" t="inlineStr"/>
@@ -11663,7 +11663,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>zonmwpc:10204</t>
+          <t>covid19:10204</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11682,7 +11682,7 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I223" t="inlineStr"/>
@@ -11713,7 +11713,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>zonmwpc:10205</t>
+          <t>covid19:10205</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11732,7 +11732,7 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I224" t="inlineStr"/>
@@ -11763,7 +11763,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>zonmwpc:10206</t>
+          <t>covid19:10206</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -11778,7 +11778,7 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I225" t="inlineStr"/>
@@ -11809,7 +11809,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>zonmwpc:10207</t>
+          <t>covid19:10207</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11824,7 +11824,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>zonmwpc:10187</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I226" t="inlineStr"/>
@@ -11855,7 +11855,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>zonmwpc:10208</t>
+          <t>covid19:10208</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -11874,7 +11874,7 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>zonmwpc:10186</t>
+          <t>covid19:10186</t>
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
@@ -11905,7 +11905,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>zonmwpc:10209</t>
+          <t>covid19:10209</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11924,7 +11924,7 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>zonmwpc:10186</t>
+          <t>covid19:10186</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
@@ -11955,7 +11955,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>zonmwpc:10210</t>
+          <t>covid19:10210</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11974,7 +11974,7 @@
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>zonmwpc:10186</t>
+          <t>covid19:10186</t>
         </is>
       </c>
       <c r="I229" t="inlineStr"/>
@@ -12005,7 +12005,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>zonmwpc:10211</t>
+          <t>covid19:10211</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -12024,7 +12024,7 @@
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>zonmwpc:10186</t>
+          <t>covid19:10186</t>
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
@@ -12055,7 +12055,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>zonmwpc:10212</t>
+          <t>covid19:10212</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -12070,7 +12070,7 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>zonmwpc:10186</t>
+          <t>covid19:10186</t>
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
@@ -12101,7 +12101,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>zonmwpc:10213</t>
+          <t>covid19:10213</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -12143,7 +12143,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>zonmwpc:10214</t>
+          <t>covid19:10214</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -12158,7 +12158,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>zonmwpc:10213</t>
+          <t>covid19:10213</t>
         </is>
       </c>
       <c r="I233" t="inlineStr"/>
@@ -12189,7 +12189,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>zonmwpc:10215</t>
+          <t>covid19:10215</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -12208,7 +12208,7 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>zonmwpc:10213</t>
+          <t>covid19:10213</t>
         </is>
       </c>
       <c r="I234" t="inlineStr"/>
@@ -12239,7 +12239,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>zonmwpc:10216</t>
+          <t>covid19:10216</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -12254,7 +12254,7 @@
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>zonmwpc:10213</t>
+          <t>covid19:10213</t>
         </is>
       </c>
       <c r="I235" t="inlineStr"/>
@@ -12285,7 +12285,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>zonmwpc:10217</t>
+          <t>covid19:10217</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -12300,7 +12300,7 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>zonmwpc:10213</t>
+          <t>covid19:10213</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>zonmwpc:10218</t>
+          <t>covid19:10218</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -12346,7 +12346,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>zonmwpc:10213</t>
+          <t>covid19:10213</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
@@ -12377,7 +12377,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>zonmwpc:10219</t>
+          <t>covid19:10219</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -12392,7 +12392,7 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>zonmwpc:10213</t>
+          <t>covid19:10213</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
@@ -12423,7 +12423,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>zonmwpc:10220</t>
+          <t>covid19:10220</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -12438,7 +12438,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>zonmwpc:10037</t>
+          <t>covid19:10037</t>
         </is>
       </c>
       <c r="I239" t="inlineStr"/>
@@ -12469,7 +12469,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>zonmwpc:10221</t>
+          <t>covid19:10221</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -12488,7 +12488,7 @@
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
@@ -12519,7 +12519,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>zonmwpc:10222</t>
+          <t>covid19:10222</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -12534,7 +12534,7 @@
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I241" t="inlineStr"/>
@@ -12565,7 +12565,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>zonmwpc:10223</t>
+          <t>covid19:10223</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -12580,7 +12580,7 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>zonmwpc:10107</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I242" t="inlineStr"/>
@@ -12611,7 +12611,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>zonmwpc:10224</t>
+          <t>covid19:10224</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -12626,7 +12626,7 @@
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>zonmwpc:10144</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="I243" t="inlineStr"/>
@@ -12657,7 +12657,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>zonmwpc:10225</t>
+          <t>covid19:10225</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -12703,7 +12703,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>zonmwpc:10226</t>
+          <t>covid19:10226</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -12718,7 +12718,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>zonmwpc:10225</t>
+          <t>covid19:10225</t>
         </is>
       </c>
       <c r="I245" t="inlineStr"/>
@@ -12749,7 +12749,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>zonmwpc:10227</t>
+          <t>covid19:10227</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -12764,7 +12764,7 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>zonmwpc:10225</t>
+          <t>covid19:10225</t>
         </is>
       </c>
       <c r="I246" t="inlineStr"/>
@@ -12795,7 +12795,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>zonmwpc:10228</t>
+          <t>covid19:10228</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -12810,7 +12810,7 @@
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr">
         <is>
-          <t>zonmwpc:10225</t>
+          <t>covid19:10225</t>
         </is>
       </c>
       <c r="I247" t="inlineStr"/>
@@ -12841,7 +12841,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>zonmwpc:10229</t>
+          <t>covid19:10229</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -12856,7 +12856,7 @@
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
         <is>
-          <t>zonmwpc:10225</t>
+          <t>covid19:10225</t>
         </is>
       </c>
       <c r="I248" t="inlineStr"/>
@@ -12887,7 +12887,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -12929,7 +12929,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>zonmwpc:10231</t>
+          <t>covid19:10231</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -12944,7 +12944,7 @@
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I250" t="inlineStr"/>
@@ -12975,7 +12975,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>zonmwpc:10232</t>
+          <t>covid19:10232</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I251" t="inlineStr"/>
@@ -13041,7 +13041,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>zonmwpc:10233</t>
+          <t>covid19:10233</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13068,7 +13068,7 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I252" t="inlineStr"/>
@@ -13099,7 +13099,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>zonmwpc:10234</t>
+          <t>covid19:10234</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13122,7 +13122,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I253" t="inlineStr"/>
@@ -13153,7 +13153,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>zonmwpc:10235</t>
+          <t>covid19:10235</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I254" t="inlineStr"/>
@@ -13211,7 +13211,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>zonmwpc:10236</t>
+          <t>covid19:10236</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -13239,7 +13239,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I255" t="inlineStr"/>
@@ -13275,7 +13275,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>zonmwpc:10237</t>
+          <t>covid19:10237</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -13298,7 +13298,7 @@
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
@@ -13329,7 +13329,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>zonmwpc:10238</t>
+          <t>covid19:10238</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13356,7 +13356,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I257" t="inlineStr"/>
@@ -13391,7 +13391,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>zonmwpc:10239</t>
+          <t>covid19:10239</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -13410,7 +13410,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I258" t="inlineStr"/>
@@ -13441,7 +13441,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>zonmwpc:10240</t>
+          <t>covid19:10240</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -13460,7 +13460,7 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
         <is>
-          <t>zonmwpc:10230</t>
+          <t>covid19:10230</t>
         </is>
       </c>
       <c r="I259" t="inlineStr"/>
@@ -13491,26 +13491,34 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>zonmwpc:10241</t>
+          <t>covid19:10241</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>prevention phase</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>A description of something observed or derived, minimally consisting of  an ObjectOfInterest and its Property.</t>
+        </is>
+      </c>
       <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>zonmwpc:10017</t>
-        </is>
-      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+        </is>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr"/>
@@ -13537,26 +13545,34 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>zonmwpc:10242</t>
+          <t>covid19:10242</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>aftercare phase</t>
+          <t>property</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
-      <c r="E261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>A type of a characteristic of the ObjectOfInterest.</t>
+        </is>
+      </c>
       <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>zonmwpc:10017</t>
-        </is>
-      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+        </is>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
@@ -13583,26 +13599,34 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>zonmwpc:10243</t>
+          <t>covid19:10243</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>free-from-disease phase</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
-      <c r="E262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>A Constraint limits the scope of the observation and confines the context to a particular state. It describes properties of the involved entities that are relevant to the particular observation.</t>
+        </is>
+      </c>
       <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>zonmwpc:10017</t>
-        </is>
-      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+        </is>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
@@ -13629,22 +13653,26 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>zonmwpc:10244</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>fungus</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr"/>
+          <t>genomics data</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>sequencing data</t>
+        </is>
+      </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
         <is>
-          <t>zonmwpc:10145</t>
+          <t>covid19:10107</t>
         </is>
       </c>
       <c r="I263" t="inlineStr"/>
@@ -13675,7 +13703,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>zonmwpc:10245</t>
+          <t>covid19:10245</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -13690,7 +13718,7 @@
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
@@ -13721,7 +13749,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>zonmwpc:10246</t>
+          <t>covid19:10246</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -13736,7 +13764,7 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
-          <t>zonmwpc:10169</t>
+          <t>covid19:10144</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -13764,168 +13792,6 @@
       <c r="AE265" t="inlineStr"/>
       <c r="AF265" t="inlineStr"/>
     </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>zonmwpc:10247</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>A description of something observed or derived, minimally consisting of  an ObjectOfInterest and its Property.</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
-        </is>
-      </c>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
-        </is>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr"/>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="inlineStr"/>
-      <c r="T266" t="inlineStr"/>
-      <c r="U266" t="inlineStr"/>
-      <c r="V266" t="inlineStr"/>
-      <c r="W266" t="inlineStr"/>
-      <c r="X266" t="inlineStr"/>
-      <c r="Y266" t="inlineStr"/>
-      <c r="Z266" t="inlineStr"/>
-      <c r="AA266" t="inlineStr"/>
-      <c r="AB266" t="inlineStr"/>
-      <c r="AC266" t="inlineStr"/>
-      <c r="AD266" t="inlineStr"/>
-      <c r="AE266" t="inlineStr"/>
-      <c r="AF266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>zonmwpc:10248</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>property</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>A type of a characteristic of the ObjectOfInterest.</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
-        </is>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
-      <c r="N267" t="inlineStr"/>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr"/>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="inlineStr"/>
-      <c r="T267" t="inlineStr"/>
-      <c r="U267" t="inlineStr"/>
-      <c r="V267" t="inlineStr"/>
-      <c r="W267" t="inlineStr"/>
-      <c r="X267" t="inlineStr"/>
-      <c r="Y267" t="inlineStr"/>
-      <c r="Z267" t="inlineStr"/>
-      <c r="AA267" t="inlineStr"/>
-      <c r="AB267" t="inlineStr"/>
-      <c r="AC267" t="inlineStr"/>
-      <c r="AD267" t="inlineStr"/>
-      <c r="AE267" t="inlineStr"/>
-      <c r="AF267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>zonmwpc:10249</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>constraint</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>A Constraint limits the scope of the observation and confines the context to a particular state. It describes properties of the involved entities that are relevant to the particular observation.</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
-        </is>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="inlineStr"/>
-      <c r="N268" t="inlineStr"/>
-      <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr"/>
-      <c r="Q268" t="inlineStr"/>
-      <c r="R268" t="inlineStr"/>
-      <c r="S268" t="inlineStr"/>
-      <c r="T268" t="inlineStr"/>
-      <c r="U268" t="inlineStr"/>
-      <c r="V268" t="inlineStr"/>
-      <c r="W268" t="inlineStr"/>
-      <c r="X268" t="inlineStr"/>
-      <c r="Y268" t="inlineStr"/>
-      <c r="Z268" t="inlineStr"/>
-      <c r="AA268" t="inlineStr"/>
-      <c r="AB268" t="inlineStr"/>
-      <c r="AC268" t="inlineStr"/>
-      <c r="AD268" t="inlineStr"/>
-      <c r="AE268" t="inlineStr"/>
-      <c r="AF268" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-06-24T05:00:00+00:00</t>
+          <t>2021-06-29T08:20:00+00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF265"/>
+  <dimension ref="A1:AF266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,12 +517,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>gen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
+          <t>http://purl.org/zonmw/generic/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -563,12 +563,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
+          <t>http://purl.org/pav/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#</t>
+          <t>http://purl.org/dc/terms/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -655,12 +655,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xsd</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
+          <t>http://www.w3.org/2002/07/owl#</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -701,12 +701,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>iop</t>
+          <t>xsd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/</t>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -742,15 +742,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZonMW Project Content Vocabulary</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>iop</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -784,7 +788,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -826,12 +830,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Controlled vocabulary of terms used in ZonMV COVID project content metadata template</t>
+          <t>ZonMW Project Content Vocabulary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -868,12 +872,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>Controlled vocabulary of terms used in ZonMV COVID project content metadata template</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -915,7 +919,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-7160-5942</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -952,12 +956,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://orcid.org/0000-0002-9381-9693 </t>
+          <t>https://orcid.org/0000-0002-7160-5942</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -994,12 +998,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
+          <t xml:space="preserve">https://orcid.org/0000-0002-9381-9693 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1036,12 +1040,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.2.0</t>
+          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1078,12 +1082,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-02-10T11:00:00+00:00</t>
+          <t>1.2.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1120,12 +1124,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-06-29T08:20:00+00:00</t>
+          <t>2021-02-10T11:00:00+00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1162,109 +1166,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@nl</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>skos:definition@nl</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>skos:relatedMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
+          <t>2021-06-29T08:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
@@ -1280,41 +1208,109 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>covid19:10000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>deprecated</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@nl</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>This is a set of controlled terms which are deprecated.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>skos:definition@nl</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>skos:relatedMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
@@ -1330,22 +1326,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>covid19:10001</t>
+          <t>covid19:10000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>spatial scope</t>
+          <t>deprecated</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>This is a set of controlled terms which are deprecated.</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1372,28 +1376,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>covid19:10002</t>
+          <t>covid19:10001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">area </t>
+          <t>spatial scope</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>type of geographical area (rural, urban,..)</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>covid19:10001</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1422,22 +1418,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>covid19:10003</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t xml:space="preserve">area </t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>type of geographical area (rural, urban,..)</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>covid19:10002</t>
+          <t>covid19:10001</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1468,12 +1468,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>covid19:10004</t>
+          <t>covid19:10003</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>urban</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>covid19:10005</t>
+          <t>covid19:10004</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>provincial</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1560,12 +1560,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>covid19:10006</t>
+          <t>covid19:10005</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>regional</t>
+          <t>provincial</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1606,12 +1606,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>covid19:10007</t>
+          <t>covid19:10006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>regional</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1652,12 +1652,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>covid19:10008</t>
+          <t>covid19:10007</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>national</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1698,26 +1698,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>covid19:10009</t>
+          <t>covid19:10008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>care setting</t>
+          <t>international</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>type of environment where the care of patients is conducted</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>covid19:10001</t>
+          <t>covid19:10002</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1748,22 +1744,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>covid19:10010</t>
+          <t>covid19:10009</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>home care</t>
+          <t>care setting</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>type of environment where the care of patients is conducted</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>covid19:10009</t>
+          <t>covid19:10001</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1794,12 +1794,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>covid19:10011</t>
+          <t>covid19:10010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>transmural</t>
+          <t>home care</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1840,20 +1840,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>covid19:10012</t>
+          <t>covid19:10011</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GP care</t>
+          <t>transmural</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>general practitioner care</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1890,16 +1886,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>covid19:10013</t>
+          <t>covid19:10012</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nursing home care</t>
+          <t>GP care</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>general practitioner care</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1936,12 +1936,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>covid19:10014</t>
+          <t>covid19:10013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>hospital care</t>
+          <t>nursing home care</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1982,12 +1982,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>covid19:10015</t>
+          <t>covid19:10014</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>informal care</t>
+          <t>hospital care</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2028,12 +2028,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>covid19:10016</t>
+          <t>covid19:10015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>residential care</t>
+          <t>informal care</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2074,12 +2074,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>covid19:10016</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>temporal scope</t>
+          <t>residential care</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2087,7 +2087,11 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>covid19:10009</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2116,12 +2120,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>covid19:10018</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>health care phase</t>
+          <t>temporal scope</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2129,11 +2133,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>covid19:10017</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2162,12 +2162,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>covid19:10019</t>
+          <t>covid19:10018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>acute care</t>
+          <t>health care phase</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2177,7 +2177,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>covid19:10018, covid19:10230</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2208,12 +2208,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>covid19:10020</t>
+          <t>covid19:10019</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>post-covid care</t>
+          <t>acute care</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2223,7 +2223,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>covid19:10018, covid19:10230</t>
+          <t>covid19:10018, gen:10002</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2254,38 +2254,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>covid19:10021</t>
+          <t>covid19:10020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>palliative care</t>
+          <t>post-covid care</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Palliative care is treatment of the discomfort, symptoms, and stress of serious illness. It provides relief from distressing symptoms including pain, shortness of breath, constipation, nausea, loss of appetite, problems with sleep. It can also help you deal with the side effects of the medical treatments you're receiving, care at the end of life, always includes palliative care. But you may receive palliative care at any stage of an illness. The goal is to make you comfortable and improve your quality of life.</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>covid19:10018, covid19:10230</t>
+          <t>covid19:10018, gen:10002</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231,http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C101516</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2312,36 +2300,36 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>covid19:10022</t>
+          <t>covid19:10021</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rehabilitation</t>
+          <t>palliative care</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Restoration of the ability to function in a normal or near normal manner following disease, illness, or injury.</t>
+          <t>Palliative care is treatment of the discomfort, symptoms, and stress of serious illness. It provides relief from distressing symptoms including pain, shortness of breath, constipation, nausea, loss of appetite, problems with sleep. It can also help you deal with the side effects of the medical treatments you're receiving, care at the end of life, always includes palliative care. But you may receive palliative care at any stage of an illness. The goal is to make you comfortable and improve your quality of life.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
+          <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>covid19:10018, covid19:10230</t>
+          <t>covid19:10018, gen:10002</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
+          <t>https://bioportal.bioontology.org/ontologies/MEDLINEPLUS?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDLINEPLUS%2FC0030231,http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C101516</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2370,26 +2358,38 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>covid19:10023</t>
+          <t>covid19:10022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>surveillance phase</t>
+          <t>rehabilitation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Restoration of the ability to function in a normal or near normal manner following disease, illness, or injury.</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>covid19:10018, gen:10002</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15315&amp;key=1767529850&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2416,12 +2416,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>covid19:10024</t>
+          <t>covid19:10023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>short-term impact on emotional wellbeing</t>
+          <t>surveillance phase</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>covid19:10023</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2462,12 +2462,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>covid19:10025</t>
+          <t>covid19:10024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>long-term impact on emotional wellbeing</t>
+          <t>short-term impact on emotional wellbeing</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2508,38 +2508,26 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>covid19:10026</t>
+          <t>covid19:10025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>long COVID</t>
+          <t>long-term impact on emotional wellbeing</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>A Coronavirus infectious disease that is characterized by long-term persistent and fluctuating symptoms, in individuals with COVID-19, persisting beyond three to four weeks, including the loss of the ability to smell and taste, breathlessness, fatigue, difficulty in breathing, difficulty concentrating, memory loss, confusion, headache, heart palpitations, chest pain, pain with deep breaths, dizziness, and tachycardia.</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>covid19:10023</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2566,26 +2554,38 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>covid19:10027</t>
+          <t>covid19:10026</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>regulation phase</t>
+          <t>long COVID</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A Coronavirus infectious disease that is characterized by long-term persistent and fluctuating symptoms, in individuals with COVID-19, persisting beyond three to four weeks, including the loss of the ability to smell and taste, breathlessness, fatigue, difficulty in breathing, difficulty concentrating, memory loss, confusion, headache, heart palpitations, chest pain, pain with deep breaths, dizziness, and tachycardia.</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>covid19:10023</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/DOID_0080848</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -2612,12 +2612,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>covid19:10028</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lockdown phase</t>
+          <t>regulation phase</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2627,7 +2627,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>covid19:10027</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2658,12 +2658,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>covid19:10029</t>
+          <t>covid19:10028</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>prevention phase</t>
+          <t>lockdown phase</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2704,12 +2704,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>covid19:10030</t>
+          <t>covid19:10029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>social distancing phase</t>
+          <t>prevention phase</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2750,12 +2750,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>covid19:10031</t>
+          <t>covid19:10030</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>restricted shopping phase</t>
+          <t>social distancing phase</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2796,12 +2796,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>covid19:10032</t>
+          <t>covid19:10031</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>curefew</t>
+          <t>restricted shopping phase</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2842,12 +2842,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>covid19:10033</t>
+          <t>covid19:10032</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>COVID-19 phase</t>
+          <t>curefew</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2857,7 +2857,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>covid19:10017</t>
+          <t>covid19:10027</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2888,12 +2888,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>covid19:10034</t>
+          <t>covid19:10033</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>first wave</t>
+          <t>COVID-19 phase</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2903,7 +2903,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>covid19:10033</t>
+          <t>gen:10003</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -2934,12 +2934,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>covid19:10035</t>
+          <t>covid19:10034</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>second wave</t>
+          <t>first wave</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2980,12 +2980,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>covid19:10036</t>
+          <t>covid19:10035</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>third wave</t>
+          <t>second wave</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -3026,12 +3026,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10036</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>population group</t>
+          <t>third wave</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -3039,7 +3039,11 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>covid19:10033</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -3068,12 +3072,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>covid19:10038</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>people by age</t>
+          <t>population group</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -3081,11 +3085,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>covid19:10037</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -3114,26 +3114,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>covid19:10039</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>prematures</t>
+          <t>people by age</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>less then 37 weeks gestational outcome</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>covid19:10038</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3164,19 +3160,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>covid19:10040</t>
+          <t>covid19:10039</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>newborns</t>
+          <t>prematures</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>37 or more weeks gestational outcome</t>
+          <t>less then 37 weeks gestational outcome</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3214,19 +3210,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>covid19:10041</t>
+          <t>covid19:10040</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>neonates</t>
+          <t>newborns</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0-3 months</t>
+          <t>37 or more weeks gestational outcome</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3264,19 +3260,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>covid19:10042</t>
+          <t>covid19:10041</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>babies</t>
+          <t>neonates</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3-12 months</t>
+          <t>0-3 months</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3314,19 +3310,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>covid19:10043</t>
+          <t>covid19:10042</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>small children</t>
+          <t>babies</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1-4 years</t>
+          <t>3-12 months</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3364,19 +3360,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>covid19:10044</t>
+          <t>covid19:10043</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>primary school children</t>
+          <t>small children</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4-12 years</t>
+          <t>1-4 years</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3414,19 +3410,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>covid19:10045</t>
+          <t>covid19:10044</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>teenager</t>
+          <t>primary school children</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>12-18 years</t>
+          <t>4-12 years</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3464,19 +3460,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>covid19:10046</t>
+          <t>covid19:10045</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>young people</t>
+          <t>teenager</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>16-27 years</t>
+          <t>12-18 years</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -3514,19 +3510,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>covid19:10047</t>
+          <t>covid19:10046</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>young adults</t>
+          <t>young people</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>18-21 years</t>
+          <t>16-27 years</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3564,19 +3560,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>covid19:10048</t>
+          <t>covid19:10047</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>young adults</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>18-65 years</t>
+          <t>18-21 years</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3614,19 +3610,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>covid19:10049</t>
+          <t>covid19:10048</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>elderly</t>
+          <t>adults</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>65-80 years</t>
+          <t>18-65 years</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -3637,11 +3633,7 @@
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C16268&amp;key=162882687&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -3668,19 +3660,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>covid19:10050</t>
+          <t>covid19:10049</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>very elderly</t>
+          <t>elderly</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>more than 80 years</t>
+          <t>65-80 years</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -3691,7 +3683,11 @@
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C16268&amp;key=162882687&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -3718,27 +3714,26 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>covid19:10051</t>
+          <t>covid19:10050</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>people by sex</t>
+          <t>very elderly</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">grouping specifying the determination of an infant's sex shortly after birth
-</t>
+          <t>more than 80 years</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10038</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3769,22 +3764,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>covid19:10052</t>
+          <t>covid19:10051</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>people by sex</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grouping specifying the determination of an infant's sex shortly after birth
+</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>covid19:10051</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3815,12 +3815,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>covid19:10053</t>
+          <t>covid19:10052</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3861,12 +3861,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>covid19:10054</t>
+          <t>covid19:10053</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>intersex</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3907,27 +3907,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>covid19:10055</t>
+          <t>covid19:10054</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>people by gender</t>
+          <t>intersex</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">grouping on basis of person's sense of self as a member of a particular gender
-</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10051</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3958,22 +3953,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>covid19:10056</t>
+          <t>covid19:10055</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>people by gender</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grouping on basis of person's sense of self as a member of a particular gender
+</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>covid19:10055</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -4004,12 +4004,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>covid19:10057</t>
+          <t>covid19:10056</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>man</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -4050,12 +4050,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>covid19:10058</t>
+          <t>covid19:10057</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>non-binary</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -4096,12 +4096,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>covid19:10059</t>
+          <t>covid19:10058</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>non-binary</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -4142,12 +4142,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>covid19:10060</t>
+          <t>covid19:10059</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>people by education</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10055</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -4188,12 +4188,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>covid19:10061</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>preschooler</t>
+          <t>people by education</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -4203,7 +4203,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>covid19:10060</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -4234,12 +4234,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>covid19:10062</t>
+          <t>covid19:10061</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>daycare child</t>
+          <t>preschooler</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -4280,12 +4280,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>covid19:10063</t>
+          <t>covid19:10062</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>primary school student</t>
+          <t>daycare child</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -4326,12 +4326,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>covid19:10064</t>
+          <t>covid19:10063</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>secondary school student</t>
+          <t>primary school student</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -4372,12 +4372,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>covid19:10065</t>
+          <t>covid19:10064</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>vocational school student</t>
+          <t>secondary school student</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -4418,12 +4418,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>covid19:10066</t>
+          <t>covid19:10065</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>university student</t>
+          <t>vocational school student</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -4464,12 +4464,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>covid19:10067</t>
+          <t>covid19:10066</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>people by employment</t>
+          <t>university student</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -4479,7 +4479,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10060</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -4510,12 +4510,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>covid19:10068</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>individual with low socio-economic status</t>
+          <t>people by employment</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4525,7 +4525,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>covid19:10067</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -4556,12 +4556,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>covid19:10069</t>
+          <t>covid19:10068</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>individual with high socio-economic status</t>
+          <t>individual with low socio-economic status</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4602,12 +4602,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>covid19:10070</t>
+          <t>covid19:10069</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>employed person</t>
+          <t>individual with high socio-economic status</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4648,12 +4648,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>covid19:10071</t>
+          <t>covid19:10070</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>self-employed individual</t>
+          <t>employed person</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -4694,12 +4694,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>covid19:10072</t>
+          <t>covid19:10071</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>employee with a temporary contract</t>
+          <t>self-employed individual</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4740,12 +4740,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>covid19:10073</t>
+          <t>covid19:10072</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>informal care provider</t>
+          <t>employee with a temporary contract</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4786,12 +4786,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>covid19:10074</t>
+          <t>covid19:10073</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>professional care provider</t>
+          <t>informal care provider</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4832,12 +4832,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>covid19:10075</t>
+          <t>covid19:10074</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>individual living in a care home</t>
+          <t>professional care provider</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4878,12 +4878,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>covid19:10076</t>
+          <t>covid19:10075</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tourist</t>
+          <t>individual living in a care home</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4924,12 +4924,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>covid19:10077</t>
+          <t>covid19:10076</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>people with migration background</t>
+          <t>tourist</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10067</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -4970,12 +4970,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>covid19:10078</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>individual with a migration background</t>
+          <t>people with migration background</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4985,7 +4985,7 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>covid19:10077</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -5016,12 +5016,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>covid19:10079</t>
+          <t>covid19:10078</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>statushouder</t>
+          <t>individual with a migration background</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -5062,12 +5062,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>covid19:10080</t>
+          <t>covid19:10079</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>asylum seeker</t>
+          <t>statushouder</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -5108,12 +5108,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>covid19:10081</t>
+          <t>covid19:10080</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>undocumented migrant</t>
+          <t>asylum seeker</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -5154,12 +5154,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>covid19:10082</t>
+          <t>covid19:10081</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>season labour migrant</t>
+          <t>undocumented migrant</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -5200,12 +5200,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>covid19:10083</t>
+          <t>covid19:10082</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>people by COVID-19 risk factors</t>
+          <t>season labour migrant</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -5215,7 +5215,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10077</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -5246,12 +5246,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>covid19:10084</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>individual with a chronic illness</t>
+          <t>people by COVID-19 risk factors</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5261,7 +5261,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>covid19:10083</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -5292,12 +5292,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>covid19:10085</t>
+          <t>covid19:10084</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>individual with underlying disease(s)</t>
+          <t>individual with a chronic illness</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -5338,12 +5338,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>covid19:10086</t>
+          <t>covid19:10085</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>patient with (covid-19 associated) thrombosis</t>
+          <t>individual with underlying disease(s)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -5384,12 +5384,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>covid19:10087</t>
+          <t>covid19:10086</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>individual with obesity</t>
+          <t>patient with (covid-19 associated) thrombosis</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -5430,12 +5430,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>covid19:10088</t>
+          <t>covid19:10087</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>patient using anticoagulants</t>
+          <t>individual with obesity</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -5476,12 +5476,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>covid19:10089</t>
+          <t>covid19:10088</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>surgical patient</t>
+          <t>patient using anticoagulants</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5522,12 +5522,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>covid19:10090</t>
+          <t>covid19:10089</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>blood donor</t>
+          <t>surgical patient</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -5568,12 +5568,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>covid19:10091</t>
+          <t>covid19:10090</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>COVID-19 patient grouping</t>
+          <t>blood donor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -5583,7 +5583,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10083</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -5614,12 +5614,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>covid19:10092</t>
+          <t>covid19:10091</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>hospitalised covid-19 patient</t>
+          <t>COVID-19 patient grouping</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -5629,7 +5629,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>covid19:10091</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -5660,12 +5660,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>covid19:10093</t>
+          <t>covid19:10092</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>non-hospitalised covid-19 patient</t>
+          <t>hospitalised covid-19 patient</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -5706,12 +5706,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>covid19:10094</t>
+          <t>covid19:10093</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>long-covid-19 patient</t>
+          <t>non-hospitalised covid-19 patient</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -5752,12 +5752,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>covid19:10095</t>
+          <t>covid19:10094</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Individual after first infection</t>
+          <t>long-covid-19 patient</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -5798,12 +5798,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>covid19:10096</t>
+          <t>covid19:10095</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>individual  with sars-cov-2 vaccination</t>
+          <t>Individual after first infection</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>covid19:10220</t>
+          <t>covid19:10091</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -5844,12 +5844,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>covid19:10097</t>
+          <t>covid19:10096</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>individual refusing sars-cov-2 vaccination</t>
+          <t>individual  with sars-cov-2 vaccination</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5890,12 +5890,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>covid19:10098</t>
+          <t>covid19:10097</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>target group of policy interventions</t>
+          <t>individual refusing sars-cov-2 vaccination</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5905,7 +5905,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>covid19:10220</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -5936,12 +5936,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>covid19:10099</t>
+          <t>covid19:10098</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>homeless</t>
+          <t>target group of policy interventions</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -5951,7 +5951,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>covid19:10098</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -5982,12 +5982,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>covid19:10100</t>
+          <t>covid19:10099</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>victim of domestic violence</t>
+          <t>homeless</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -6028,12 +6028,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>covid19:10101</t>
+          <t>covid19:10100</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>illiterate people</t>
+          <t>victim of domestic violence</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -6074,12 +6074,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>covid19:10102</t>
+          <t>covid19:10101</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>physical disabled</t>
+          <t>illiterate people</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -6120,12 +6120,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>covid19:10103</t>
+          <t>covid19:10102</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>intellectual disabled</t>
+          <t>physical disabled</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -6166,12 +6166,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>covid19:10104</t>
+          <t>covid19:10103</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>mental health patient</t>
+          <t>intellectual disabled</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -6212,12 +6212,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>covid19:10105</t>
+          <t>covid19:10104</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>policy-maker</t>
+          <t>mental health patient</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -6258,12 +6258,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>covid19:10106</t>
+          <t>covid19:10105</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>single household person</t>
+          <t>policy-maker</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -6304,12 +6304,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>covid19:10106</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>single household person</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -6317,7 +6317,11 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>covid19:10098</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -6346,28 +6350,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>health data</t>
+          <t>data</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Data that refer to a person's state of physical, mental and social well-being</t>
-        </is>
-      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>covid19:10107</t>
-        </is>
-      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -6396,38 +6392,30 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>covid19:10109</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>health record data</t>
+          <t>health data</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Data that contains patient health information generated by one or more encounters in any care delivery setting. Included in this information are patient demographics, progress notes, problems, medications, vital signs, past medical history, immunizations, laboratory data and radiology reports.</t>
+          <t>Data that refer to a person's state of physical, mental and social well-being</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>covid19:10108</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -6454,25 +6442,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>covid19:10110</t>
+          <t>covid19:10109</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>medical history data</t>
+          <t>health record data</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A collection of information about a person's health. It may include information about allergies, illnesses and surgeries, and dates and results of physical exams, tests, screenings, and immunizations. It may also include information about medicines taken and about diet and exercise</t>
+          <t>Data that contains patient health information generated by one or more encounters in any care delivery setting. Included in this information are patient demographics, progress notes, problems, medications, vital signs, past medical history, immunizations, laboratory data and radiology reports.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
+          <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6483,7 +6471,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
+          <t>http://purl.obolibrary.org/obo/ERO_0001177</t>
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
@@ -6512,25 +6500,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>covid19:10111</t>
+          <t>covid19:10110</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">diagnostic data </t>
+          <t>medical history data</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>The representation of a conclusion of a diagnostic process.</t>
+          <t>A collection of information about a person's health. It may include information about allergies, illnesses and surgeries, and dates and results of physical exams, tests, screenings, and immunizations. It may also include information about medicines taken and about diet and exercise</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+          <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6541,7 +6529,7 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+          <t>http://doe-generated-ontology.com/OntoAD#C0262926</t>
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
@@ -6570,26 +6558,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>covid19:10112</t>
+          <t>covid19:10111</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>physiological data</t>
+          <t xml:space="preserve">diagnostic data </t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Data related to physiological recording or monitoring.</t>
+          <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
-</t>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6600,8 +6587,7 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
-</t>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
@@ -6630,25 +6616,26 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>covid19:10113</t>
+          <t>covid19:10112</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>laboratory data</t>
+          <t>physiological data</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A representation of a quality of a specimen that is the output of a laboratory test and that can support an inference to an assertion about some quality of the patient.</t>
+          <t>Data related to physiological recording or monitoring.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
+</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6659,7 +6646,8 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/ERO_0001186
+</t>
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
@@ -6688,26 +6676,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>covid19:10114</t>
+          <t>covid19:10113</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>treatment data</t>
+          <t>laboratory data</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate a disorder, the signs and symptoms of a disorder, or a pathological process</t>
+          <t>A representation of a quality of a specimen that is the output of a laboratory test and that can support an inference to an assertion about some quality of the patient.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
-</t>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6718,8 +6705,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
-</t>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000018 </t>
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
@@ -6748,29 +6734,26 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>covid19:10115</t>
+          <t>covid19:10114</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>medication data</t>
+          <t>treatment data</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>pharmaceutical</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Any substance introduced into a living organism with therapeutic or diagnostic purpose.</t>
+          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate a disorder, the signs and symptoms of a disorder, or a pathological process</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6781,7 +6764,8 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
@@ -6810,25 +6794,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>covid19:10116</t>
+          <t>covid19:10115</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>molecular data</t>
+          <t>medication data</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>pharmaceutical</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Data that is about molecules or phenomena occurring at a molecular level (e.g. processes such as molecular interactions, chemical reactions, gene expression etc).</t>
+          <t>Any substance introduced into a living organism with therapeutic or diagnostic purpose.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
+          <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6839,7 +6827,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
+          <t>http://purl.obolibrary.org/obo/CHEBI_52217</t>
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
@@ -6868,26 +6856,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>covid19:10117</t>
+          <t>covid19:10116</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>genetic data</t>
+          <t>molecular data</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Data is data pertaining to genetics.</t>
+          <t>Data that is about molecules or phenomena occurring at a molecular level (e.g. processes such as molecular interactions, chemical reactions, gene expression etc).</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-http://semanticscience.org/resource/SIO_010028</t>
+          <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6898,8 +6885,7 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ERO_0100359,
-http://semanticscience.org/resource/SIO_010028</t>
+          <t>http://purl.obolibrary.org/obo/ERO_0100354</t>
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
@@ -6928,32 +6914,38 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>covid19:10118</t>
+          <t>covid19:10117</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>diagnostic imaging</t>
+          <t>genetic data</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Information obtained via any method that uses a visual display of structural or functional patterns of organs or tissues for diagnostic evaluation.</t>
+          <t>Data is data pertaining to genetics.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+http://semanticscience.org/resource/SIO_010028</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>covid19:10108</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/HL7/C001192</t>
+          <t>http://purl.obolibrary.org/obo/ERO_0100359,
+http://semanticscience.org/resource/SIO_010028</t>
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
@@ -6982,40 +6974,32 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>covid19:10119</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>magnetic resonance imaging</t>
+          <t>diagnostic imaging</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Imaging that uses radiofrequency waves and a strong magnetic field rather than x-rays to provide detailed pictures of internal organs and tissues. The technique is valuable for the diagnosis of many pathologic conditions, including cancer, heart and vascular disease, stroke, and joint and musculoskeletal disorders.</t>
+          <t>Information obtained via any method that uses a visual display of structural or functional patterns of organs or tissues for diagnostic evaluation.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>covid19:10118</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
+          <t>http://purl.bioontology.org/ontology/HL7/C001192</t>
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
@@ -7044,29 +7028,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>covid19:10120</t>
+          <t>covid19:10119</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>X-ray imaging</t>
+          <t>magnetic resonance imaging</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>X-ray</t>
+          <t>MRI</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>An image of the structure penetrated by the radiation using the emission of x-rays</t>
+          <t>Imaging that uses radiofrequency waves and a strong magnetic field rather than x-rays to provide detailed pictures of internal organs and tissues. The technique is valuable for the diagnosis of many pathologic conditions, including cancer, heart and vascular disease, stroke, and joint and musculoskeletal disorders.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7077,7 +7061,7 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C16809&amp;key=1826977516&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
@@ -7106,25 +7090,29 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>covid19:10121</t>
+          <t>covid19:10120</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ultrasound</t>
+          <t>X-ray imaging</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>X-ray</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>High frequency sound, generally with a frequency greater than 20,000 Hz.</t>
+          <t>An image of the structure penetrated by the radiation using the emission of x-rays</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7135,7 +7123,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C38101&amp;key=1939144925&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -7164,29 +7152,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>covid19:10122</t>
+          <t>covid19:10121</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">computed tomography </t>
+          <t>ultrasound</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>A method of examining structures within the body by scanning them with X rays and using a computer to construct a series of cross-sectional scans along a single axis.</t>
+          <t>High frequency sound, generally with a frequency greater than 20,000 Hz.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7197,7 +7181,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C64384&amp;key=168018700&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
@@ -7226,25 +7210,29 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>covid19:10123</t>
+          <t>covid19:10122</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>infrared thermography</t>
+          <t xml:space="preserve">computed tomography </t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>In medicine, a procedure in which an infrared camera (one that senses heat) is used to measure temperature differences on the surface of the body. The camera makes pictures that show areas of possible abnormal cell growth because abnormal tissue gives off more heat than normal tissue does.</t>
+          <t>A method of examining structures within the body by scanning them with X rays and using a computer to construct a series of cross-sectional scans along a single axis.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7255,7 +7243,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C17204&amp;key=1418861988&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
@@ -7284,30 +7272,38 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>covid19:10124</t>
+          <t>covid19:10123</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>social data</t>
+          <t>infrared thermography</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Data that refer to human society and its members</t>
+          <t>In medicine, a procedure in which an infrared camera (one that senses heat) is used to measure temperature differences on the surface of the body. The camera makes pictures that show areas of possible abnormal cell growth because abnormal tissue gives off more heat than normal tissue does.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>covid19:10118</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C62663</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -7334,34 +7330,30 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>covid19:10125</t>
+          <t>covid19:10124</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>survey data</t>
+          <t>social data</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>A data set that contains the outcome of a survey.</t>
+          <t>Data that refer to human society and its members</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OMIABIS_0000060</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
@@ -7388,30 +7380,34 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>covid19:10126</t>
+          <t>covid19:10125</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>COVID policy and prevention measures</t>
+          <t>survey data</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>A data set that contains the outcome of a survey.</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>covid19:10221</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C15843</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
+          <t>gen:10005</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OMIABIS_0000060</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -7438,29 +7434,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>covid19:10127</t>
+          <t>covid19:10126</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>environmental data</t>
+          <t>COVID policy and prevention measures</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Data that refer to the external elements and conditions which surround, influence, and affect the life and development of an organism or population.</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
+          <t>covid19:10221</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://bioportal.bioontology.org/ontologies/NCIT?p=classes&amp;conceptid=http%3A%2F%2Fncicb.nci.nih.gov%2Fxml%2Fowl%2FEVS%2FThesaurus.owl%23C15843</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
@@ -7488,26 +7484,26 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>covid19:10128</t>
+          <t>covid19:10127</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>geographical data</t>
+          <t>environmental data</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Data which refer to a place on the Earth, by its name or by its geographical location</t>
+          <t>Data that refer to the external elements and conditions which surround, influence, and affect the life and development of an organism or population.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
@@ -7538,30 +7534,30 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>covid19:10129</t>
+          <t>covid19:10128</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>aerial photography</t>
+          <t>geographical data</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Data which refer to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>covid19:10128</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>http://purl.jp/bio/4/id/200906051703202632</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -7588,27 +7584,19 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>covid19:10130</t>
+          <t>covid19:10129</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>aerial photography</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>A usually 2-dimensional diagrammatic representation of an object or area.</t>
-        </is>
-      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
           <t>covid19:10128</t>
@@ -7617,7 +7605,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
+          <t>http://purl.jp/bio/4/id/200906051703202632</t>
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
@@ -7646,35 +7634,39 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>covid19:10131</t>
+          <t>covid19:10130</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GIS data</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Data produced by a system designed to capture, store, update, manipulate, analyze and display data that are linked to location.</t>
+          <t>A usually 2-dimensional diagrammatic representation of an object or area.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
           <t>covid19:10128</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C15754&amp;key=n1963476518&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C43433&amp;key=n1963439227&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
@@ -7700,31 +7692,35 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>covid19:10132</t>
+          <t>covid19:10131</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>audiovisual data</t>
+          <t>GIS data</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Information that is communicated through recordings of sight and/or sound</t>
+          <t>Data produced by a system designed to capture, store, update, manipulate, analyze and display data that are linked to location.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>covid19:10128</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C15754&amp;key=n1963476518&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
@@ -7750,38 +7746,30 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>covid19:10133</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>picture</t>
+          <t>audiovisual data</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>A visual representation of an object, scene, person or abstraction.</t>
+          <t>Information that is communicated through recordings of sight and/or sound</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>covid19:10132</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
@@ -7808,25 +7796,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>covid19:10134</t>
+          <t>covid19:10133</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>video recording</t>
+          <t>picture</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>The storing or preserving of video images to be displayed later.</t>
+          <t>A visual representation of an object, scene, person or abstraction.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7837,7 +7825,7 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.03e&amp;ns=ncit&amp;code=C54273&amp;key=1753678631&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="K153" t="inlineStr"/>
@@ -7866,30 +7854,38 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>covid19:10135</t>
+          <t>covid19:10134</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>qualitative data</t>
+          <t>video recording</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Information that cannot be represented through numbers and is instead expressed through descriptive means</t>
+          <t>The storing or preserving of video images to be displayed later.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>covid19:10132</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C91063</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -7916,34 +7912,30 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>covid19:10136</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>field note</t>
+          <t>qualitative data</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>The text of notes taken in the field about an event.</t>
+          <t>Information that cannot be represented through numbers and is instead expressed through descriptive means</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>covid19:10135</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>http://rs.tdwg.org/dwc/terms/fieldNotes</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
@@ -7970,17 +7962,21 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>covid19:10137</t>
+          <t>covid19:10136</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>focus group discussion</t>
+          <t>field note</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>The text of notes taken in the field about an event.</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
@@ -7989,13 +7985,12 @@
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-http://ontologies.dbmi.pitt.edu/edda/StudyDesigns.owl#focus_group</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>http://rs.tdwg.org/dwc/terms/fieldNotes</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
@@ -8021,12 +8016,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>covid19:10138</t>
+          <t>covid19:10137</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>social media data</t>
+          <t>focus group discussion</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -8036,14 +8031,15 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>covid19:10124</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D061108</t>
+          <t xml:space="preserve">
+http://ontologies.dbmi.pitt.edu/edda/StudyDesigns.owl#focus_group</t>
         </is>
       </c>
       <c r="L157" t="inlineStr"/>
@@ -8071,35 +8067,31 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>covid19:10139</t>
+          <t>covid19:10138</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>diaries</t>
+          <t>social media data</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Work consisting of records, usually private, of writers' experiences, observations, feelings, attitudes, etc. They may also be works marked in calendar order in which to note appointments and the like.</t>
-        </is>
-      </c>
+      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>covid19:10135</t>
+          <t>covid19:10124</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D019497</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D061108</t>
+        </is>
+      </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
@@ -8125,17 +8117,21 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>covid19:10140</t>
+          <t>covid19:10139</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>interview data</t>
+          <t>diaries</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Work consisting of records, usually private, of writers' experiences, observations, feelings, attitudes, etc. They may also be works marked in calendar order in which to note appointments and the like.</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
@@ -8144,12 +8140,12 @@
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/FBcv_0000205</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D019497</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
@@ -8175,31 +8171,31 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>covid19:10141</t>
+          <t>covid19:10140</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>other type of data</t>
+          <t>interview data</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Other forms of data that are not easily categorized or defined</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>covid19:10135</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/FBcv_0000205</t>
+        </is>
+      </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
@@ -8225,38 +8221,30 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>covid19:10142</t>
+          <t>gen:10006</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>other type of data</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>A plan detailing how a study will be performed in order to represent the phenomenon under examination, to answer the research questions that have been asked, and defining the methods of data analysis. Study design is driven by research hypothesis being posed, study subject/population/sample available, logistics/resources: technology, support, networking, collaborative support, etc.</t>
+          <t>Other forms of data that are not easily categorized or defined</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>covid19:10141</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
@@ -8283,26 +8271,38 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>covid19:10143</t>
+          <t>covid19:10142</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>prototype description</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>A plan detailing how a study will be performed in order to represent the phenomenon under examination, to answer the research questions that have been asked, and defining the methods of data analysis. Study design is driven by research hypothesis being posed, study subject/population/sample available, logistics/resources: technology, support, networking, collaborative support, etc.</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>covid19:10141</t>
+          <t>gen:10006</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C15320&amp;key=1850760702&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
@@ -8329,12 +8329,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>covid19:10144</t>
+          <t>covid19:10143</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>biomaterial</t>
+          <t>prototype description</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -8342,7 +8342,11 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>gen:10006</t>
+        </is>
+      </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -8371,38 +8375,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10007</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>biomaterial</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs.</t>
-        </is>
-      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>covid19:10144</t>
-        </is>
-      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
@@ -8429,36 +8417,36 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>covid19:10146</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>The bipedal primate mammal, Homo sapiens; belonging to man or mankind; pertaining to man or to the race of man; use of man as experimental subject or unit of analysis in research.</t>
+          <t>A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10007</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
@@ -8487,36 +8475,36 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>covid19:10147</t>
+          <t>covid19:10146</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>mink</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Carnivores of genus Mustela of the family MUSTELIDAE. The European mink, which has white upper and lower lips, was widely trapped for commercial purposes and is classified as endangered. The American mink, lacking a white upper lip, is farmed commercially.</t>
+          <t>The bipedal primate mammal, Homo sapiens; belonging to man or mankind; pertaining to man or to the race of man; use of man as experimental subject or unit of analysis in research.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C14225&amp;key=1926508693&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
@@ -8545,36 +8533,36 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>covid19:10148</t>
+          <t>covid19:10147</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>mink</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Any of numerous species of small rodents belonging to the genus Mus and various related genera of the family Muridae.</t>
+          <t>Carnivores of genus Mustela of the family MUSTELIDAE. The European mink, which has white upper and lower lips, was widely trapped for commercial purposes and is classified as endangered. The American mink, lacking a white upper lip, is farmed commercially.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
+          <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
+          <t>http://purl.bioontology.org/ontology/MESH/D008907</t>
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
@@ -8603,36 +8591,36 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>covid19:10149</t>
+          <t>covid19:10148</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>rat</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Any of numerous species of rodents belonging to the genus Rattus and/or various related genera of the family Muridae.</t>
+          <t>Any of numerous species of small rodents belonging to the genus Mus and various related genera of the family Muridae.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14238</t>
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
@@ -8661,36 +8649,36 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>covid19:10150</t>
+          <t>covid19:10149</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>virus</t>
+          <t>rat</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
+          <t>Any of numerous species of rodents belonging to the genus Rattus and/or various related genera of the family Muridae.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C160998</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -8719,36 +8707,36 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>covid19:10151</t>
+          <t>covid19:10150</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>bacteria</t>
+          <t>virus</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
         </is>
       </c>
       <c r="K170" t="inlineStr"/>
@@ -8777,36 +8765,36 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>covid19:10152</t>
+          <t>covid19:10151</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>parasite</t>
+          <t>bacteria</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>covid19:10145</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
@@ -8835,36 +8823,36 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>covid19:10152</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>substance</t>
+          <t>parasite</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
+          <t>Any organism that has a close, symbiotic relationship with a separate, host organism.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>covid19:10144</t>
+          <t>gen:10008</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
+          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
@@ -8893,36 +8881,36 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>covid19:10154</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>substance</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>A liquid tissue; its major function is to transport oxygen throughout the body. It also supplies the tissues with nutrients, removes waste products, and contains various components of the immune system defending the body against infection. Several hormones also travel in the blood.</t>
+          <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10007</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="K173" t="inlineStr"/>
@@ -8951,36 +8939,36 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>covid19:10155</t>
+          <t>covid19:10154</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>breath</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>The air that is inhaled and exhaled during respiration.</t>
+          <t>A liquid tissue; its major function is to transport oxygen throughout the body. It also supplies the tissues with nutrients, removes waste products, and contains various components of the immune system defending the body against infection. Several hormones also travel in the blood.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12434</t>
         </is>
       </c>
       <c r="K174" t="inlineStr"/>
@@ -9009,38 +8997,36 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>covid19:10156</t>
+          <t>covid19:10155</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">feces
-</t>
+          <t>breath</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>The material discharged from the bowel during defecation. It consists of undigested food, intestinal mucus, epithelial cells, and bacteria.</t>
+          <t>The air that is inhaled and exhaled during respiration.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234,
-http://purl.bioontology.org/ontology/SNOMEDCT/39477002</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C94552</t>
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
@@ -9069,37 +9055,38 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>covid19:10157</t>
+          <t>covid19:10156</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>plasma</t>
+          <t xml:space="preserve">feces
+</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Plasma is the fluid (noncellular) portion of the circulating blood, as distinguished from the serum that is the fluid portion of the blood obtained by removal of the fibrin clot and blood cells after coagulation.</t>
+          <t>The material discharged from the bowel during defecation. It consists of undigested food, intestinal mucus, epithelial cells, and bacteria.</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356,
-http://purl.bioontology.org/ontology/SNOMEDCT/50863008</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13234,
+http://purl.bioontology.org/ontology/SNOMEDCT/39477002</t>
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
@@ -9128,37 +9115,37 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>covid19:10158</t>
+          <t>covid19:10157</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>saliva</t>
+          <t>plasma</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>The watery fluid in the mouth made by the salivary glands. Saliva moistens food to help digestion and it helps protect the mouth against infections.</t>
+          <t>Plasma is the fluid (noncellular) portion of the circulating blood, as distinguished from the serum that is the fluid portion of the blood obtained by removal of the fibrin clot and blood cells after coagulation.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275,
-http://purl.bioontology.org/ontology/SNOMEDCT/256897009 </t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13356,
+http://purl.bioontology.org/ontology/SNOMEDCT/50863008</t>
         </is>
       </c>
       <c r="K177" t="inlineStr"/>
@@ -9187,36 +9174,37 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>covid19:10159</t>
+          <t>covid19:10158</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>semen</t>
+          <t>saliva</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>The thick, whitish secretion of the male reproductive organs. It is composed of spermatozoa in their nutrient plasma, secretions from the prostate, seminal vesicles, and various other glands, epithelial cells, and minor constituents.</t>
+          <t>The watery fluid in the mouth made by the salivary glands. Saliva moistens food to help digestion and it helps protect the mouth against infections.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
+          <t xml:space="preserve">https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13275,
+http://purl.bioontology.org/ontology/SNOMEDCT/256897009 </t>
         </is>
       </c>
       <c r="K178" t="inlineStr"/>
@@ -9245,37 +9233,36 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>covid19:10160</t>
+          <t>covid19:10159</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>serum</t>
+          <t>semen</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>The clear portion of the blood that remains after the removal of the blood cells and the clotting proteins.</t>
+          <t>The thick, whitish secretion of the male reproductive organs. It is composed of spermatozoa in their nutrient plasma, secretions from the prostate, seminal vesicles, and various other glands, epithelial cells, and minor constituents.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325,
-http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13277</t>
         </is>
       </c>
       <c r="K179" t="inlineStr"/>
@@ -9304,36 +9291,37 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>covid19:10161</t>
+          <t>covid19:10160</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>sewage</t>
+          <t>serum</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Wastewater that is contaminated with feces or urine</t>
+          <t>The clear portion of the blood that remains after the removal of the blood cells and the clotting proteins.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_00002018</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ENVO_00002018,https://en.wikipedia.org/wiki/Sewage</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13325,
+http://purl.bioontology.org/ontology/SNOMEDCT/67922002</t>
         </is>
       </c>
       <c r="K180" t="inlineStr"/>
@@ -9362,36 +9350,36 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>covid19:10162</t>
+          <t>covid19:10161</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>sputum</t>
+          <t>sewage</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Material containing mucus, cellular debris, microorganisms and sometimes blood or pus. It is ejected through the mouth from the lungs, bronchi, and trachea.</t>
+          <t>Wastewater that is contaminated with feces or urine</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_00002018</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
+          <t>http://purl.obolibrary.org/obo/ENVO_00002018,https://en.wikipedia.org/wiki/Sewage</t>
         </is>
       </c>
       <c r="K181" t="inlineStr"/>
@@ -9420,36 +9408,36 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>covid19:10163</t>
+          <t>covid19:10162</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>tear</t>
+          <t>sputum</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A fluid containing oils, mucin, and proteins, which is secreted by the lacrimal gland and cleans and lubricates the eye.</t>
+          <t>Material containing mucus, cellular debris, microorganisms and sometimes blood or pus. It is ejected through the mouth from the lungs, bronchi, and trachea.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13278</t>
         </is>
       </c>
       <c r="K182" t="inlineStr"/>
@@ -9478,36 +9466,36 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>covid19:10164</t>
+          <t>covid19:10163</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>tear</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>An anatomical structure consisting of similarly specialized cells and intercellular matrix, aggregated according to genetically determined spatial relationships, performing a specific function.</t>
+          <t>A fluid containing oils, mucin, and proteins, which is secreted by the lacrimal gland and cleans and lubricates the eye.</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C33739</t>
         </is>
       </c>
       <c r="K183" t="inlineStr"/>
@@ -9536,36 +9524,36 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>covid19:10165</t>
+          <t>covid19:10164</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>urine</t>
+          <t>tissue</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>The fluid that is excreted by the kidneys. It is stored in the bladder and discharged through the urethra.</t>
+          <t>An anatomical structure consisting of similarly specialized cells and intercellular matrix, aggregated according to genetically determined spatial relationships, performing a specific function.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C12801</t>
         </is>
       </c>
       <c r="K184" t="inlineStr"/>
@@ -9594,36 +9582,36 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>covid19:10166</t>
+          <t>covid19:10165</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>peripheral blood mononuclear cell</t>
+          <t>urine</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A peripheral blood cell with a single nucleus. This category includes lymphocytes and monocytes.</t>
+          <t>The fluid that is excreted by the kidneys. It is stored in the bladder and discharged through the urethra.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C13283</t>
         </is>
       </c>
       <c r="K185" t="inlineStr"/>
@@ -9652,36 +9640,36 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>covid19:10167</t>
+          <t>covid19:10166</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>nutrition</t>
+          <t>peripheral blood mononuclear cell</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A group of materials of either plant, animal or artificial origin containing essential body nutrients that can be ingested by an organism to produce energy, stimulate growth, and maintain life.</t>
+          <t>A peripheral blood cell with a single nucleus. This category includes lymphocytes and monocytes.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C173496</t>
         </is>
       </c>
       <c r="K186" t="inlineStr"/>
@@ -9710,36 +9698,36 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>covid19:10168</t>
+          <t>covid19:10167</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>cervicovaginal secretion</t>
+          <t>nutrition</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>The watery fluid, consisting of vulvar gland, endometrium, and oviduct secretions, cervical mucus, vaginal wall plasma transudate, exfoliated cells, and bacterial and immune cell products, that hydrates and forms an antimicrobial barrier for the mucosa of the lower female genital tract.</t>
+          <t>A group of materials of either plant, animal or artificial origin containing essential body nutrients that can be ingested by an organism to produce energy, stimulate growth, and maintain life.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>covid19:10153</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28294</t>
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
@@ -9768,37 +9756,36 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>covid19:10168</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>cervicovaginal secretion</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>A part of a thing, or of several things, taken to demonstrate or to determine the character of the whole, e.g. a substance, or portion of material obtained for use in testing, examination, or study; particularly, a preparation of tissue or bodily fluid taken for examination or diagnosis.</t>
+          <t>The watery fluid, consisting of vulvar gland, endometrium, and oviduct secretions, cervical mucus, vaginal wall plasma transudate, exfoliated cells, and bacterial and immune cell products, that hydrates and forms an antimicrobial barrier for the mucosa of the lower female genital tract.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>covid19:10144</t>
+          <t>gen:10010</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157,
-http://purl.bioontology.org/ontology/SNOMEDCT/123038009</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C150892</t>
         </is>
       </c>
       <c r="K188" t="inlineStr"/>
@@ -9827,36 +9814,37 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>covid19:10170</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>cell line</t>
+          <t>specimen</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>A permanently established cell culture that will proliferate indefinitely given appropriate fresh medium and space.</t>
+          <t>A part of a thing, or of several things, taken to demonstrate or to determine the character of the whole, e.g. a substance, or portion of material obtained for use in testing, examination, or study; particularly, a preparation of tissue or bodily fluid taken for examination or diagnosis.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10007</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157,
+http://purl.bioontology.org/ontology/SNOMEDCT/123038009</t>
         </is>
       </c>
       <c r="K189" t="inlineStr"/>
@@ -9885,36 +9873,36 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>covid19:10171</t>
+          <t>covid19:10170</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>fresh specimen</t>
+          <t>cell line</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>a specimen that is output of a specimen creation process used for an investigation without storage.</t>
+          <t>A permanently established cell culture that will proliferate indefinitely given appropriate fresh medium and space.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16403</t>
         </is>
       </c>
       <c r="K190" t="inlineStr"/>
@@ -9943,36 +9931,36 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>covid19:10172</t>
+          <t>covid19:10171</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>frozen specimen</t>
+          <t>fresh specimen</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>A specimen that has been frozen in order to store it.</t>
+          <t>a specimen that is output of a specimen creation process used for an investigation without storage.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000971</t>
         </is>
       </c>
       <c r="K191" t="inlineStr"/>
@@ -10001,40 +9989,36 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>covid19:10173</t>
+          <t>covid19:10172</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasal swab </t>
+          <t>frozen specimen</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>nose specimen, nose swab</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>A method used to collect biological material from within the nasal passages. A cotton swab is inserted into the nasal opening and rotated against the anterior nasal mucosa and them withdrawn.</t>
+          <t>A specimen that has been frozen in order to store it.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0000922</t>
         </is>
       </c>
       <c r="K192" t="inlineStr"/>
@@ -10063,36 +10047,40 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>covid19:10174</t>
+          <t>covid19:10173</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>nasopharyngeal swab specimen</t>
+          <t xml:space="preserve">nasal swab </t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>nose specimen, nose swab</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>A specimen that is collected with a swab from the surface of a nasopharynx.</t>
+          <t>A method used to collect biological material from within the nasal passages. A cotton swab is inserted into the nasal opening and rotated against the anterior nasal mucosa and them withdrawn.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C132119</t>
         </is>
       </c>
       <c r="K193" t="inlineStr"/>
@@ -10121,38 +10109,36 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>covid19:10175</t>
+          <t>covid19:10174</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>oropharyngeal swab specimen</t>
+          <t>nasopharyngeal swab specimen</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>A biospecimen collected from the oropharynx by swabbing.</t>
+          <t>A specimen that is collected with a swab from the surface of a nasopharynx.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835</t>
+          <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835,
-http://purl.bioontology.org/ontology/SNOMEDCT/461911000124106,
-http://purl.bioontology.org/ontology/SNOMEDCT/258529004</t>
+          <t>http://purl.obolibrary.org/obo/IAO_0000122</t>
         </is>
       </c>
       <c r="K194" t="inlineStr"/>
@@ -10181,32 +10167,38 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>covid19:10176</t>
+          <t>covid19:10175</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>tissue specimen</t>
+          <t>oropharyngeal swab specimen</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>A biospecimen collected from the oropharynx by swabbing.</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C155835,
+http://purl.bioontology.org/ontology/SNOMEDCT/461911000124106,
+http://purl.bioontology.org/ontology/SNOMEDCT/258529004</t>
         </is>
       </c>
       <c r="K195" t="inlineStr"/>
@@ -10235,36 +10227,32 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>covid19:10177</t>
+          <t>covid19:10176</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>vaginal swab specimen</t>
+          <t>tissue specimen</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>A specimen that is collected with a swab from the surface of a vagina.</t>
-        </is>
-      </c>
+      <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/119376003</t>
         </is>
       </c>
       <c r="K196" t="inlineStr"/>
@@ -10293,36 +10281,36 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>covid19:10178</t>
+          <t>covid19:10177</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FFPE tissue specimen</t>
+          <t>vaginal swab specimen</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>A specimen that has been fixed in formalin and embedded in paraffin.</t>
+          <t>A specimen that is collected with a swab from the surface of a vagina.</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
+          <t>http://purl.obolibrary.org/obo/OBI_0002611</t>
         </is>
       </c>
       <c r="K197" t="inlineStr"/>
@@ -10351,28 +10339,36 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>covid19:10179</t>
+          <t>covid19:10178</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>glutaraldehyde fixed tissue specimen</t>
+          <t>FFPE tissue specimen</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>A specimen that has been fixed in formalin and embedded in paraffin.</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
+        </is>
+      </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>covid19:10169</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/FBbi_00000011</t>
+          <t>http://purl.obolibrary.org/obo/OBI_1200000</t>
         </is>
       </c>
       <c r="K198" t="inlineStr"/>
@@ -10401,12 +10397,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>covid19:10180</t>
+          <t>covid19:10179</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>macromolecule</t>
+          <t>glutaraldehyde fixed tissue specimen</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -10416,11 +10412,15 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>covid19:10144</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/FBbi_00000011</t>
+        </is>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
@@ -10447,38 +10447,26 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>covid19:10181</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>cDNA</t>
+          <t>macromolecule</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Single-stranded DNA that is complementary to messenger RNA or DNA that has been synthesized from messenger RNA by reverse transcriptase.</t>
-        </is>
-      </c>
+      <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
-        </is>
-      </c>
+      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>covid19:10180</t>
+          <t>gen:10007</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
@@ -10505,41 +10493,36 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>covid19:10182</t>
+          <t>covid19:10181</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DNA</t>
+          <t>cDNA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>deoxyribonucleic acid</t>
-        </is>
-      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>A long linear double-stranded polymer formed from nucleotides attached to a deoxyribose backbone and found in the nucleus of a cell; associated with the transmission of genetic information.</t>
+          <t>Single-stranded DNA that is complementary to messenger RNA or DNA that has been synthesized from messenger RNA by reverse transcriptase.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>covid19:10180</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449,
-http://purl.bioontology.org/ontology/SNOMEDCT/24851008</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C324</t>
         </is>
       </c>
       <c r="K201" t="inlineStr"/>
@@ -10568,41 +10551,41 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>covid19:10183</t>
+          <t>covid19:10182</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t>DNA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ribonucleic acid</t>
+          <t>deoxyribonucleic acid</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Single-stranded long chain of nucleotides containing ribose. It is the end product of DNA transcription by the enzyme RNA polymerase. It is essential in protein synthesis.</t>
+          <t>A long linear double-stranded polymer formed from nucleotides attached to a deoxyribose backbone and found in the nucleus of a cell; associated with the transmission of genetic information.</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>covid19:10180</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812,
-http://purl.bioontology.org/ontology/SNOMEDCT/27888000</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C449,
+http://purl.bioontology.org/ontology/SNOMEDCT/24851008</t>
         </is>
       </c>
       <c r="K202" t="inlineStr"/>
@@ -10631,37 +10614,41 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>covid19:10184</t>
+          <t>covid19:10183</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>ribonucleic acid</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>A group of complex organic macromolecules composed of one or more chains (linear polymers) of alpha-L-amino acids linked by peptide bonds and ranging in size from a few thousand to over 1 million Daltons. Proteins are fundamental genetically encoded components of living cells with specific structures and functions dictated by amino acid sequence.</t>
+          <t>Single-stranded long chain of nucleotides containing ribose. It is the end product of DNA transcription by the enzyme RNA polymerase. It is essential in protein synthesis.</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>covid19:10180</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021,
-http://purl.bioontology.org/ontology/SNOMEDCT/88878007</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C812,
+http://purl.bioontology.org/ontology/SNOMEDCT/27888000</t>
         </is>
       </c>
       <c r="K203" t="inlineStr"/>
@@ -10690,37 +10677,37 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>covid19:10185</t>
+          <t>covid19:10184</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>antibody</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>A type of protein made by B lymphocytes in response to a foreign substance (antigen). Each antibody only binds to a specific antigen, helping to destroy the antigen directly or by assisting white blood cells to destroy the antigen.</t>
+          <t>A group of complex organic macromolecules composed of one or more chains (linear polymers) of alpha-L-amino acids linked by peptide bonds and ranging in size from a few thousand to over 1 million Daltons. Proteins are fundamental genetically encoded components of living cells with specific structures and functions dictated by amino acid sequence.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>covid19:10180</t>
+          <t>gen:10011</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295,
-http://purl.bioontology.org/ontology/SNOMEDCT/68498002</t>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C17021,
+http://purl.bioontology.org/ontology/SNOMEDCT/88878007</t>
         </is>
       </c>
       <c r="K204" t="inlineStr"/>
@@ -10749,22 +10736,39 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>covid19:10186</t>
+          <t>covid19:10185</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>antibody</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>A type of protein made by B lymphocytes in response to a foreign substance (antigen). Each antibody only binds to a specific antigen, helping to destroy the antigen directly or by assisting white blood cells to destroy the antigen.</t>
+        </is>
+      </c>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>gen:10011</t>
+        </is>
+      </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C16295,
+http://purl.bioontology.org/ontology/SNOMEDCT/68498002</t>
+        </is>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr"/>
@@ -10791,12 +10795,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>covid19:10187</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>laboratory services</t>
+          <t>service</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -10804,11 +10808,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>covid19:10186</t>
-        </is>
-      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -10837,26 +10837,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>covid19:10188</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ML-1 laboratory</t>
+          <t>laboratory service</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
-        </is>
-      </c>
+      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>covid19:10187</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
@@ -10887,12 +10883,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>covid19:10189</t>
+          <t>covid19:10188</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ML-2 laboratory</t>
+          <t>ML-1 laboratory</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -10937,12 +10933,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>covid19:10190</t>
+          <t>covid19:10189</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ML-3 laboratory</t>
+          <t>ML-2 laboratory</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -10960,11 +10956,7 @@
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409600007</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr"/>
@@ -10991,25 +10983,21 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>covid19:10191</t>
+          <t>covid19:10190</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BSL-1 laboratory</t>
+          <t>ML-3 laboratory</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Biosafety level one, the lowest level, applies to work with agents that usually pose a minimal potential threat to laboratory workers and the environment and do not consistently cause disease in healthy adults.</t>
-        </is>
-      </c>
+      <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
+          <t>https://www.utwente.nl/.uc/fb9dbdab80102e9e99b00eeb5220284e61d13c337a78900/short-manual-gmo.pdf</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11020,7 +11008,7 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409603009</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409600007</t>
         </is>
       </c>
       <c r="K210" t="inlineStr"/>
@@ -11049,21 +11037,19 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>covid19:10192</t>
+          <t>covid19:10191</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BSL-2 laboratory</t>
+          <t>BSL-1 laboratory</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Biosafety level two would cover work with agents associated with human 
-disease, in other words, pathogenic or infectious organisms posing a 
-moderate hazard.</t>
+          <t>Biosafety level one, the lowest level, applies to work with agents that usually pose a minimal potential threat to laboratory workers and the environment and do not consistently cause disease in healthy adults.</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -11080,7 +11066,7 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409604003</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409603009</t>
         </is>
       </c>
       <c r="K211" t="inlineStr"/>
@@ -11109,19 +11095,21 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>covid19:10193</t>
+          <t>covid19:10192</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>BSL-3 laboratory</t>
+          <t>BSL-2 laboratory</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Yellow fever, St. Louis encephalitis and West Nile virus are examples of agents requiring biosafety level 3 practices and containment. Work with these agents is strictly controlled and must be registered with all appropriate government agencies.</t>
+          <t>Biosafety level two would cover work with agents associated with human 
+disease, in other words, pathogenic or infectious organisms posing a 
+moderate hazard.</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -11138,7 +11126,7 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409605002</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409604003</t>
         </is>
       </c>
       <c r="K212" t="inlineStr"/>
@@ -11167,19 +11155,19 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>covid19:10194</t>
+          <t>covid19:10193</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BSL-4 laboratory</t>
+          <t>BSL-3 laboratory</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agents requiring BSL 4 facilities and practices are extremely dangerous pand pose a high risk of life-threatening disease. Examples are the Ebola  virus, the Lassa virus, and any agent with unknown risks of pathogenicity and transmission. </t>
+          <t>Yellow fever, St. Louis encephalitis and West Nile virus are examples of agents requiring biosafety level 3 practices and containment. Work with these agents is strictly controlled and must be registered with all appropriate government agencies.</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -11194,7 +11182,11 @@
         </is>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/409605002</t>
+        </is>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
@@ -11221,23 +11213,27 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>covid19:10195</t>
+          <t>covid19:10194</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>antibody facility</t>
+          <t>BSL-4 laboratory</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>helps researchers produce custom antibodies</t>
+          <t xml:space="preserve">Agents requiring BSL 4 facilities and practices are extremely dangerous pand pose a high risk of life-threatening disease. Examples are the Ebola  virus, the Lassa virus, and any agent with unknown risks of pathogenicity and transmission. </t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://www.labmanager.com/lab-health-and-safety/biosafety-levels-1-2-3-4-19123</t>
+        </is>
+      </c>
       <c r="H214" t="inlineStr">
         <is>
           <t>covid19:10187</t>
@@ -11271,17 +11267,21 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>covid19:10196</t>
+          <t>covid19:10195</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>proteomics facility</t>
+          <t>antibody facility</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>helps researchers produce custom antibodies</t>
+        </is>
+      </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
@@ -11317,21 +11317,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>covid19:10197</t>
+          <t>covid19:10196</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>metabolomics facility</t>
+          <t>proteomics facility</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>complete analytical platform, coupled to advanced extraction techniques, sample prep methods and vast experience, allows to offer non-targetted or targetted metabolomic studies, metabolomic fingerprinting or footprinting studies</t>
-        </is>
-      </c>
+      <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr">
@@ -11367,19 +11363,19 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>covid19:10198</t>
+          <t>covid19:10197</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>animal facility (breeding/transgenesis)</t>
+          <t>metabolomics facility</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Keeping and breeding of test animals for the purpose of scientific research and education</t>
+          <t>complete analytical platform, coupled to advanced extraction techniques, sample prep methods and vast experience, allows to offer non-targetted or targetted metabolomic studies, metabolomic fingerprinting or footprinting studies</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -11417,19 +11413,19 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>covid19:10199</t>
+          <t>covid19:10198</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>flow cytometry facility</t>
+          <t>animal facility (breeding/transgenesis)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>accommodates all research and diagnostic flow cytometry equipment</t>
+          <t>Keeping and breeding of test animals for the purpose of scientific research and education</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -11467,19 +11463,19 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>covid19:10200</t>
+          <t>covid19:10199</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>microscopy facility</t>
+          <t>flow cytometry facility</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>connect clinical and biological research with microscopy and image analysis developments, offer support and provide training and education to make use of the facility</t>
+          <t>accommodates all research and diagnostic flow cytometry equipment</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -11517,19 +11513,19 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>covid19:10201</t>
+          <t>covid19:10200</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>sequencing facility</t>
+          <t>microscopy facility</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>provides support for Next Generation Sequencing (NGS) based research</t>
+          <t>connect clinical and biological research with microscopy and image analysis developments, offer support and provide training and education to make use of the facility</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -11567,19 +11563,19 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>covid19:10202</t>
+          <t>covid19:10201</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>hiPSC facility</t>
+          <t>sequencing facility</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>human induced Pluripotent Stem Cell (hiPSC) facility: generation of research grade hiPSCs from different tissue sources</t>
+          <t>provides support for Next Generation Sequencing (NGS) based research</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -11617,17 +11613,21 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>covid19:10203</t>
+          <t>covid19:10202</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>GMP facility</t>
+          <t>hiPSC facility</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>human induced Pluripotent Stem Cell (hiPSC) facility: generation of research grade hiPSCs from different tissue sources</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
@@ -11663,21 +11663,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>covid19:10204</t>
+          <t>covid19:10203</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>data analytics facility</t>
+          <t>GMP facility</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>offers advice on advanced quantitative, statistical and computational methods for biomedical and clinical researchers</t>
-        </is>
-      </c>
+      <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
@@ -11713,19 +11709,19 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>covid19:10205</t>
+          <t>covid19:10204</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>biobank facility</t>
+          <t>data analytics facility</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>A facility or core that provides storage for any type of biospecimen.</t>
+          <t>offers advice on advanced quantitative, statistical and computational methods for biomedical and clinical researchers</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -11763,17 +11759,21 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>covid19:10206</t>
+          <t>covid19:10205</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>viral vector facility</t>
+          <t>biobank facility</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>A facility or core that provides storage for any type of biospecimen.</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
@@ -11809,12 +11809,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>covid19:10207</t>
+          <t>covid19:10206</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>pharmacy</t>
+          <t>viral vector facility</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -11855,26 +11855,22 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>covid19:10208</t>
+          <t>covid19:10207</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>repository</t>
+          <t>pharmacy</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>an online service that enables you to upload and query, view and download data</t>
-        </is>
-      </c>
+      <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>covid19:10186</t>
+          <t>covid19:10187</t>
         </is>
       </c>
       <c r="I227" t="inlineStr"/>
@@ -11905,26 +11901,26 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>covid19:10209</t>
+          <t>covid19:10208</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>biobank</t>
+          <t>repository</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>A physical store of biological samples, and an online service that enables you to request the samples and data about them</t>
+          <t>an online service that enables you to upload and query, view and download data</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>covid19:10186</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="I228" t="inlineStr"/>
@@ -11955,26 +11951,26 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>covid19:10210</t>
+          <t>covid19:10209</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>data catalogue</t>
+          <t>biobank</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">an online service that enables you to query and/or download datasets </t>
+          <t>A physical store of biological samples, and an online service that enables you to request the samples and data about them</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>covid19:10186</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="I229" t="inlineStr"/>
@@ -12005,26 +12001,26 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>covid19:10211</t>
+          <t>covid19:10210</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ELSI service</t>
+          <t>data catalogue</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>service facilitating compliance with regulatory requirements and best practice standards relating to ethical, legal and societal issues (ELSI)</t>
+          <t xml:space="preserve">an online service that enables you to query and/or download datasets </t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>covid19:10186</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="I230" t="inlineStr"/>
@@ -12055,22 +12051,26 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>covid19:10212</t>
+          <t>covid19:10211</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>other online service</t>
+          <t>ELSI service</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>service facilitating compliance with regulatory requirements and best practice standards relating to ethical, legal and societal issues (ELSI)</t>
+        </is>
+      </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>covid19:10186</t>
+          <t>gen:10013</t>
         </is>
       </c>
       <c r="I231" t="inlineStr"/>
@@ -12101,12 +12101,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>covid19:10213</t>
+          <t>covid19:10212</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve">standard </t>
+          <t>other online service</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -12114,7 +12114,11 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>gen:10013</t>
+        </is>
+      </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
@@ -12143,12 +12147,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>covid19:10214</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>metadata standard</t>
+          <t xml:space="preserve">standard </t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -12156,11 +12160,7 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>covid19:10213</t>
-        </is>
-      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
@@ -12189,26 +12189,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>covid19:10215</t>
+          <t>gen:10015</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>semantic artefact</t>
+          <t>metadata standard</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>is the overarching name for any set of fixed denotations that are used to describe something with the goal to reduce ambiguity and facilitate machine interoperability. It can range from a simple controlled vocabulary (a simple list of terms) to a complex ontology (formal definitions of terms and their relations semantically expressed in a machine-readable way). This term may also include taxonomies, thesauri, conceptual models or any other kinds of knowledge organization sources.</t>
-        </is>
-      </c>
+      <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>covid19:10213</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="I234" t="inlineStr"/>
@@ -12239,22 +12235,26 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>covid19:10216</t>
+          <t>gen:10016</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>technical standard</t>
+          <t>semantic artefact</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>is the overarching name for any set of fixed denotations that are used to describe something with the goal to reduce ambiguity and facilitate machine interoperability. It can range from a simple controlled vocabulary (a simple list of terms) to a complex ontology (formal definitions of terms and their relations semantically expressed in a machine-readable way). This term may also include taxonomies, thesauri, conceptual models or any other kinds of knowledge organization sources.</t>
+        </is>
+      </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>covid19:10213</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="I235" t="inlineStr"/>
@@ -12285,12 +12285,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>covid19:10217</t>
+          <t>gen:10017</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>conceptual model</t>
+          <t>technical standard</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -12300,7 +12300,7 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>covid19:10213</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
@@ -12331,12 +12331,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>covid19:10218</t>
+          <t>gen:10018</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>guideline</t>
+          <t>conceptual model</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -12346,7 +12346,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>covid19:10213</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
@@ -12377,12 +12377,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>covid19:10219</t>
+          <t>gen:10019</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>guideline</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -12392,7 +12392,7 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>covid19:10213</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
@@ -12423,12 +12423,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>covid19:10220</t>
+          <t>gen:10020</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>COVID-19 vaccination grouping</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -12438,7 +12438,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>covid19:10037</t>
+          <t>gen:10014</t>
         </is>
       </c>
       <c r="I239" t="inlineStr"/>
@@ -12469,26 +12469,22 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>covid19:10221</t>
+          <t>covid19:10220</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>political data</t>
+          <t>COVID-19 vaccination grouping</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Data about activities concerned with governmental policies, functions, etc.</t>
-        </is>
-      </c>
+      <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10004</t>
         </is>
       </c>
       <c r="I240" t="inlineStr"/>
@@ -12519,22 +12515,26 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>covid19:10222</t>
+          <t>covid19:10221</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>economic data</t>
+          <t>political data</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Data about activities concerned with governmental policies, functions, etc.</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I241" t="inlineStr"/>
@@ -12565,12 +12565,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>covid19:10223</t>
+          <t>covid19:10222</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>socio-economic data</t>
+          <t>economic data</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -12580,7 +12580,7 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>covid19:10107</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I242" t="inlineStr"/>
@@ -12611,12 +12611,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>covid19:10224</t>
+          <t>covid19:10223</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>other type of biomaterial</t>
+          <t>socio-economic data</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -12626,7 +12626,7 @@
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>covid19:10144</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I243" t="inlineStr"/>
@@ -12657,24 +12657,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10012</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>focus area</t>
+          <t>other type of biomaterial</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>ZonMw specific focus areas</t>
-        </is>
-      </c>
+      <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>gen:10007</t>
+        </is>
+      </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -12703,24 +12703,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>covid19:10226</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>predictive diagnostics and treatment</t>
+          <t>focus area</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>ZonMw specific focus areas</t>
+        </is>
+      </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>covid19:10225</t>
-        </is>
-      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -12749,12 +12749,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>covid19:10227</t>
+          <t>covid19:10226</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>virus, immunity, immune response and pathogenesis</t>
+          <t>predictive diagnostics and treatment</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -12764,7 +12764,7 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="I246" t="inlineStr"/>
@@ -12795,12 +12795,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>covid19:10228</t>
+          <t>covid19:10227</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>care and prevention</t>
+          <t>virus, immunity, immune response and pathogenesis</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -12810,7 +12810,7 @@
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="I247" t="inlineStr"/>
@@ -12841,12 +12841,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>covid19:10229</t>
+          <t>covid19:10228</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>effects on society</t>
+          <t>care and prevention</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -12856,7 +12856,7 @@
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
         <is>
-          <t>covid19:10225</t>
+          <t>gen:10001</t>
         </is>
       </c>
       <c r="I248" t="inlineStr"/>
@@ -12887,12 +12887,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>covid19:10229</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>effects on society</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -12900,7 +12900,11 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>gen:10001</t>
+        </is>
+      </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -12929,12 +12933,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>covid19:10231</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>organisation of care and prevention</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -12942,11 +12946,7 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>covid19:10230</t>
-        </is>
-      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -12975,46 +12975,26 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>covid19:10232</t>
+          <t>covid19:10231</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>diagnostics</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Diagnostiek</t>
-        </is>
-      </c>
+          <t>organisation of care and prevention</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>The representation of a conclusion of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Het diagnostisch proces</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
-        </is>
-      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
@@ -13041,38 +13021,46 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>covid19:10233</t>
+          <t>covid19:10232</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>impact of measures and strategies</t>
+          <t>diagnostics</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>De Impact Van Maatregels En Strategieen</t>
+          <t>Diagnostiek</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>The impact of the social distancing measures</t>
+          <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>De impact van de 1,5m maatregel</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr"/>
+          <t>Het diagnostisch proces</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+        </is>
+      </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OGMS_0000073</t>
+        </is>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr"/>
@@ -13099,30 +13087,34 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>covid19:10234</t>
+          <t>covid19:10233</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>impact of measures and strategies</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Gezondheidszorg</t>
+          <t>De Impact Van Maatregels En Strategieen</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>The use of healthcare, 1st line and 2nd line.</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr"/>
+          <t>The impact of the social distancing measures</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>De impact van de 1,5m maatregel</t>
+        </is>
+      </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I253" t="inlineStr"/>
@@ -13153,34 +13145,30 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>covid19:10235</t>
+          <t>covid19:10234</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>healthcare</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Onderwijs</t>
+          <t>Gezondheidszorg</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>The activities of educating or instructing or teaching; activities that impart knowledge or skill.</t>
+          <t>The use of healthcare, 1st line and 2nd line.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C16529&amp;key=2040663473&amp;b=1&amp;n=null</t>
-        </is>
-      </c>
+      <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I254" t="inlineStr"/>
@@ -13211,44 +13199,38 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>covid19:10236</t>
+          <t>covid19:10235</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>therapy</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Behandeling</t>
+          <t>Onderwijs</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate a disorder, the signs and symptoms of a disorder, or a pathological process</t>
+          <t>The activities of educating or instructing or teaching; activities that impart knowledge or skill.</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
-</t>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C16529&amp;key=2040663473&amp;b=1&amp;n=null</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
-</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr"/>
@@ -13275,34 +13257,44 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>covid19:10237</t>
+          <t>covid19:10236</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>risk analysis</t>
+          <t>therapy</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Risico Analyse</t>
+          <t>Behandeling</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>The process of assessing the likelihood of the risk of admission to the Emergency Department of a COVID patient</t>
+          <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate a disorder, the signs and symptoms of a disorder, or a pathological process</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
+        </is>
+      </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/OGMS_0000090
+</t>
+        </is>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr"/>
@@ -13329,42 +13321,34 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>covid19:10238</t>
+          <t>covid19:10237</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>prognosis</t>
+          <t>risk analysis</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Prognose</t>
+          <t>Risico Analyse</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Prognosis is the prediction of the probable outcome of an individual's current medical condition. A prognosis is made on the basis of the normal course of a disease, the individual's physical and psychological condition, and additional factors such as therapeutic approach.</t>
+          <t>The process of assessing the likelihood of the risk of admission to the Emergency Department of a COVID patient</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>https://scigraph.springernature.com/ontologies/subjects/prognosis</t>
-        </is>
-      </c>
+      <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>https://scigraph.springernature.com/ontologies/subjects/prognosis</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr"/>
@@ -13391,30 +13375,42 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>covid19:10239</t>
+          <t>covid19:10238</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>immunology</t>
+          <t>prognosis</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Immunologie</t>
+          <t>Prognose</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
-      <c r="E258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Prognosis is the prediction of the probable outcome of an individual's current medical condition. A prognosis is made on the basis of the normal course of a disease, the individual's physical and psychological condition, and additional factors such as therapeutic approach.</t>
+        </is>
+      </c>
       <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>https://scigraph.springernature.com/ontologies/subjects/prognosis</t>
+        </is>
+      </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>https://scigraph.springernature.com/ontologies/subjects/prognosis</t>
+        </is>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr"/>
@@ -13441,17 +13437,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>covid19:10240</t>
+          <t>covid19:10239</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>immunology</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Gedrag</t>
+          <t>Immunologie</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
@@ -13460,7 +13456,7 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
         <is>
-          <t>covid19:10230</t>
+          <t>gen:10002</t>
         </is>
       </c>
       <c r="I259" t="inlineStr"/>
@@ -13491,34 +13487,30 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>covid19:10241</t>
+          <t>covid19:10240</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr"/>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Gedrag</t>
+        </is>
+      </c>
       <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>A description of something observed or derived, minimally consisting of  an ObjectOfInterest and its Property.</t>
-        </is>
-      </c>
+      <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>gen:10002</t>
+        </is>
+      </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr"/>
@@ -13545,32 +13537,32 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>covid19:10242</t>
+          <t>gen:10021</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>A type of a characteristic of the ObjectOfInterest.</t>
+          <t>A description of something observed or derived, minimally consisting of  an ObjectOfInterest and its Property.</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
         </is>
       </c>
       <c r="K261" t="inlineStr"/>
@@ -13599,32 +13591,32 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>covid19:10243</t>
+          <t>gen:10022</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>constraint</t>
+          <t>property</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>A Constraint limits the scope of the observation and confines the context to a particular state. It describes properties of the involved entities that are relevant to the particular observation.</t>
+          <t>A type of a characteristic of the ObjectOfInterest.</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
         </is>
       </c>
       <c r="K262" t="inlineStr"/>
@@ -13653,30 +13645,34 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>covid19:10244</t>
+          <t>gen:10023</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>genomics data</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>sequencing data</t>
-        </is>
-      </c>
+          <t>constraint</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>A Constraint limits the scope of the observation and confines the context to a particular state. It describes properties of the involved entities that are relevant to the particular observation.</t>
+        </is>
+      </c>
       <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>covid19:10107</t>
-        </is>
-      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+        </is>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
@@ -13703,22 +13699,26 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>covid19:10245</t>
+          <t>covid19:10244</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>perineal swab</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr"/>
+          <t>genomics data</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>sequencing data</t>
+        </is>
+      </c>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr">
         <is>
-          <t>covid19:10144</t>
+          <t>gen:10005</t>
         </is>
       </c>
       <c r="I264" t="inlineStr"/>
@@ -13749,12 +13749,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>covid19:10246</t>
+          <t>covid19:10245</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>cloacal swab</t>
+          <t>perineal swab</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -13764,7 +13764,7 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
-          <t>covid19:10144</t>
+          <t>gen:10007</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -13792,6 +13792,52 @@
       <c r="AE265" t="inlineStr"/>
       <c r="AF265" t="inlineStr"/>
     </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>covid19:10246</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>cloacal swab</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>gen:10007</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr"/>
+      <c r="S266" t="inlineStr"/>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr"/>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="inlineStr"/>
+      <c r="Z266" t="inlineStr"/>
+      <c r="AA266" t="inlineStr"/>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr"/>
+      <c r="AD266" t="inlineStr"/>
+      <c r="AE266" t="inlineStr"/>
+      <c r="AF266" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.2.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-06-29T08:20:00+00:00</t>
+          <t>2021-07-11T12:00:00+00:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF266"/>
+  <dimension ref="A1:AF267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10025</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>gen:10008</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
@@ -13838,6 +13838,52 @@
       <c r="AE266" t="inlineStr"/>
       <c r="AF266" t="inlineStr"/>
     </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>gen.10024</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>microorganism</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr"/>
+      <c r="Z267" t="inlineStr"/>
+      <c r="AA267" t="inlineStr"/>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+      <c r="AD267" t="inlineStr"/>
+      <c r="AE267" t="inlineStr"/>
+      <c r="AF267" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -13764,7 +13764,7 @@
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
         <is>
-          <t>gen:10007</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I265" t="inlineStr"/>
@@ -13810,7 +13810,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>gen:10007</t>
+          <t>gen:10009</t>
         </is>
       </c>
       <c r="I266" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF267"/>
+  <dimension ref="A1:AF268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13841,7 +13841,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>gen.10024</t>
+          <t>gen:10024</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -13884,6 +13884,52 @@
       <c r="AE267" t="inlineStr"/>
       <c r="AF267" t="inlineStr"/>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>gen:10025</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr"/>
+      <c r="AE268" t="inlineStr"/>
+      <c r="AF268" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
